--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:27:30+00:00</t>
+    <t>2022-10-23T19:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T20:13:34+00:00</t>
+    <t>2022-10-25T12:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T12:14:01+00:00</t>
+    <t>2022-10-25T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4876" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5453" uniqueCount="563">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:47:24+00:00</t>
+    <t>2022-10-30T17:01:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1527,6 +1527,91 @@
   </si>
   <si>
     <t>Package Item (Container).Shelf Life / Storage</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type</t>
+  </si>
+  <si>
+    <t>This describes the shelf life, taking into account various scenarios such as shelf life of the packaged Medicinal Product itself, shelf life after transformation where necessary and shelf life after the first opening of a bottle, etc. The shelf life type shall be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified</t>
+  </si>
+  <si>
+    <t>This describes the shelf life, taking into account various scenarios such as shelf life of the packaged Medicinal Product itself, shelf life after transformation where necessary and shelf life after the first opening of a bottle, etc. The shelf life type shall be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified.</t>
+  </si>
+  <si>
+    <t>ProductShelfLife.type</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.system</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/rmswi/#/lists/100000073343/terms</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.version</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.code</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.display</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.text</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.period[x]</t>
+  </si>
+  <si>
+    <t>Duration
+string</t>
+  </si>
+  <si>
+    <t>The shelf life time period can be specified using a numerical value for the period of time and its unit of time measurement The unit of measurement shall be specified in accordance with ISO 11240 and the resulting terminology The symbol and the symbol identifier shall be used</t>
+  </si>
+  <si>
+    <t>The shelf life time period can be specified using a numerical value for the period of time and its unit of time measurement The unit of measurement shall be specified in accordance with ISO 11240 and the resulting terminology The symbol and the symbol identifier shall be used.</t>
+  </si>
+  <si>
+    <t>ProductShelfLife.period[x]</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.specialPrecautionsForStorage</t>
+  </si>
+  <si>
+    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified</t>
+  </si>
+  <si>
+    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified.</t>
+  </si>
+  <si>
+    <t>ProductShelfLife.specialPrecautionsForStorage</t>
   </si>
   <si>
     <t>PackagedProductDefinition.packaging.manufacturer</t>
@@ -1951,7 +2036,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL143"/>
+  <dimension ref="A1:AL160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1960,7 +2045,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="74.93359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="79.18359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -15919,7 +16004,7 @@
         <v>74</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>73</v>
@@ -15928,16 +16013,16 @@
         <v>73</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>494</v>
+        <v>151</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>495</v>
+        <v>152</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -15988,37 +16073,37 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>493</v>
+        <v>153</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>496</v>
+        <v>73</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16034,18 +16119,20 @@
         <v>73</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>280</v>
+        <v>128</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>498</v>
+        <v>129</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M131" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
         <v>73</v>
@@ -16082,19 +16169,19 @@
         <v>73</v>
       </c>
       <c r="AA131" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB131" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD131" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>497</v>
+        <v>159</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -16106,53 +16193,57 @@
         <v>73</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>500</v>
+        <v>73</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>151</v>
+        <v>288</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O132" t="s" s="2">
         <v>73</v>
       </c>
@@ -16200,19 +16291,19 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>153</v>
+        <v>374</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>73</v>
@@ -16221,23 +16312,23 @@
         <v>73</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>154</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>73</v>
@@ -16246,20 +16337,18 @@
         <v>73</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>129</v>
+        <v>497</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="M133" s="2"/>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
         <v>73</v>
@@ -16308,19 +16397,19 @@
         <v>73</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>159</v>
+        <v>499</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>73</v>
@@ -16329,48 +16418,44 @@
         <v>73</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>288</v>
+        <v>151</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>73</v>
       </c>
@@ -16418,19 +16503,19 @@
         <v>73</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>290</v>
+        <v>153</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>73</v>
@@ -16439,23 +16524,23 @@
         <v>73</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>73</v>
@@ -16464,18 +16549,20 @@
         <v>73</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>505</v>
+        <v>129</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M135" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>73</v>
@@ -16500,57 +16587,57 @@
         <v>73</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>507</v>
+        <v>73</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>508</v>
+        <v>73</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA135" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB135" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD135" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>504</v>
+        <v>159</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>509</v>
+        <v>73</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16561,7 +16648,7 @@
         <v>74</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>73</v>
@@ -16573,16 +16660,20 @@
         <v>83</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>511</v>
+        <v>299</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>512</v>
+        <v>300</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O136" t="s" s="2">
         <v>73</v>
       </c>
@@ -16630,13 +16721,13 @@
         <v>73</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>510</v>
+        <v>304</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>73</v>
@@ -16645,18 +16736,18 @@
         <v>94</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>514</v>
+        <v>73</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>73</v>
+        <v>305</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16667,7 +16758,7 @@
         <v>74</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>73</v>
@@ -16676,16 +16767,16 @@
         <v>73</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>516</v>
+        <v>151</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>517</v>
+        <v>152</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -16736,44 +16827,44 @@
         <v>73</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>515</v>
+        <v>153</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>518</v>
+        <v>73</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>73</v>
@@ -16785,15 +16876,17 @@
         <v>73</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M138" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
         <v>73</v>
@@ -16830,31 +16923,31 @@
         <v>73</v>
       </c>
       <c r="AA138" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB138" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD138" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>73</v>
@@ -16868,18 +16961,18 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>73</v>
@@ -16888,21 +16981,23 @@
         <v>73</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>129</v>
+        <v>309</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>156</v>
+        <v>310</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N139" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O139" t="s" s="2">
         <v>73</v>
       </c>
@@ -16911,7 +17006,7 @@
         <v>73</v>
       </c>
       <c r="R139" t="s" s="2">
-        <v>73</v>
+        <v>506</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>73</v>
@@ -16950,19 +17045,19 @@
         <v>73</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>159</v>
+        <v>314</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>73</v>
@@ -16971,48 +17066,46 @@
         <v>73</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>154</v>
+        <v>315</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I140" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>73</v>
       </c>
@@ -17060,19 +17153,19 @@
         <v>73</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>73</v>
@@ -17081,12 +17174,12 @@
         <v>73</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>125</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17094,7 +17187,7 @@
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F141" t="s" s="2">
         <v>82</v>
@@ -17109,16 +17202,18 @@
         <v>83</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>523</v>
+        <v>102</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>524</v>
+        <v>323</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>525</v>
+        <v>324</v>
       </c>
       <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
+      <c r="N141" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O141" t="s" s="2">
         <v>73</v>
       </c>
@@ -17166,10 +17261,10 @@
         <v>73</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>522</v>
+        <v>326</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>82</v>
@@ -17181,18 +17276,18 @@
         <v>94</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>526</v>
+        <v>73</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>73</v>
+        <v>327</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17215,16 +17310,18 @@
         <v>83</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>528</v>
+        <v>329</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>529</v>
+        <v>330</v>
       </c>
       <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
+      <c r="N142" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O142" t="s" s="2">
         <v>73</v>
       </c>
@@ -17272,7 +17369,7 @@
         <v>73</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>527</v>
+        <v>332</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>74</v>
@@ -17287,18 +17384,18 @@
         <v>94</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>530</v>
+        <v>73</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>73</v>
+        <v>333</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17309,7 +17406,7 @@
         <v>74</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>73</v>
@@ -17321,16 +17418,20 @@
         <v>83</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>73</v>
+        <v>335</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>532</v>
+        <v>336</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N143" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O143" t="s" s="2">
         <v>73</v>
       </c>
@@ -17378,13 +17479,13 @@
         <v>73</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>531</v>
+        <v>340</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>73</v>
@@ -17393,12 +17494,1830 @@
         <v>94</v>
       </c>
       <c r="AJ143" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="O144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P144" s="2"/>
+      <c r="Q144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P145" s="2"/>
+      <c r="Q145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P146" s="2"/>
+      <c r="Q146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL146" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P147" s="2"/>
+      <c r="Q147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL147" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+      <c r="O148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P148" s="2"/>
+      <c r="Q148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AF148" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AK148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL148" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+      <c r="O149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P149" s="2"/>
+      <c r="Q149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N150" s="2"/>
+      <c r="O150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P150" s="2"/>
+      <c r="Q150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL150" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P151" s="2"/>
+      <c r="Q151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE151" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF151" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI151" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL151" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I152" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J152" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K152" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L152" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AK143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL143" t="s" s="2">
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
+      <c r="O152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P152" s="2"/>
+      <c r="Q152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W152" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="X152" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="Y152" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE152" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI152" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ152" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AK152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL152" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I153" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="K153" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
+      <c r="O153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P153" s="2"/>
+      <c r="Q153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE153" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AF153" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI153" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ153" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AK153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL153" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I154" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J154" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M154" s="2"/>
+      <c r="N154" s="2"/>
+      <c r="O154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P154" s="2"/>
+      <c r="Q154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AF154" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI154" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ154" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AK154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL154" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K155" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
+      <c r="O155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P155" s="2"/>
+      <c r="Q155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL155" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N156" s="2"/>
+      <c r="O156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P156" s="2"/>
+      <c r="Q156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI156" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL156" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="E157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I157" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K157" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L157" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N157" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P157" s="2"/>
+      <c r="Q157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI157" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL157" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D158" s="2"/>
+      <c r="E158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I158" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J158" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M158" s="2"/>
+      <c r="N158" s="2"/>
+      <c r="O158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P158" s="2"/>
+      <c r="Q158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE158" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AF158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI158" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ158" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AK158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL158" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B159" s="2"/>
+      <c r="C159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D159" s="2"/>
+      <c r="E159" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I159" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J159" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K159" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
+      <c r="O159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P159" s="2"/>
+      <c r="Q159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE159" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AF159" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AK159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL159" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M160" s="2"/>
+      <c r="N160" s="2"/>
+      <c r="O160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P160" s="2"/>
+      <c r="Q160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI160" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ160" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AK160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL160" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T17:01:43+00:00</t>
+    <t>2022-10-30T18:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T18:15:34+00:00</t>
+    <t>2022-10-30T20:04:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T20:04:00+00:00</t>
+    <t>2022-10-30T21:50:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T21:50:47+00:00</t>
+    <t>2022-10-30T22:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:04:36+00:00</t>
+    <t>2022-10-30T22:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:13:17+00:00</t>
+    <t>2022-11-02T06:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T06:16:24+00:00</t>
+    <t>2022-11-02T20:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1705,7 +1705,7 @@
     <t>PackagedProductDefinition.packaging.containedItem.item</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(ManufacturedItemDefinition|DeviceDefinition|PackagedProductDefinition|BiologicallyDerivedProduct|NutritionProduct)
+    <t xml:space="preserve">CodeableReference(http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T20:48:31+00:00</t>
+    <t>2022-11-03T14:07:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:30:00+00:00</t>
+    <t>2022-11-05T15:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:35:25+00:00</t>
+    <t>2022-11-06T17:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -477,7 +477,7 @@
     <t>PCID for the product. Consists of MPID + unique package code. For the same product PCID is different if the package material is different.</t>
   </si>
   <si>
-    <t>A unique identifier for this package as whole - not the the content of the package. Unique instance identifiers assigned to a package by manufacturers, regulators, drug catalogue custodians or other organizations.</t>
+    <t>EMA IG 4.1</t>
   </si>
   <si>
     <t>PackagedProductDefinition.identifier.id</t>
@@ -740,7 +740,7 @@
     <t>Pack size. Repeated for combination packages.</t>
   </si>
   <si>
-    <t>A total of the complete count of contained items of a particular type/form, independent of sub-packaging or organization. This can be considered as the pack size. This attribute differs from containedItem.amount in that it can give a single aggregated count of all tablet types in a pack, even when these are different manufactured items. For example a pill pack of 21 tablets plus 7 sugar tablets, can be denoted here as '28 tablets'. This attribute is repeatable so that the different item types in one pack type can be counted (e.g. a count of vials and count of syringes). Each repeat must have different units, so that it is clear what the different sets of counted items are, and it is not intended to allow different counts of similar items (e.g. not '2 tubes and 3 tubes'). Repeats are not to be used to represent different pack sizes (e.g. 20 pack vs. 50 pack) - which would be different instances of this resource.</t>
+    <t>EMA IG 4.4</t>
   </si>
   <si>
     <t>PackagedProductDefinition.containedItemQuantity.id</t>
@@ -872,7 +872,7 @@
     <t>Textual description. Note that this is not the name of the package or product</t>
   </si>
   <si>
-    <t>Textual description. Note that this is not the name of the package or product.</t>
+    <t>EMA IG 4.2</t>
   </si>
   <si>
     <t>Packaged Medicinal Product.description</t>
@@ -888,7 +888,7 @@
     <t>Legal status of supply on the packaged product level.</t>
   </si>
   <si>
-    <t>Legal status of supply on the packaged product level. The same information can be repeated/differentiated on the medicinal product level</t>
+    <t>EMA IG 4.5. Legal status of supply on the packaged product level. The same information can be repeated/differentiated on the medicinal product level</t>
   </si>
   <si>
     <t>Marketing Authorisation.Legal Status of Supply (for a package)</t>
@@ -1154,7 +1154,7 @@
     <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated</t>
   </si>
   <si>
-    <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated.</t>
+    <t>EMA IG 4.6</t>
   </si>
   <si>
     <t>Packaged Medicinal Product.Marketing Status</t>
@@ -1386,7 +1386,7 @@
     <t>Container type</t>
   </si>
   <si>
-    <t>The physical type of the container of the items.</t>
+    <t>EMA IG 4.8.1</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/packaging-type</t>
@@ -1441,7 +1441,7 @@
     <t>The quantity of this level of packaging in the package that contains it (with the outermost level being 1)</t>
   </si>
   <si>
-    <t>The quantity of packaging items contained at this layer of the package. This does not relate to the number of contained items but relates solely to the number of packaging items. When looking at the outermost layer it is always 1. If there are two boxes within, at the next layer it would be 2.</t>
+    <t>EMA IG 4.8.5</t>
   </si>
   <si>
     <t>Package Item (Container).Package Item (Container) Quantity</t>
@@ -1453,7 +1453,7 @@
     <t>Material type of the package item</t>
   </si>
   <si>
-    <t>Material type of the package item.</t>
+    <t>EMA IG 4.8.7</t>
   </si>
   <si>
     <t>A material used in the construction of packages and their components.</t>
@@ -1523,7 +1523,7 @@
     <t>Shelf Life and storage information</t>
   </si>
   <si>
-    <t>Shelf Life and storage information.</t>
+    <t>EMA IG 4.12</t>
   </si>
   <si>
     <t>Package Item (Container).Shelf Life / Storage</t>
@@ -1687,7 +1687,7 @@
     <t>An item (inner package or manufactured item) within the packaging</t>
   </si>
   <si>
-    <t>The item(s) within the packaging.</t>
+    <t>EMA IG 4.9 or 4.8.3</t>
   </si>
   <si>
     <t>Package Item (Container).Manufactured Item, Package Item (Container).Device</t>
@@ -1724,7 +1724,7 @@
     <t>Number of the manufactured items (e.g. tablets) in this package layer or the amount of manufactured item (e.g. 20 g) in the unit of presentation defined in manufactured item definition</t>
   </si>
   <si>
-    <t>The number of this type of item within this packaging.</t>
+    <t>EMA IG 4.11.2</t>
   </si>
   <si>
     <t>Manufactured Item.Manufactured Item Quantity</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T17:03:22+00:00</t>
+    <t>2022-11-06T21:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -828,7 +828,7 @@
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/200000000014/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/200000000014</t>
   </si>
   <si>
     <t>Quantity.system</t>
@@ -984,7 +984,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/100000072051/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/100000072051</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1126,7 +1126,7 @@
     <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.coding.system</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/100000000002/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/100000000002</t>
   </si>
   <si>
     <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.coding.version</t>
@@ -1259,7 +1259,7 @@
     <t>PackagedProductDefinition.marketingStatus.status.coding.system</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/100000072052/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/100000072052</t>
   </si>
   <si>
     <t>PackagedProductDefinition.marketingStatus.status.coding.version</t>
@@ -1413,7 +1413,7 @@
     <t>PackagedProductDefinition.packaging.type.coding.system</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/100000073346/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/100000073346</t>
   </si>
   <si>
     <t>PackagedProductDefinition.packaging.type.coding.version</t>
@@ -1483,7 +1483,7 @@
     <t>PackagedProductDefinition.packaging.material.coding.system</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/200000003199/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/200000003199</t>
   </si>
   <si>
     <t>PackagedProductDefinition.packaging.material.coding.version</t>
@@ -1568,7 +1568,7 @@
     <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.system</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/100000073343/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/100000073343</t>
   </si>
   <si>
     <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.version</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T21:19:48+00:00</t>
+    <t>2022-11-06T22:26:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:05:10+00:00</t>
+    <t>2022-11-07T21:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:23:46+00:00</t>
+    <t>2022-11-07T21:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:31:45+00:00</t>
+    <t>2022-11-08T20:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:45:51+00:00</t>
+    <t>2022-11-11T12:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:48:43+00:00</t>
+    <t>2022-11-11T13:10:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5420" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5453" uniqueCount="563">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLPackagedProductDefinition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T13:10:08+00:00</t>
+    <t>2022-11-11T15:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -277,7 +277,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -367,7 +367,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -390,17 +390,13 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
   </si>
   <si>
     <t>N/A</t>
@@ -443,7 +439,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -472,6 +468,9 @@
     <t>Packaged Medicinal Product.PCID</t>
   </si>
   <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
     <t>pcid</t>
   </si>
   <si>
@@ -530,7 +529,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -573,7 +572,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -607,7 +606,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/2021Mar/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -690,14 +689,14 @@
     <t>PackagedProductDefinition.packageFor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition)
 </t>
   </si>
   <si>
     <t>The product that this is a pack for</t>
   </si>
   <si>
-    <t>The product that this is a pack for.</t>
+    <t>The product this package model relates to, not the contents of the package (for which see package.containedItem).</t>
   </si>
   <si>
     <t>(the link from Packaged Medicinal Product to Medicinal Product)</t>
@@ -778,7 +777,7 @@
     <t>PackagedProductDefinition.containedItemQuantity.comparator</t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+    <t>&lt; | &lt;= | &gt;= | &gt; | ad - how to understand the value</t>
   </si>
   <si>
     <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
@@ -790,7 +789,7 @@
     <t>If there is no comparator, then there is no modification of the value</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0-ballot</t>
   </si>
   <si>
     <t>Quantity.comparator</t>
@@ -892,10 +891,6 @@
     <t>EMA IG 4.5. Legal status of supply on the packaged product level. The same information can be repeated/differentiated on the medicinal product level</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
-  </si>
-  <si>
     <t>Marketing Authorisation.Legal Status of Supply (for a package)</t>
   </si>
   <si>
@@ -983,7 +978,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -1174,6 +1169,9 @@
     <t>PackagedProductDefinition.marketingStatus.modifierExtension</t>
   </si>
   <si>
+    <t>BackboneType.modifierExtension</t>
+  </si>
+  <si>
     <t>PackagedProductDefinition.marketingStatus.country</t>
   </si>
   <si>
@@ -1315,10 +1313,10 @@
     <t>PackagedProductDefinition.copackagedIndicator</t>
   </si>
   <si>
-    <t>If the drug product is supplied with another item such as a diluent or adjuvant</t>
-  </si>
-  <si>
-    <t>States whether a drug product is supplied with another item such as a diluent or adjuvant.</t>
+    <t>Identifies if the drug product is supplied with another item such as a diluent or adjuvant</t>
+  </si>
+  <si>
+    <t>Identifies if the package contains different items, such as when a drug product is supplied with another item e.g. a diluent or adjuvant.</t>
   </si>
   <si>
     <t>If this value is not present, there is no statement being made about whether this is co-packaged or not. No inference can be made</t>
@@ -1336,7 +1334,20 @@
     <t>Packaged Medicinal Product.Manufacturer / Establishment (Organisation)</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package</t>
+    <t>PackagedProductDefinition.attachedDocument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(DocumentReference)
+</t>
+  </si>
+  <si>
+    <t>Additional information or supporting documentation about the packaged product</t>
+  </si>
+  <si>
+    <t>Additional information or supporting documentation about the packaged product.</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging</t>
   </si>
   <si>
     <t>A packaging item, as a container for medically related items, possibly with other packaging items within, or a packaging component, such as bottle cap</t>
@@ -1348,28 +1359,28 @@
     <t>Packaged Medicinal Product.Package Item (Container), Package Item (Container).Package (Component)</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.identifier</t>
+    <t>PackagedProductDefinition.packaging.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.identifier</t>
   </si>
   <si>
     <t>An identifier that is specific to this particular part of the packaging. Including possibly a Data Carrier Identifier</t>
   </si>
   <si>
-    <t>An identifier that is specific to this particular part of the packaging. Including possibly Data Carrier Identifier (a GS1 barcode).</t>
+    <t>A business identifier that is specific to this particular part of the packaging, often assigned by the manufacturer. Including possibly Data Carrier Identifier (a GS1 barcode).</t>
   </si>
   <si>
     <t>Package Item (Container).Data Carrier Identifier</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.type</t>
+    <t>PackagedProductDefinition.packaging.type</t>
   </si>
   <si>
     <t>Container type</t>
@@ -1384,43 +1395,43 @@
     <t>Package Item (Container).Package Item (Container) Type</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.type.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.system</t>
+    <t>PackagedProductDefinition.packaging.type.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.coding</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.coding.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.coding.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.coding.system</t>
   </si>
   <si>
     <t>http://spor.ema.europa.eu/v1/lists/100000073346</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.type.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.text</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.quantity</t>
+    <t>PackagedProductDefinition.packaging.type.coding.version</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.coding.code</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.coding.display</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.text</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.quantity</t>
   </si>
   <si>
     <t xml:space="preserve">integer
@@ -1436,7 +1447,7 @@
     <t>Package Item (Container).Package Item (Container) Quantity</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.material</t>
+    <t>PackagedProductDefinition.packaging.material</t>
   </si>
   <si>
     <t>Material type of the package item</t>
@@ -1454,43 +1465,43 @@
     <t>Package Item (Container).Material</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.material.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.system</t>
+    <t>PackagedProductDefinition.packaging.material.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.coding</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.coding.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.coding.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.coding.system</t>
   </si>
   <si>
     <t>http://spor.ema.europa.eu/v1/lists/200000003199</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.material.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.userSelected</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.text</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.alternateMaterial</t>
+    <t>PackagedProductDefinition.packaging.material.coding.version</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.coding.code</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.coding.display</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.coding.userSelected</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.text</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.alternateMaterial</t>
   </si>
   <si>
     <t>A possible alternate material for this part of the packaging, that is allowed to be used instead of the usual material</t>
@@ -1502,7 +1513,11 @@
     <t>Package Item (Container).Alternate Material</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage</t>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProductShelfLife
+</t>
   </si>
   <si>
     <t>Shelf Life and storage information</t>
@@ -1514,16 +1529,16 @@
     <t>Package Item (Container).Shelf Life / Storage</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type</t>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type</t>
   </si>
   <si>
     <t>This describes the shelf life, taking into account various scenarios such as shelf life of the packaged Medicinal Product itself, shelf life after transformation where necessary and shelf life after the first opening of a bottle, etc. The shelf life type shall be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified</t>
@@ -1532,43 +1547,46 @@
     <t>This describes the shelf life, taking into account various scenarios such as shelf life of the packaged Medicinal Product itself, shelf life after transformation where necessary and shelf life after the first opening of a bottle, etc. The shelf life type shall be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified.</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.system</t>
+    <t>ProductShelfLife.type</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.system</t>
   </si>
   <si>
     <t>http://spor.ema.europa.eu/v1/lists/100000073343</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.text</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.period[x]</t>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.version</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.code</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.display</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.text</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.period[x]</t>
   </si>
   <si>
     <t>Duration
@@ -1581,28 +1599,34 @@
     <t>The shelf life time period can be specified using a numerical value for the period of time and its unit of time measurement The unit of measurement shall be specified in accordance with ISO 11240 and the resulting terminology The symbol and the symbol identifier shall be used.</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.specialPrecautionsForStorage</t>
-  </si>
-  <si>
-    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary. The controlled term and the controlled term identifier shall be specified</t>
-  </si>
-  <si>
-    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary. The controlled term and the controlled term identifier shall be specified.</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.manufacturer</t>
-  </si>
-  <si>
-    <t>Manufacturer of this package Item (multiple means these are all possible manufacturers)</t>
-  </si>
-  <si>
-    <t>Manufacturer of this package Item. When there are multiple it means these are all possible manufacturers.</t>
+    <t>ProductShelfLife.period[x]</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.specialPrecautionsForStorage</t>
+  </si>
+  <si>
+    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified</t>
+  </si>
+  <si>
+    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified.</t>
+  </si>
+  <si>
+    <t>ProductShelfLife.specialPrecautionsForStorage</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.manufacturer</t>
+  </si>
+  <si>
+    <t>Manufacturer of this packaging item (multiple means these are all potential manufacturers)</t>
+  </si>
+  <si>
+    <t>Manufacturer of this packaging item. When there are multiple values each one is a potential manufacturer of this packaging item.</t>
   </si>
   <si>
     <t>Package Item (Container).Manufacturer / Establishment (Organisation)</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.property</t>
+    <t>PackagedProductDefinition.packaging.property</t>
   </si>
   <si>
     <t>General characteristics of this item</t>
@@ -1614,16 +1638,16 @@
     <t>Package Item (Container).Physical Characteristics</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.property.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.property.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.property.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.property.type</t>
+    <t>PackagedProductDefinition.packaging.property.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.property.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.property.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.property.type</t>
   </si>
   <si>
     <t>A code expressing the type of characteristic</t>
@@ -1641,7 +1665,7 @@
     <t>Physical Characteristics, all attributes</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.property.value[x]</t>
+    <t>PackagedProductDefinition.packaging.property.value[x]</t>
   </si>
   <si>
     <t>CodeableConcept
@@ -1657,7 +1681,7 @@
     <t>Physical Characteristics, attribute's value</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.containedItem</t>
+    <t>PackagedProductDefinition.packaging.containedItem</t>
   </si>
   <si>
     <t>An item (inner package or manufactured item) within the packaging</t>
@@ -1669,32 +1693,32 @@
     <t>Package Item (Container).Manufactured Item, Package Item (Container).Device</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.containedItem.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.containedItem.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.containedItem.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.containedItem.item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableReference(http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
+    <t>PackagedProductDefinition.packaging.containedItem.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.containedItem.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.containedItem.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.containedItem.item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableReference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLPackagedProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>
     <t>The actual item(s) of medication, as manufactured, or a device, or other medically related item (food, biologicals, raw materials, medical fluids, gases etc.), as contained in the package</t>
   </si>
   <si>
-    <t>The actual item(s) of medication, as manufactured, or a device (typically, but not necessarily, a co-packaged one), or other medically related item (such as food, biologicals, raw materials, medical fluids, gases etc.), as contained in the package. This also allows another whole packaged product to be included, which is solely for the case where a package of other entire packages is wanted - such as a wholesale or distribution pack (for layers within one package, use PackagedProductDefinition.package.package).</t>
+    <t>The actual item(s) of medication, as manufactured, or a device (typically, but not necessarily, a co-packaged one), or other medically related item (such as food, biologicals, raw materials, medical fluids, gases etc.), as contained in the package. This also allows another whole packaged product to be included, which is solely for the case where a package of other entire packages is wanted - such as a wholesale or distribution pack (for layers within one package, use PackagedProductDefinition.packaging.packaging).</t>
   </si>
   <si>
     <t>(the link to) Package Item (Container).Manufactured Item, Package Item (Container).Device</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.containedItem.amount</t>
+    <t>PackagedProductDefinition.packaging.containedItem.amount</t>
   </si>
   <si>
     <t>Number of the manufactured items (e.g. tablets) in this package layer or the amount of manufactured item (e.g. 20 g) in the unit of presentation defined in manufactured item definition</t>
@@ -1706,13 +1730,13 @@
     <t>Manufactured Item.Manufactured Item Quantity</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.package</t>
+    <t>PackagedProductDefinition.packaging.packaging</t>
   </si>
   <si>
     <t>Allows containers (and parts of containers) within containers, still a single packaged product</t>
   </si>
   <si>
-    <t>Allows containers (and parts of containers) parwithin containers, still a single packaged product.  See also PackagedProductDefinition.package.containedItem.item(PackagedProductDefinition).</t>
+    <t>Allows containers (and parts of containers) parwithin containers, still a single packaged product.  See also PackagedProductDefinition.packaging.containedItem.item(PackagedProductDefinition).</t>
   </si>
   <si>
     <t>(link from Package Item (Container) to itself)</t>
@@ -2012,7 +2036,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL159"/>
+  <dimension ref="A1:AL160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2021,7 +2045,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="77.4765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="79.18359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2045,13 +2069,13 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.09765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.50390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.30078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="77.4765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="57.40234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -2917,25 +2941,25 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2954,16 +2978,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3013,7 +3037,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -3025,7 +3049,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -3034,16 +3058,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3059,22 +3083,22 @@
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -3123,7 +3147,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -3135,7 +3159,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -3144,12 +3168,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3172,13 +3196,13 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3217,17 +3241,17 @@
         <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -3242,10 +3266,10 @@
         <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -3253,7 +3277,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>147</v>
@@ -3278,7 +3302,7 @@
         <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>148</v>
@@ -3335,7 +3359,7 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
@@ -3350,10 +3374,10 @@
         <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>73</v>
@@ -3471,7 +3495,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3490,16 +3514,16 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3546,7 +3570,7 @@
         <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>159</v>
@@ -3561,7 +3585,7 @@
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
@@ -4969,7 +4993,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4988,16 +5012,16 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5044,7 +5068,7 @@
         <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>159</v>
@@ -5059,7 +5083,7 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -5815,10 +5839,10 @@
         <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>73</v>
@@ -5829,7 +5853,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5935,11 +5959,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5958,16 +5982,16 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6029,7 +6053,7 @@
         <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -6043,11 +6067,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6066,19 +6090,19 @@
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="M38" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>73</v>
@@ -6127,7 +6151,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -6139,7 +6163,7 @@
         <v>73</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>73</v>
@@ -6148,12 +6172,12 @@
         <v>73</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6179,10 +6203,10 @@
         <v>170</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6212,11 +6236,11 @@
         <v>214</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>73</v>
       </c>
@@ -6233,7 +6257,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -6248,7 +6272,7 @@
         <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>73</v>
@@ -6259,7 +6283,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6365,11 +6389,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6388,16 +6412,16 @@
         <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6444,7 +6468,7 @@
         <v>73</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>159</v>
@@ -6459,7 +6483,7 @@
         <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>73</v>
@@ -6473,7 +6497,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6496,19 +6520,19 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>73</v>
@@ -6557,7 +6581,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6578,12 +6602,12 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6689,11 +6713,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6712,16 +6736,16 @@
         <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6768,7 +6792,7 @@
         <v>73</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>159</v>
@@ -6783,7 +6807,7 @@
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>73</v>
@@ -6797,7 +6821,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6823,16 +6847,16 @@
         <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>73</v>
@@ -6842,46 +6866,46 @@
         <v>73</v>
       </c>
       <c r="R45" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -6902,12 +6926,12 @@
         <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6933,13 +6957,13 @@
         <v>188</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6989,7 +7013,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -7010,12 +7034,12 @@
         <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7041,14 +7065,14 @@
         <v>102</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>73</v>
@@ -7097,7 +7121,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -7118,12 +7142,12 @@
         <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7149,14 +7173,14 @@
         <v>188</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>73</v>
@@ -7205,7 +7229,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -7226,12 +7250,12 @@
         <v>73</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7254,19 +7278,19 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>73</v>
@@ -7315,7 +7339,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -7336,12 +7360,12 @@
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7367,16 +7391,16 @@
         <v>188</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>73</v>
@@ -7425,7 +7449,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -7446,12 +7470,12 @@
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7477,10 +7501,10 @@
         <v>170</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7510,11 +7534,11 @@
         <v>214</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>73</v>
       </c>
@@ -7531,7 +7555,7 @@
         <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
@@ -7557,7 +7581,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7663,11 +7687,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7686,16 +7710,16 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7742,7 +7766,7 @@
         <v>73</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>159</v>
@@ -7757,7 +7781,7 @@
         <v>73</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>73</v>
@@ -7771,7 +7795,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7794,19 +7818,19 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>73</v>
@@ -7855,7 +7879,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7876,12 +7900,12 @@
         <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7987,11 +8011,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8010,16 +8034,16 @@
         <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8066,7 +8090,7 @@
         <v>73</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>159</v>
@@ -8081,7 +8105,7 @@
         <v>73</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>73</v>
@@ -8095,7 +8119,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8121,16 +8145,16 @@
         <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
@@ -8140,7 +8164,7 @@
         <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>73</v>
@@ -8179,7 +8203,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -8200,12 +8224,12 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8231,13 +8255,13 @@
         <v>188</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8287,7 +8311,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -8308,12 +8332,12 @@
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8339,14 +8363,14 @@
         <v>102</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>73</v>
@@ -8395,7 +8419,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -8416,12 +8440,12 @@
         <v>73</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8447,14 +8471,14 @@
         <v>188</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>73</v>
@@ -8503,7 +8527,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -8524,12 +8548,12 @@
         <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8552,19 +8576,19 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>73</v>
@@ -8613,7 +8637,7 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8634,12 +8658,12 @@
         <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8665,16 +8689,16 @@
         <v>188</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>73</v>
@@ -8723,7 +8747,7 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -8744,12 +8768,12 @@
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8772,13 +8796,13 @@
         <v>83</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8829,7 +8853,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8844,7 +8868,7 @@
         <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>73</v>
@@ -8855,7 +8879,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8961,11 +8985,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8984,16 +9008,16 @@
         <v>73</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9040,7 +9064,7 @@
         <v>73</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE65" t="s" s="2">
         <v>159</v>
@@ -9055,7 +9079,7 @@
         <v>73</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>73</v>
@@ -9069,11 +9093,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9092,19 +9116,19 @@
         <v>83</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="M66" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>73</v>
@@ -9153,7 +9177,7 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>291</v>
+        <v>374</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -9165,7 +9189,7 @@
         <v>73</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>73</v>
@@ -9174,7 +9198,7 @@
         <v>73</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67">
@@ -9395,7 +9419,7 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9414,16 +9438,16 @@
         <v>73</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9470,7 +9494,7 @@
         <v>73</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE69" t="s" s="2">
         <v>159</v>
@@ -9485,7 +9509,7 @@
         <v>73</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>73</v>
@@ -9522,19 +9546,19 @@
         <v>83</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>73</v>
@@ -9583,7 +9607,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9604,7 +9628,7 @@
         <v>73</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71">
@@ -9719,7 +9743,7 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9738,16 +9762,16 @@
         <v>73</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9794,7 +9818,7 @@
         <v>73</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE72" t="s" s="2">
         <v>159</v>
@@ -9809,7 +9833,7 @@
         <v>73</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>73</v>
@@ -9849,16 +9873,16 @@
         <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>73</v>
@@ -9868,7 +9892,7 @@
         <v>73</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>73</v>
@@ -9907,7 +9931,7 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -9928,7 +9952,7 @@
         <v>73</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74">
@@ -9959,13 +9983,13 @@
         <v>188</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10015,7 +10039,7 @@
         <v>73</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
@@ -10036,7 +10060,7 @@
         <v>73</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75">
@@ -10067,14 +10091,14 @@
         <v>102</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>73</v>
@@ -10123,7 +10147,7 @@
         <v>73</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -10144,7 +10168,7 @@
         <v>73</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76">
@@ -10175,14 +10199,14 @@
         <v>188</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>73</v>
@@ -10231,7 +10255,7 @@
         <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -10252,7 +10276,7 @@
         <v>73</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77">
@@ -10280,19 +10304,19 @@
         <v>83</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>73</v>
@@ -10341,7 +10365,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10362,7 +10386,7 @@
         <v>73</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78">
@@ -10393,16 +10417,16 @@
         <v>188</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>73</v>
@@ -10451,7 +10475,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10472,7 +10496,7 @@
         <v>73</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79">
@@ -10799,7 +10823,7 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10818,16 +10842,16 @@
         <v>73</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10874,7 +10898,7 @@
         <v>73</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>159</v>
@@ -10889,7 +10913,7 @@
         <v>73</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>73</v>
@@ -10926,19 +10950,19 @@
         <v>83</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>73</v>
@@ -10987,7 +11011,7 @@
         <v>73</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
@@ -11008,7 +11032,7 @@
         <v>73</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84">
@@ -11123,7 +11147,7 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11142,16 +11166,16 @@
         <v>73</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11198,7 +11222,7 @@
         <v>73</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE85" t="s" s="2">
         <v>159</v>
@@ -11213,7 +11237,7 @@
         <v>73</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>73</v>
@@ -11253,16 +11277,16 @@
         <v>96</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>73</v>
@@ -11311,7 +11335,7 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -11332,7 +11356,7 @@
         <v>73</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87">
@@ -11363,13 +11387,13 @@
         <v>188</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11419,7 +11443,7 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -11440,7 +11464,7 @@
         <v>73</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="88">
@@ -11471,14 +11495,14 @@
         <v>102</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>73</v>
@@ -11527,7 +11551,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -11548,7 +11572,7 @@
         <v>73</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="89">
@@ -11579,14 +11603,14 @@
         <v>188</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>73</v>
@@ -11635,7 +11659,7 @@
         <v>73</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -11656,7 +11680,7 @@
         <v>73</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="90">
@@ -11684,19 +11708,19 @@
         <v>83</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>73</v>
@@ -11745,7 +11769,7 @@
         <v>73</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>74</v>
@@ -11766,7 +11790,7 @@
         <v>73</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91">
@@ -11797,16 +11821,16 @@
         <v>188</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>73</v>
@@ -11855,7 +11879,7 @@
         <v>73</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
@@ -11876,7 +11900,7 @@
         <v>73</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="92">
@@ -12222,7 +12246,7 @@
         <v>83</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>422</v>
@@ -12421,10 +12445,10 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>73</v>
@@ -12436,13 +12460,13 @@
         <v>83</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12499,16 +12523,16 @@
         <v>74</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>432</v>
+        <v>154</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>73</v>
@@ -12527,7 +12551,7 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>82</v>
@@ -12539,16 +12563,16 @@
         <v>73</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>151</v>
+        <v>434</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>152</v>
+        <v>435</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12599,7 +12623,7 @@
         <v>73</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>153</v>
+        <v>433</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -12611,32 +12635,32 @@
         <v>73</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>73</v>
+        <v>436</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>73</v>
@@ -12648,17 +12672,15 @@
         <v>73</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>73</v>
@@ -12707,19 +12729,19 @@
         <v>73</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>73</v>
@@ -12733,11 +12755,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>288</v>
+        <v>127</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12750,26 +12772,24 @@
         <v>73</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J100" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K100" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K100" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="L100" t="s" s="2">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>73</v>
       </c>
@@ -12817,7 +12837,7 @@
         <v>73</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
@@ -12829,7 +12849,7 @@
         <v>73</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>73</v>
@@ -12838,16 +12858,16 @@
         <v>73</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12860,22 +12880,26 @@
         <v>73</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>437</v>
+        <v>288</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>73</v>
       </c>
@@ -12923,7 +12947,7 @@
         <v>73</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>436</v>
+        <v>290</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -12935,16 +12959,16 @@
         <v>73</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>439</v>
+        <v>73</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102">
@@ -12957,10 +12981,10 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>73</v>
@@ -12972,7 +12996,7 @@
         <v>83</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>441</v>
@@ -13005,13 +13029,13 @@
         <v>73</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>443</v>
+        <v>73</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>73</v>
@@ -13035,7 +13059,7 @@
         <v>74</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>73</v>
@@ -13044,7 +13068,7 @@
         <v>94</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>73</v>
@@ -13055,7 +13079,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13063,7 +13087,7 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>82</v>
@@ -13075,16 +13099,16 @@
         <v>73</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>151</v>
+        <v>445</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>152</v>
+        <v>446</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13111,13 +13135,13 @@
         <v>73</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>73</v>
+        <v>447</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>73</v>
@@ -13135,7 +13159,7 @@
         <v>73</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>153</v>
+        <v>444</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
@@ -13147,32 +13171,32 @@
         <v>73</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>73</v>
+        <v>448</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>73</v>
@@ -13184,17 +13208,15 @@
         <v>73</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M104" s="2"/>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>73</v>
@@ -13231,31 +13253,31 @@
         <v>73</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>73</v>
@@ -13269,11 +13291,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13289,23 +13311,21 @@
         <v>73</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>300</v>
+        <v>128</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>73</v>
       </c>
@@ -13341,19 +13361,19 @@
         <v>73</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>305</v>
+        <v>159</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
@@ -13365,7 +13385,7 @@
         <v>73</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>73</v>
@@ -13374,12 +13394,12 @@
         <v>73</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>306</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13390,7 +13410,7 @@
         <v>74</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>73</v>
@@ -13399,19 +13419,23 @@
         <v>73</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O106" t="s" s="2">
         <v>73</v>
       </c>
@@ -13459,19 +13483,19 @@
         <v>73</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>73</v>
@@ -13480,23 +13504,23 @@
         <v>73</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>154</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>73</v>
@@ -13508,17 +13532,15 @@
         <v>73</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>73</v>
@@ -13555,31 +13577,31 @@
         <v>73</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>73</v>
@@ -13593,18 +13615,18 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>73</v>
@@ -13613,23 +13635,21 @@
         <v>73</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>310</v>
+        <v>129</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>311</v>
+        <v>156</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>73</v>
       </c>
@@ -13638,7 +13658,7 @@
         <v>73</v>
       </c>
       <c r="R108" t="s" s="2">
-        <v>451</v>
+        <v>73</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>73</v>
@@ -13665,31 +13685,31 @@
         <v>73</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>315</v>
+        <v>159</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>73</v>
@@ -13698,12 +13718,12 @@
         <v>73</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>316</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13726,18 +13746,20 @@
         <v>83</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O109" t="s" s="2">
         <v>73</v>
       </c>
@@ -13746,7 +13768,7 @@
         <v>73</v>
       </c>
       <c r="R109" t="s" s="2">
-        <v>73</v>
+        <v>455</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>73</v>
@@ -13785,7 +13807,7 @@
         <v>73</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
@@ -13806,12 +13828,12 @@
         <v>73</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13834,18 +13856,18 @@
         <v>83</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>73</v>
       </c>
@@ -13893,7 +13915,7 @@
         <v>73</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -13914,12 +13936,12 @@
         <v>73</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13942,17 +13964,17 @@
         <v>83</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>73</v>
@@ -14001,7 +14023,7 @@
         <v>73</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
@@ -14022,12 +14044,12 @@
         <v>73</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14050,19 +14072,17 @@
         <v>83</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>336</v>
+        <v>188</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M112" s="2"/>
       <c r="N112" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>73</v>
@@ -14111,7 +14131,7 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>74</v>
@@ -14132,12 +14152,12 @@
         <v>73</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14160,19 +14180,19 @@
         <v>83</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>73</v>
@@ -14221,7 +14241,7 @@
         <v>73</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>74</v>
@@ -14242,12 +14262,12 @@
         <v>73</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14255,7 +14275,7 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F114" t="s" s="2">
         <v>82</v>
@@ -14270,16 +14290,20 @@
         <v>83</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>458</v>
+        <v>188</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>459</v>
+        <v>343</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O114" t="s" s="2">
         <v>73</v>
       </c>
@@ -14327,7 +14351,7 @@
         <v>73</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>457</v>
+        <v>347</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>74</v>
@@ -14342,18 +14366,18 @@
         <v>94</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>461</v>
+        <v>73</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>73</v>
+        <v>348</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14361,10 +14385,10 @@
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>73</v>
@@ -14376,7 +14400,7 @@
         <v>83</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>170</v>
+        <v>462</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>463</v>
@@ -14409,13 +14433,13 @@
         <v>73</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>465</v>
+        <v>73</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>466</v>
+        <v>73</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>73</v>
@@ -14433,13 +14457,13 @@
         <v>73</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>73</v>
@@ -14448,7 +14472,7 @@
         <v>94</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>73</v>
@@ -14459,7 +14483,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14470,7 +14494,7 @@
         <v>74</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>73</v>
@@ -14479,16 +14503,16 @@
         <v>73</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>151</v>
+        <v>467</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>152</v>
+        <v>468</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14515,13 +14539,13 @@
         <v>73</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>73</v>
+        <v>469</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>73</v>
+        <v>470</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>73</v>
@@ -14539,44 +14563,44 @@
         <v>73</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>153</v>
+        <v>466</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>73</v>
+        <v>471</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>73</v>
@@ -14588,17 +14612,15 @@
         <v>73</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>73</v>
@@ -14635,31 +14657,31 @@
         <v>73</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>73</v>
@@ -14673,11 +14695,11 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -14693,23 +14715,21 @@
         <v>73</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>300</v>
+        <v>128</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>73</v>
       </c>
@@ -14745,19 +14765,19 @@
         <v>73</v>
       </c>
       <c r="AA118" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC118" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD118" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>305</v>
+        <v>159</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -14769,7 +14789,7 @@
         <v>73</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>73</v>
@@ -14778,12 +14798,12 @@
         <v>73</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>306</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14794,7 +14814,7 @@
         <v>74</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>73</v>
@@ -14803,19 +14823,23 @@
         <v>73</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O119" t="s" s="2">
         <v>73</v>
       </c>
@@ -14863,19 +14887,19 @@
         <v>73</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>73</v>
@@ -14884,23 +14908,23 @@
         <v>73</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>154</v>
+        <v>305</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>73</v>
@@ -14912,17 +14936,15 @@
         <v>73</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>73</v>
@@ -14959,31 +14981,31 @@
         <v>73</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>73</v>
@@ -14997,18 +15019,18 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>73</v>
@@ -15017,23 +15039,21 @@
         <v>73</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>310</v>
+        <v>129</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>311</v>
+        <v>156</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>73</v>
       </c>
@@ -15042,7 +15062,7 @@
         <v>73</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>474</v>
+        <v>73</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>73</v>
@@ -15069,31 +15089,31 @@
         <v>73</v>
       </c>
       <c r="AA121" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD121" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>315</v>
+        <v>159</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>73</v>
@@ -15102,12 +15122,12 @@
         <v>73</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>316</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15130,18 +15150,20 @@
         <v>83</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N122" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O122" t="s" s="2">
         <v>73</v>
       </c>
@@ -15150,7 +15172,7 @@
         <v>73</v>
       </c>
       <c r="R122" t="s" s="2">
-        <v>73</v>
+        <v>478</v>
       </c>
       <c r="S122" t="s" s="2">
         <v>73</v>
@@ -15189,7 +15211,7 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
@@ -15210,12 +15232,12 @@
         <v>73</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15238,18 +15260,18 @@
         <v>83</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M123" s="2"/>
-      <c r="N123" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>73</v>
       </c>
@@ -15297,7 +15319,7 @@
         <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
@@ -15318,12 +15340,12 @@
         <v>73</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15346,17 +15368,17 @@
         <v>83</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>73</v>
@@ -15405,7 +15427,7 @@
         <v>73</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -15426,12 +15448,12 @@
         <v>73</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15454,19 +15476,17 @@
         <v>83</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>336</v>
+        <v>188</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M125" s="2"/>
       <c r="N125" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>73</v>
@@ -15515,7 +15535,7 @@
         <v>73</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
@@ -15536,12 +15556,12 @@
         <v>73</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15564,19 +15584,19 @@
         <v>83</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>73</v>
@@ -15625,7 +15645,7 @@
         <v>73</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>74</v>
@@ -15646,12 +15666,12 @@
         <v>73</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15662,7 +15682,7 @@
         <v>74</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>73</v>
@@ -15674,16 +15694,20 @@
         <v>83</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>481</v>
+        <v>343</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O127" t="s" s="2">
         <v>73</v>
       </c>
@@ -15707,13 +15731,13 @@
         <v>73</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>465</v>
+        <v>73</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>466</v>
+        <v>73</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>73</v>
@@ -15731,13 +15755,13 @@
         <v>73</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>480</v>
+        <v>347</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>73</v>
@@ -15746,13 +15770,13 @@
         <v>94</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>483</v>
+        <v>73</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>73</v>
+        <v>348</v>
       </c>
     </row>
     <row r="128">
@@ -15780,7 +15804,7 @@
         <v>83</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="K128" t="s" s="2">
         <v>485</v>
@@ -15813,13 +15837,13 @@
         <v>73</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>73</v>
+        <v>469</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>73</v>
+        <v>470</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>73</v>
@@ -15849,7 +15873,7 @@
         <v>73</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>487</v>
@@ -15874,7 +15898,7 @@
         <v>74</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>73</v>
@@ -15883,16 +15907,16 @@
         <v>73</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>188</v>
+        <v>489</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>151</v>
+        <v>490</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>152</v>
+        <v>491</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -15943,44 +15967,44 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>153</v>
+        <v>488</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>73</v>
+        <v>492</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>73</v>
@@ -15992,17 +16016,15 @@
         <v>73</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M130" s="2"/>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
         <v>73</v>
@@ -16051,19 +16073,19 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>73</v>
@@ -16077,11 +16099,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>288</v>
+        <v>127</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16094,26 +16116,24 @@
         <v>73</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J131" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K131" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K131" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="L131" t="s" s="2">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
         <v>73</v>
       </c>
@@ -16149,19 +16169,19 @@
         <v>73</v>
       </c>
       <c r="AA131" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB131" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD131" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -16173,7 +16193,7 @@
         <v>73</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>73</v>
@@ -16182,44 +16202,48 @@
         <v>73</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I132" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>492</v>
+        <v>288</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O132" t="s" s="2">
         <v>73</v>
       </c>
@@ -16267,19 +16291,19 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>491</v>
+        <v>374</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>73</v>
@@ -16288,12 +16312,12 @@
         <v>73</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16301,7 +16325,7 @@
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F133" t="s" s="2">
         <v>82</v>
@@ -16313,16 +16337,16 @@
         <v>73</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>151</v>
+        <v>497</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>152</v>
+        <v>498</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -16373,7 +16397,7 @@
         <v>73</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>153</v>
+        <v>499</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>74</v>
@@ -16385,7 +16409,7 @@
         <v>73</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>73</v>
@@ -16394,23 +16418,23 @@
         <v>73</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>73</v>
@@ -16422,17 +16446,15 @@
         <v>73</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M134" s="2"/>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>73</v>
@@ -16469,31 +16491,31 @@
         <v>73</v>
       </c>
       <c r="AA134" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC134" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD134" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>73</v>
@@ -16507,11 +16529,11 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -16527,23 +16549,21 @@
         <v>73</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>300</v>
+        <v>128</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>73</v>
       </c>
@@ -16579,19 +16599,19 @@
         <v>73</v>
       </c>
       <c r="AA135" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB135" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD135" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>305</v>
+        <v>159</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>74</v>
@@ -16603,7 +16623,7 @@
         <v>73</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>73</v>
@@ -16612,12 +16632,12 @@
         <v>73</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>306</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16628,7 +16648,7 @@
         <v>74</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>73</v>
@@ -16637,19 +16657,23 @@
         <v>73</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O136" t="s" s="2">
         <v>73</v>
       </c>
@@ -16697,19 +16721,19 @@
         <v>73</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>73</v>
@@ -16718,23 +16742,23 @@
         <v>73</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>154</v>
+        <v>305</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>73</v>
@@ -16746,17 +16770,15 @@
         <v>73</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M137" s="2"/>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
         <v>73</v>
@@ -16793,31 +16815,31 @@
         <v>73</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC137" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>73</v>
@@ -16831,18 +16853,18 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>73</v>
@@ -16851,23 +16873,21 @@
         <v>73</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>310</v>
+        <v>129</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>311</v>
+        <v>156</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
         <v>73</v>
       </c>
@@ -16876,7 +16896,7 @@
         <v>73</v>
       </c>
       <c r="R138" t="s" s="2">
-        <v>500</v>
+        <v>73</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>73</v>
@@ -16903,31 +16923,31 @@
         <v>73</v>
       </c>
       <c r="AA138" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB138" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD138" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>315</v>
+        <v>159</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>73</v>
@@ -16936,12 +16956,12 @@
         <v>73</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>316</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16964,18 +16984,20 @@
         <v>83</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N139" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O139" t="s" s="2">
         <v>73</v>
       </c>
@@ -16984,7 +17006,7 @@
         <v>73</v>
       </c>
       <c r="R139" t="s" s="2">
-        <v>73</v>
+        <v>506</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>73</v>
@@ -17023,7 +17045,7 @@
         <v>73</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>74</v>
@@ -17044,12 +17066,12 @@
         <v>73</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17072,18 +17094,18 @@
         <v>83</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M140" s="2"/>
-      <c r="N140" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>73</v>
       </c>
@@ -17131,7 +17153,7 @@
         <v>73</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>74</v>
@@ -17152,12 +17174,12 @@
         <v>73</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17180,17 +17202,17 @@
         <v>83</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>73</v>
@@ -17239,7 +17261,7 @@
         <v>73</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>74</v>
@@ -17260,12 +17282,12 @@
         <v>73</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17288,19 +17310,17 @@
         <v>83</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>336</v>
+        <v>188</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>73</v>
@@ -17349,7 +17369,7 @@
         <v>73</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>74</v>
@@ -17370,12 +17390,12 @@
         <v>73</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17398,19 +17418,19 @@
         <v>83</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>73</v>
@@ -17459,7 +17479,7 @@
         <v>73</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>74</v>
@@ -17480,12 +17500,12 @@
         <v>73</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17493,7 +17513,7 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F144" t="s" s="2">
         <v>82</v>
@@ -17508,16 +17528,20 @@
         <v>83</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>507</v>
+        <v>188</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>508</v>
+        <v>343</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O144" t="s" s="2">
         <v>73</v>
       </c>
@@ -17565,7 +17589,7 @@
         <v>73</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>506</v>
+        <v>347</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>74</v>
@@ -17586,12 +17610,12 @@
         <v>73</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>73</v>
+        <v>348</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17599,10 +17623,10 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>73</v>
@@ -17614,13 +17638,13 @@
         <v>83</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>170</v>
+        <v>513</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -17671,13 +17695,13 @@
         <v>73</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>73</v>
@@ -17697,7 +17721,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17720,13 +17744,13 @@
         <v>83</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -17777,7 +17801,7 @@
         <v>73</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>74</v>
@@ -17792,7 +17816,7 @@
         <v>94</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>516</v>
+        <v>73</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>73</v>
@@ -17803,7 +17827,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17826,13 +17850,13 @@
         <v>83</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -17883,7 +17907,7 @@
         <v>73</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>74</v>
@@ -17895,10 +17919,10 @@
         <v>73</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>73</v>
@@ -17909,7 +17933,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -17920,7 +17944,7 @@
         <v>74</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>73</v>
@@ -17929,16 +17953,16 @@
         <v>73</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>151</v>
+        <v>526</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>152</v>
+        <v>527</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -17989,44 +18013,44 @@
         <v>73</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>153</v>
+        <v>525</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>73</v>
+        <v>528</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>73</v>
@@ -18038,17 +18062,15 @@
         <v>73</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M149" s="2"/>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>73</v>
@@ -18097,19 +18119,19 @@
         <v>73</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>73</v>
@@ -18123,11 +18145,11 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>288</v>
+        <v>127</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -18140,26 +18162,24 @@
         <v>73</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J150" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K150" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K150" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="L150" t="s" s="2">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
         <v>73</v>
       </c>
@@ -18207,7 +18227,7 @@
         <v>73</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>74</v>
@@ -18219,7 +18239,7 @@
         <v>73</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>73</v>
@@ -18228,44 +18248,48 @@
         <v>73</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>525</v>
+        <v>288</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O151" t="s" s="2">
         <v>73</v>
       </c>
@@ -18289,13 +18313,13 @@
         <v>73</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>527</v>
+        <v>73</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>528</v>
+        <v>73</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>73</v>
@@ -18313,33 +18337,33 @@
         <v>73</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>524</v>
+        <v>290</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>529</v>
+        <v>73</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18347,7 +18371,7 @@
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F152" t="s" s="2">
         <v>82</v>
@@ -18362,13 +18386,13 @@
         <v>83</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>531</v>
+        <v>170</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -18395,13 +18419,13 @@
         <v>73</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>73</v>
+        <v>535</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>73</v>
+        <v>536</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>73</v>
@@ -18419,10 +18443,10 @@
         <v>73</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>82</v>
@@ -18434,7 +18458,7 @@
         <v>94</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>73</v>
@@ -18445,7 +18469,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18456,7 +18480,7 @@
         <v>74</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>73</v>
@@ -18468,13 +18492,13 @@
         <v>83</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>280</v>
+        <v>539</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -18525,22 +18549,22 @@
         <v>73</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>73</v>
@@ -18551,7 +18575,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18562,7 +18586,7 @@
         <v>74</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>73</v>
@@ -18571,16 +18595,16 @@
         <v>73</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>151</v>
+        <v>544</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>152</v>
+        <v>545</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -18631,44 +18655,44 @@
         <v>73</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>153</v>
+        <v>543</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>73</v>
+        <v>546</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>73</v>
@@ -18680,17 +18704,15 @@
         <v>73</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M155" s="2"/>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>73</v>
@@ -18739,19 +18761,19 @@
         <v>73</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>73</v>
@@ -18765,11 +18787,11 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>288</v>
+        <v>127</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -18782,26 +18804,24 @@
         <v>73</v>
       </c>
       <c r="H156" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J156" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K156" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K156" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="L156" t="s" s="2">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
         <v>73</v>
       </c>
@@ -18849,7 +18869,7 @@
         <v>73</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>74</v>
@@ -18861,7 +18881,7 @@
         <v>73</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>73</v>
@@ -18870,44 +18890,48 @@
         <v>73</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>543</v>
+        <v>128</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>544</v>
+        <v>288</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N157" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O157" t="s" s="2">
         <v>73</v>
       </c>
@@ -18955,33 +18979,33 @@
         <v>73</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>542</v>
+        <v>290</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>546</v>
+        <v>73</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -18989,7 +19013,7 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F158" t="s" s="2">
         <v>82</v>
@@ -19004,13 +19028,13 @@
         <v>83</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>232</v>
+        <v>551</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -19061,10 +19085,10 @@
         <v>73</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>82</v>
@@ -19076,7 +19100,7 @@
         <v>94</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>73</v>
@@ -19087,7 +19111,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19098,7 +19122,7 @@
         <v>74</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>73</v>
@@ -19110,13 +19134,13 @@
         <v>83</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -19167,13 +19191,13 @@
         <v>73</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>73</v>
@@ -19182,12 +19206,118 @@
         <v>94</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="AK159" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL159" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M160" s="2"/>
+      <c r="N160" s="2"/>
+      <c r="O160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P160" s="2"/>
+      <c r="Q160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI160" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ160" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AK160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL160" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5453" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5420" uniqueCount="555">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLPackagedProductDefinition</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T20:48:35+00:00</t>
+    <t>2022-11-12T19:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -277,7 +277,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -367,7 +367,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -390,13 +390,17 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
   </si>
   <si>
     <t>N/A</t>
@@ -439,7 +443,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -468,9 +472,6 @@
     <t>Packaged Medicinal Product.PCID</t>
   </si>
   <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>pcid</t>
   </si>
   <si>
@@ -529,7 +530,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.3.0</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -572,7 +573,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -606,7 +607,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/2021Mar/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -689,14 +690,14 @@
     <t>PackagedProductDefinition.packageFor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition)
 </t>
   </si>
   <si>
     <t>The product that this is a pack for</t>
   </si>
   <si>
-    <t>The product this package model relates to, not the contents of the package (for which see package.containedItem).</t>
+    <t>The product that this is a pack for.</t>
   </si>
   <si>
     <t>(the link from Packaged Medicinal Product to Medicinal Product)</t>
@@ -777,7 +778,7 @@
     <t>PackagedProductDefinition.containedItemQuantity.comparator</t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; | ad - how to understand the value</t>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
   </si>
   <si>
     <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
@@ -789,7 +790,7 @@
     <t>If there is no comparator, then there is no modification of the value</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.3.0</t>
   </si>
   <si>
     <t>Quantity.comparator</t>
@@ -891,6 +892,10 @@
     <t>EMA IG 4.5. Legal status of supply on the packaged product level. The same information can be repeated/differentiated on the medicinal product level</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
+  </si>
+  <si>
     <t>Marketing Authorisation.Legal Status of Supply (for a package)</t>
   </si>
   <si>
@@ -978,7 +983,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -1169,9 +1174,6 @@
     <t>PackagedProductDefinition.marketingStatus.modifierExtension</t>
   </si>
   <si>
-    <t>BackboneType.modifierExtension</t>
-  </si>
-  <si>
     <t>PackagedProductDefinition.marketingStatus.country</t>
   </si>
   <si>
@@ -1313,10 +1315,10 @@
     <t>PackagedProductDefinition.copackagedIndicator</t>
   </si>
   <si>
-    <t>Identifies if the drug product is supplied with another item such as a diluent or adjuvant</t>
-  </si>
-  <si>
-    <t>Identifies if the package contains different items, such as when a drug product is supplied with another item e.g. a diluent or adjuvant.</t>
+    <t>If the drug product is supplied with another item such as a diluent or adjuvant</t>
+  </si>
+  <si>
+    <t>States whether a drug product is supplied with another item such as a diluent or adjuvant.</t>
   </si>
   <si>
     <t>If this value is not present, there is no statement being made about whether this is co-packaged or not. No inference can be made</t>
@@ -1334,20 +1336,7 @@
     <t>Packaged Medicinal Product.Manufacturer / Establishment (Organisation)</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.attachedDocument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(DocumentReference)
-</t>
-  </si>
-  <si>
-    <t>Additional information or supporting documentation about the packaged product</t>
-  </si>
-  <si>
-    <t>Additional information or supporting documentation about the packaged product.</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging</t>
+    <t>PackagedProductDefinition.package</t>
   </si>
   <si>
     <t>A packaging item, as a container for medically related items, possibly with other packaging items within, or a packaging component, such as bottle cap</t>
@@ -1359,28 +1348,28 @@
     <t>Packaged Medicinal Product.Package Item (Container), Package Item (Container).Package (Component)</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.identifier</t>
+    <t>PackagedProductDefinition.package.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.identifier</t>
   </si>
   <si>
     <t>An identifier that is specific to this particular part of the packaging. Including possibly a Data Carrier Identifier</t>
   </si>
   <si>
-    <t>A business identifier that is specific to this particular part of the packaging, often assigned by the manufacturer. Including possibly Data Carrier Identifier (a GS1 barcode).</t>
+    <t>An identifier that is specific to this particular part of the packaging. Including possibly Data Carrier Identifier (a GS1 barcode).</t>
   </si>
   <si>
     <t>Package Item (Container).Data Carrier Identifier</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.type</t>
+    <t>PackagedProductDefinition.package.type</t>
   </si>
   <si>
     <t>Container type</t>
@@ -1395,43 +1384,43 @@
     <t>Package Item (Container).Package Item (Container) Type</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.type.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.coding.system</t>
+    <t>PackagedProductDefinition.package.type.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.coding</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.coding.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.coding.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.coding.system</t>
   </si>
   <si>
     <t>http://spor.ema.europa.eu/v1/lists/100000073346</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.type.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.text</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.quantity</t>
+    <t>PackagedProductDefinition.package.type.coding.version</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.coding.code</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.coding.display</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.text</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.quantity</t>
   </si>
   <si>
     <t xml:space="preserve">integer
@@ -1447,7 +1436,7 @@
     <t>Package Item (Container).Package Item (Container) Quantity</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.material</t>
+    <t>PackagedProductDefinition.package.material</t>
   </si>
   <si>
     <t>Material type of the package item</t>
@@ -1465,43 +1454,43 @@
     <t>Package Item (Container).Material</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.material.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.coding.system</t>
+    <t>PackagedProductDefinition.package.material.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.coding</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.coding.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.coding.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.coding.system</t>
   </si>
   <si>
     <t>http://spor.ema.europa.eu/v1/lists/200000003199</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.material.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.coding.userSelected</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.text</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.alternateMaterial</t>
+    <t>PackagedProductDefinition.package.material.coding.version</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.coding.code</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.coding.display</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.coding.userSelected</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.text</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.alternateMaterial</t>
   </si>
   <si>
     <t>A possible alternate material for this part of the packaging, that is allowed to be used instead of the usual material</t>
@@ -1513,11 +1502,7 @@
     <t>Package Item (Container).Alternate Material</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProductShelfLife
-</t>
+    <t>PackagedProductDefinition.package.shelfLifeStorage</t>
   </si>
   <si>
     <t>Shelf Life and storage information</t>
@@ -1529,16 +1514,16 @@
     <t>Package Item (Container).Shelf Life / Storage</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type</t>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type</t>
   </si>
   <si>
     <t>This describes the shelf life, taking into account various scenarios such as shelf life of the packaged Medicinal Product itself, shelf life after transformation where necessary and shelf life after the first opening of a bottle, etc. The shelf life type shall be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified</t>
@@ -1547,46 +1532,43 @@
     <t>This describes the shelf life, taking into account various scenarios such as shelf life of the packaged Medicinal Product itself, shelf life after transformation where necessary and shelf life after the first opening of a bottle, etc. The shelf life type shall be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified.</t>
   </si>
   <si>
-    <t>ProductShelfLife.type</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.system</t>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.system</t>
   </si>
   <si>
     <t>http://spor.ema.europa.eu/v1/lists/100000073343</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.text</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.period[x]</t>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.version</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.code</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.display</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.text</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.period[x]</t>
   </si>
   <si>
     <t>Duration
@@ -1599,34 +1581,28 @@
     <t>The shelf life time period can be specified using a numerical value for the period of time and its unit of time measurement The unit of measurement shall be specified in accordance with ISO 11240 and the resulting terminology The symbol and the symbol identifier shall be used.</t>
   </si>
   <si>
-    <t>ProductShelfLife.period[x]</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.specialPrecautionsForStorage</t>
-  </si>
-  <si>
-    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified</t>
-  </si>
-  <si>
-    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified.</t>
-  </si>
-  <si>
-    <t>ProductShelfLife.specialPrecautionsForStorage</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.manufacturer</t>
-  </si>
-  <si>
-    <t>Manufacturer of this packaging item (multiple means these are all potential manufacturers)</t>
-  </si>
-  <si>
-    <t>Manufacturer of this packaging item. When there are multiple values each one is a potential manufacturer of this packaging item.</t>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.specialPrecautionsForStorage</t>
+  </si>
+  <si>
+    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary. The controlled term and the controlled term identifier shall be specified</t>
+  </si>
+  <si>
+    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary. The controlled term and the controlled term identifier shall be specified.</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.manufacturer</t>
+  </si>
+  <si>
+    <t>Manufacturer of this package Item (multiple means these are all possible manufacturers)</t>
+  </si>
+  <si>
+    <t>Manufacturer of this package Item. When there are multiple it means these are all possible manufacturers.</t>
   </si>
   <si>
     <t>Package Item (Container).Manufacturer / Establishment (Organisation)</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.property</t>
+    <t>PackagedProductDefinition.package.property</t>
   </si>
   <si>
     <t>General characteristics of this item</t>
@@ -1638,16 +1614,16 @@
     <t>Package Item (Container).Physical Characteristics</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.property.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.property.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.property.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.property.type</t>
+    <t>PackagedProductDefinition.package.property.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.property.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.property.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.property.type</t>
   </si>
   <si>
     <t>A code expressing the type of characteristic</t>
@@ -1665,7 +1641,7 @@
     <t>Physical Characteristics, all attributes</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.property.value[x]</t>
+    <t>PackagedProductDefinition.package.property.value[x]</t>
   </si>
   <si>
     <t>CodeableConcept
@@ -1681,7 +1657,7 @@
     <t>Physical Characteristics, attribute's value</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.containedItem</t>
+    <t>PackagedProductDefinition.package.containedItem</t>
   </si>
   <si>
     <t>An item (inner package or manufactured item) within the packaging</t>
@@ -1693,32 +1669,32 @@
     <t>Package Item (Container).Manufactured Item, Package Item (Container).Device</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.containedItem.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.containedItem.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.containedItem.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.containedItem.item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableReference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLPackagedProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition)
+    <t>PackagedProductDefinition.package.containedItem.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.containedItem.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.containedItem.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.containedItem.item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableReference(http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>
     <t>The actual item(s) of medication, as manufactured, or a device, or other medically related item (food, biologicals, raw materials, medical fluids, gases etc.), as contained in the package</t>
   </si>
   <si>
-    <t>The actual item(s) of medication, as manufactured, or a device (typically, but not necessarily, a co-packaged one), or other medically related item (such as food, biologicals, raw materials, medical fluids, gases etc.), as contained in the package. This also allows another whole packaged product to be included, which is solely for the case where a package of other entire packages is wanted - such as a wholesale or distribution pack (for layers within one package, use PackagedProductDefinition.packaging.packaging).</t>
+    <t>The actual item(s) of medication, as manufactured, or a device (typically, but not necessarily, a co-packaged one), or other medically related item (such as food, biologicals, raw materials, medical fluids, gases etc.), as contained in the package. This also allows another whole packaged product to be included, which is solely for the case where a package of other entire packages is wanted - such as a wholesale or distribution pack (for layers within one package, use PackagedProductDefinition.package.package).</t>
   </si>
   <si>
     <t>(the link to) Package Item (Container).Manufactured Item, Package Item (Container).Device</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.containedItem.amount</t>
+    <t>PackagedProductDefinition.package.containedItem.amount</t>
   </si>
   <si>
     <t>Number of the manufactured items (e.g. tablets) in this package layer or the amount of manufactured item (e.g. 20 g) in the unit of presentation defined in manufactured item definition</t>
@@ -1730,13 +1706,13 @@
     <t>Manufactured Item.Manufactured Item Quantity</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.packaging</t>
+    <t>PackagedProductDefinition.package.package</t>
   </si>
   <si>
     <t>Allows containers (and parts of containers) within containers, still a single packaged product</t>
   </si>
   <si>
-    <t>Allows containers (and parts of containers) parwithin containers, still a single packaged product.  See also PackagedProductDefinition.packaging.containedItem.item(PackagedProductDefinition).</t>
+    <t>Allows containers (and parts of containers) parwithin containers, still a single packaged product.  See also PackagedProductDefinition.package.containedItem.item(PackagedProductDefinition).</t>
   </si>
   <si>
     <t>(link from Package Item (Container) to itself)</t>
@@ -2036,7 +2012,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL160"/>
+  <dimension ref="A1:AL159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2045,7 +2021,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="79.18359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="77.4765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2069,13 +2045,13 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.09765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.30078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.50390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="57.40234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="77.4765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -2941,7 +2917,7 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>73</v>
@@ -2950,16 +2926,16 @@
         <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2978,16 +2954,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3037,7 +3013,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -3049,7 +3025,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -3058,16 +3034,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3083,22 +3059,22 @@
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -3147,7 +3123,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -3159,7 +3135,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -3168,12 +3144,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3196,13 +3172,13 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3241,17 +3217,17 @@
         <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -3266,10 +3242,10 @@
         <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -3277,7 +3253,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>147</v>
@@ -3302,7 +3278,7 @@
         <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>148</v>
@@ -3359,7 +3335,7 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
@@ -3374,10 +3350,10 @@
         <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>73</v>
@@ -3495,7 +3471,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3514,16 +3490,16 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3570,7 +3546,7 @@
         <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>159</v>
@@ -3585,7 +3561,7 @@
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
@@ -4993,7 +4969,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5012,16 +4988,16 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5068,7 +5044,7 @@
         <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>159</v>
@@ -5083,7 +5059,7 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -5839,10 +5815,10 @@
         <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>94</v>
+        <v>283</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>73</v>
@@ -5853,7 +5829,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5959,11 +5935,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5982,16 +5958,16 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6053,7 +6029,7 @@
         <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -6067,11 +6043,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6090,19 +6066,19 @@
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>73</v>
@@ -6151,7 +6127,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -6163,7 +6139,7 @@
         <v>73</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>73</v>
@@ -6172,12 +6148,12 @@
         <v>73</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6203,10 +6179,10 @@
         <v>170</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6236,10 +6212,10 @@
         <v>214</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>73</v>
@@ -6257,7 +6233,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -6272,7 +6248,7 @@
         <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>73</v>
@@ -6283,7 +6259,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6389,11 +6365,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6412,16 +6388,16 @@
         <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6468,7 +6444,7 @@
         <v>73</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>159</v>
@@ -6483,7 +6459,7 @@
         <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>73</v>
@@ -6497,7 +6473,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6520,19 +6496,19 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>73</v>
@@ -6581,7 +6557,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6602,12 +6578,12 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6713,11 +6689,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6736,16 +6712,16 @@
         <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6792,7 +6768,7 @@
         <v>73</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>159</v>
@@ -6807,7 +6783,7 @@
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>73</v>
@@ -6821,7 +6797,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6847,16 +6823,16 @@
         <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>73</v>
@@ -6866,7 +6842,7 @@
         <v>73</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>73</v>
@@ -6905,7 +6881,7 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -6926,12 +6902,12 @@
         <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6957,13 +6933,13 @@
         <v>188</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7013,7 +6989,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -7034,12 +7010,12 @@
         <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7065,14 +7041,14 @@
         <v>102</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>73</v>
@@ -7121,7 +7097,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -7142,12 +7118,12 @@
         <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7173,14 +7149,14 @@
         <v>188</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>73</v>
@@ -7229,7 +7205,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -7250,12 +7226,12 @@
         <v>73</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7278,19 +7254,19 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>73</v>
@@ -7339,7 +7315,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -7360,12 +7336,12 @@
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7391,16 +7367,16 @@
         <v>188</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>73</v>
@@ -7449,7 +7425,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -7470,12 +7446,12 @@
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7501,10 +7477,10 @@
         <v>170</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7534,10 +7510,10 @@
         <v>214</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>73</v>
@@ -7555,7 +7531,7 @@
         <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
@@ -7581,7 +7557,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7687,11 +7663,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7710,16 +7686,16 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7766,7 +7742,7 @@
         <v>73</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>159</v>
@@ -7781,7 +7757,7 @@
         <v>73</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>73</v>
@@ -7795,7 +7771,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7818,19 +7794,19 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>73</v>
@@ -7879,7 +7855,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7900,12 +7876,12 @@
         <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8011,11 +7987,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8034,16 +8010,16 @@
         <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8090,7 +8066,7 @@
         <v>73</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>159</v>
@@ -8105,7 +8081,7 @@
         <v>73</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>73</v>
@@ -8119,7 +8095,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8145,16 +8121,16 @@
         <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
@@ -8164,7 +8140,7 @@
         <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>73</v>
@@ -8203,7 +8179,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -8224,12 +8200,12 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8255,13 +8231,13 @@
         <v>188</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8311,7 +8287,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -8332,12 +8308,12 @@
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8363,14 +8339,14 @@
         <v>102</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>73</v>
@@ -8419,7 +8395,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -8440,12 +8416,12 @@
         <v>73</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8471,14 +8447,14 @@
         <v>188</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>73</v>
@@ -8527,7 +8503,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -8548,12 +8524,12 @@
         <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8576,19 +8552,19 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>73</v>
@@ -8637,7 +8613,7 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8658,12 +8634,12 @@
         <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8689,16 +8665,16 @@
         <v>188</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>73</v>
@@ -8747,7 +8723,7 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -8768,12 +8744,12 @@
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8796,13 +8772,13 @@
         <v>83</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8853,7 +8829,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8868,7 +8844,7 @@
         <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>73</v>
@@ -8879,7 +8855,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8985,11 +8961,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9008,16 +8984,16 @@
         <v>73</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9064,7 +9040,7 @@
         <v>73</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE65" t="s" s="2">
         <v>159</v>
@@ -9079,7 +9055,7 @@
         <v>73</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>73</v>
@@ -9093,11 +9069,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9116,19 +9092,19 @@
         <v>83</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>73</v>
@@ -9177,7 +9153,7 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>374</v>
+        <v>291</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -9189,7 +9165,7 @@
         <v>73</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>73</v>
@@ -9198,7 +9174,7 @@
         <v>73</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67">
@@ -9419,7 +9395,7 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9438,16 +9414,16 @@
         <v>73</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9494,7 +9470,7 @@
         <v>73</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE69" t="s" s="2">
         <v>159</v>
@@ -9509,7 +9485,7 @@
         <v>73</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>73</v>
@@ -9546,19 +9522,19 @@
         <v>83</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>73</v>
@@ -9607,7 +9583,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9628,7 +9604,7 @@
         <v>73</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71">
@@ -9743,7 +9719,7 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9762,16 +9738,16 @@
         <v>73</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9818,7 +9794,7 @@
         <v>73</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE72" t="s" s="2">
         <v>159</v>
@@ -9833,7 +9809,7 @@
         <v>73</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>73</v>
@@ -9873,16 +9849,16 @@
         <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>73</v>
@@ -9892,7 +9868,7 @@
         <v>73</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>73</v>
@@ -9931,7 +9907,7 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -9952,7 +9928,7 @@
         <v>73</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74">
@@ -9983,13 +9959,13 @@
         <v>188</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10039,7 +10015,7 @@
         <v>73</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
@@ -10060,7 +10036,7 @@
         <v>73</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75">
@@ -10091,14 +10067,14 @@
         <v>102</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>73</v>
@@ -10147,7 +10123,7 @@
         <v>73</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -10168,7 +10144,7 @@
         <v>73</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76">
@@ -10199,14 +10175,14 @@
         <v>188</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>73</v>
@@ -10255,7 +10231,7 @@
         <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -10276,7 +10252,7 @@
         <v>73</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="77">
@@ -10304,19 +10280,19 @@
         <v>83</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>73</v>
@@ -10365,7 +10341,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10386,7 +10362,7 @@
         <v>73</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78">
@@ -10417,16 +10393,16 @@
         <v>188</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>73</v>
@@ -10475,7 +10451,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10496,7 +10472,7 @@
         <v>73</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="79">
@@ -10823,7 +10799,7 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10842,16 +10818,16 @@
         <v>73</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10898,7 +10874,7 @@
         <v>73</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>159</v>
@@ -10913,7 +10889,7 @@
         <v>73</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>73</v>
@@ -10950,19 +10926,19 @@
         <v>83</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>73</v>
@@ -11011,7 +10987,7 @@
         <v>73</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
@@ -11032,7 +11008,7 @@
         <v>73</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84">
@@ -11147,7 +11123,7 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11166,16 +11142,16 @@
         <v>73</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11222,7 +11198,7 @@
         <v>73</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE85" t="s" s="2">
         <v>159</v>
@@ -11237,7 +11213,7 @@
         <v>73</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>73</v>
@@ -11277,16 +11253,16 @@
         <v>96</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>73</v>
@@ -11335,7 +11311,7 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -11356,7 +11332,7 @@
         <v>73</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87">
@@ -11387,13 +11363,13 @@
         <v>188</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11443,7 +11419,7 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -11464,7 +11440,7 @@
         <v>73</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88">
@@ -11495,14 +11471,14 @@
         <v>102</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>73</v>
@@ -11551,7 +11527,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -11572,7 +11548,7 @@
         <v>73</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="89">
@@ -11603,14 +11579,14 @@
         <v>188</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>73</v>
@@ -11659,7 +11635,7 @@
         <v>73</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -11680,7 +11656,7 @@
         <v>73</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="90">
@@ -11708,19 +11684,19 @@
         <v>83</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>73</v>
@@ -11769,7 +11745,7 @@
         <v>73</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>74</v>
@@ -11790,7 +11766,7 @@
         <v>73</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="91">
@@ -11821,16 +11797,16 @@
         <v>188</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>73</v>
@@ -11879,7 +11855,7 @@
         <v>73</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
@@ -11900,7 +11876,7 @@
         <v>73</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="92">
@@ -12246,7 +12222,7 @@
         <v>83</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>422</v>
@@ -12445,10 +12421,10 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>73</v>
@@ -12460,13 +12436,13 @@
         <v>83</v>
       </c>
       <c r="J97" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K97" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="K97" t="s" s="2">
+      <c r="L97" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12523,16 +12499,16 @@
         <v>74</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>94</v>
+        <v>283</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>154</v>
+        <v>432</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>73</v>
@@ -12551,7 +12527,7 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>82</v>
@@ -12563,16 +12539,16 @@
         <v>73</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>434</v>
+        <v>151</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>435</v>
+        <v>152</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12623,7 +12599,7 @@
         <v>73</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>433</v>
+        <v>153</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -12635,32 +12611,32 @@
         <v>73</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>436</v>
+        <v>73</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>73</v>
@@ -12672,15 +12648,17 @@
         <v>73</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>73</v>
@@ -12729,19 +12707,19 @@
         <v>73</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>73</v>
@@ -12755,11 +12733,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12772,24 +12750,26 @@
         <v>73</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>129</v>
+        <v>289</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>73</v>
       </c>
@@ -12837,7 +12817,7 @@
         <v>73</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
@@ -12849,7 +12829,7 @@
         <v>73</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>73</v>
@@ -12858,16 +12838,16 @@
         <v>73</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12880,26 +12860,22 @@
         <v>73</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>288</v>
+        <v>437</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>73</v>
       </c>
@@ -12947,7 +12923,7 @@
         <v>73</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>290</v>
+        <v>436</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -12959,16 +12935,16 @@
         <v>73</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>73</v>
+        <v>439</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102">
@@ -12981,10 +12957,10 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>73</v>
@@ -12996,7 +12972,7 @@
         <v>83</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>441</v>
@@ -13029,13 +13005,13 @@
         <v>73</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>73</v>
+        <v>443</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>73</v>
@@ -13059,7 +13035,7 @@
         <v>74</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>73</v>
@@ -13068,7 +13044,7 @@
         <v>94</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>73</v>
@@ -13079,7 +13055,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13087,7 +13063,7 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>82</v>
@@ -13099,16 +13075,16 @@
         <v>73</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>445</v>
+        <v>151</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>446</v>
+        <v>152</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13135,13 +13111,13 @@
         <v>73</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>447</v>
+        <v>73</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>73</v>
@@ -13159,7 +13135,7 @@
         <v>73</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>444</v>
+        <v>153</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
@@ -13171,32 +13147,32 @@
         <v>73</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>448</v>
+        <v>73</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>73</v>
@@ -13208,15 +13184,17 @@
         <v>73</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M104" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>73</v>
@@ -13253,31 +13231,31 @@
         <v>73</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>73</v>
@@ -13291,11 +13269,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13311,21 +13289,23 @@
         <v>73</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>128</v>
+        <v>300</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>129</v>
+        <v>301</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>156</v>
+        <v>302</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>73</v>
       </c>
@@ -13361,19 +13341,19 @@
         <v>73</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>159</v>
+        <v>305</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
@@ -13385,7 +13365,7 @@
         <v>73</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>73</v>
@@ -13394,12 +13374,12 @@
         <v>73</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>154</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13410,7 +13390,7 @@
         <v>74</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>73</v>
@@ -13419,23 +13399,19 @@
         <v>73</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>299</v>
+        <v>84</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>73</v>
       </c>
@@ -13483,19 +13459,19 @@
         <v>73</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>304</v>
+        <v>153</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>73</v>
@@ -13504,23 +13480,23 @@
         <v>73</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>305</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>73</v>
@@ -13532,15 +13508,17 @@
         <v>73</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M107" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>73</v>
@@ -13577,31 +13555,31 @@
         <v>73</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>73</v>
@@ -13615,18 +13593,18 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>73</v>
@@ -13635,21 +13613,23 @@
         <v>73</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>156</v>
+        <v>311</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O108" t="s" s="2">
         <v>73</v>
       </c>
@@ -13658,7 +13638,7 @@
         <v>73</v>
       </c>
       <c r="R108" t="s" s="2">
-        <v>73</v>
+        <v>451</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>73</v>
@@ -13685,31 +13665,31 @@
         <v>73</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>159</v>
+        <v>315</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>73</v>
@@ -13718,12 +13698,12 @@
         <v>73</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>154</v>
+        <v>316</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13746,20 +13726,18 @@
         <v>83</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>73</v>
       </c>
@@ -13768,7 +13746,7 @@
         <v>73</v>
       </c>
       <c r="R109" t="s" s="2">
-        <v>455</v>
+        <v>73</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>73</v>
@@ -13807,7 +13785,7 @@
         <v>73</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
@@ -13828,12 +13806,12 @@
         <v>73</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13856,18 +13834,18 @@
         <v>83</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>73</v>
       </c>
@@ -13915,7 +13893,7 @@
         <v>73</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -13936,12 +13914,12 @@
         <v>73</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13964,17 +13942,17 @@
         <v>83</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>73</v>
@@ -14023,7 +14001,7 @@
         <v>73</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
@@ -14044,12 +14022,12 @@
         <v>73</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14072,17 +14050,19 @@
         <v>83</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>188</v>
+        <v>336</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M112" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N112" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>73</v>
@@ -14131,7 +14111,7 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>74</v>
@@ -14152,12 +14132,12 @@
         <v>73</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14180,19 +14160,19 @@
         <v>83</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>335</v>
+        <v>188</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>73</v>
@@ -14241,7 +14221,7 @@
         <v>73</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>74</v>
@@ -14262,12 +14242,12 @@
         <v>73</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14275,7 +14255,7 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F114" t="s" s="2">
         <v>82</v>
@@ -14290,20 +14270,16 @@
         <v>83</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>188</v>
+        <v>458</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>343</v>
+        <v>459</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>73</v>
       </c>
@@ -14351,7 +14327,7 @@
         <v>73</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>347</v>
+        <v>457</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>74</v>
@@ -14366,18 +14342,18 @@
         <v>94</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>73</v>
+        <v>461</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>348</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14385,10 +14361,10 @@
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>73</v>
@@ -14400,7 +14376,7 @@
         <v>83</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>462</v>
+        <v>170</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>463</v>
@@ -14433,13 +14409,13 @@
         <v>73</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>73</v>
+        <v>465</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>73</v>
+        <v>466</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>73</v>
@@ -14457,13 +14433,13 @@
         <v>73</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>73</v>
@@ -14472,7 +14448,7 @@
         <v>94</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>73</v>
@@ -14483,7 +14459,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14494,7 +14470,7 @@
         <v>74</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>73</v>
@@ -14503,16 +14479,16 @@
         <v>73</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>467</v>
+        <v>151</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>468</v>
+        <v>152</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14539,13 +14515,13 @@
         <v>73</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>469</v>
+        <v>73</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>470</v>
+        <v>73</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>73</v>
@@ -14563,44 +14539,44 @@
         <v>73</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>466</v>
+        <v>153</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>471</v>
+        <v>73</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>73</v>
@@ -14612,15 +14588,17 @@
         <v>73</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M117" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>73</v>
@@ -14657,31 +14635,31 @@
         <v>73</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>73</v>
@@ -14695,11 +14673,11 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -14715,21 +14693,23 @@
         <v>73</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>128</v>
+        <v>300</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>129</v>
+        <v>301</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>156</v>
+        <v>302</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N118" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O118" t="s" s="2">
         <v>73</v>
       </c>
@@ -14765,19 +14745,19 @@
         <v>73</v>
       </c>
       <c r="AA118" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC118" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD118" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>159</v>
+        <v>305</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -14789,7 +14769,7 @@
         <v>73</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>73</v>
@@ -14798,12 +14778,12 @@
         <v>73</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>154</v>
+        <v>306</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14814,7 +14794,7 @@
         <v>74</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>73</v>
@@ -14823,23 +14803,19 @@
         <v>73</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>299</v>
+        <v>84</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>73</v>
       </c>
@@ -14887,19 +14863,19 @@
         <v>73</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>304</v>
+        <v>153</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>73</v>
@@ -14908,23 +14884,23 @@
         <v>73</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>305</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>73</v>
@@ -14936,15 +14912,17 @@
         <v>73</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M120" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>73</v>
@@ -14981,31 +14959,31 @@
         <v>73</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>73</v>
@@ -15019,18 +14997,18 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>73</v>
@@ -15039,21 +15017,23 @@
         <v>73</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>156</v>
+        <v>311</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N121" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O121" t="s" s="2">
         <v>73</v>
       </c>
@@ -15062,7 +15042,7 @@
         <v>73</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>73</v>
+        <v>474</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>73</v>
@@ -15089,31 +15069,31 @@
         <v>73</v>
       </c>
       <c r="AA121" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD121" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>159</v>
+        <v>315</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>73</v>
@@ -15122,12 +15102,12 @@
         <v>73</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>154</v>
+        <v>316</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15150,20 +15130,18 @@
         <v>83</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>73</v>
       </c>
@@ -15172,7 +15150,7 @@
         <v>73</v>
       </c>
       <c r="R122" t="s" s="2">
-        <v>478</v>
+        <v>73</v>
       </c>
       <c r="S122" t="s" s="2">
         <v>73</v>
@@ -15211,7 +15189,7 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
@@ -15232,12 +15210,12 @@
         <v>73</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15260,18 +15238,18 @@
         <v>83</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N123" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M123" s="2"/>
+      <c r="N123" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O123" t="s" s="2">
         <v>73</v>
       </c>
@@ -15319,7 +15297,7 @@
         <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
@@ -15340,12 +15318,12 @@
         <v>73</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15368,17 +15346,17 @@
         <v>83</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>73</v>
@@ -15427,7 +15405,7 @@
         <v>73</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -15448,12 +15426,12 @@
         <v>73</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15476,17 +15454,19 @@
         <v>83</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>188</v>
+        <v>336</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M125" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N125" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>73</v>
@@ -15535,7 +15515,7 @@
         <v>73</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
@@ -15556,12 +15536,12 @@
         <v>73</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15584,19 +15564,19 @@
         <v>83</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>335</v>
+        <v>188</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>73</v>
@@ -15645,7 +15625,7 @@
         <v>73</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>74</v>
@@ -15666,12 +15646,12 @@
         <v>73</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15682,7 +15662,7 @@
         <v>74</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>73</v>
@@ -15694,20 +15674,16 @@
         <v>83</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>343</v>
+        <v>481</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>73</v>
       </c>
@@ -15731,13 +15707,13 @@
         <v>73</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>73</v>
+        <v>465</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>73</v>
+        <v>466</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>73</v>
@@ -15755,13 +15731,13 @@
         <v>73</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>347</v>
+        <v>480</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>73</v>
@@ -15770,13 +15746,13 @@
         <v>94</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>73</v>
+        <v>483</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>348</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128">
@@ -15804,7 +15780,7 @@
         <v>83</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="K128" t="s" s="2">
         <v>485</v>
@@ -15837,13 +15813,13 @@
         <v>73</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>469</v>
+        <v>73</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>470</v>
+        <v>73</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>73</v>
@@ -15873,7 +15849,7 @@
         <v>73</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>94</v>
+        <v>283</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>487</v>
@@ -15898,7 +15874,7 @@
         <v>74</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>73</v>
@@ -15907,16 +15883,16 @@
         <v>73</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>489</v>
+        <v>188</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>490</v>
+        <v>151</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>491</v>
+        <v>152</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -15967,44 +15943,44 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>488</v>
+        <v>153</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>492</v>
+        <v>73</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>73</v>
@@ -16016,15 +15992,17 @@
         <v>73</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M130" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
         <v>73</v>
@@ -16073,19 +16051,19 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>73</v>
@@ -16099,11 +16077,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16116,24 +16094,26 @@
         <v>73</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>129</v>
+        <v>289</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N131" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O131" t="s" s="2">
         <v>73</v>
       </c>
@@ -16169,19 +16149,19 @@
         <v>73</v>
       </c>
       <c r="AA131" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB131" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD131" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -16193,7 +16173,7 @@
         <v>73</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>73</v>
@@ -16202,48 +16182,44 @@
         <v>73</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I132" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>288</v>
+        <v>492</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>73</v>
       </c>
@@ -16291,19 +16267,19 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>374</v>
+        <v>491</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>73</v>
@@ -16312,12 +16288,12 @@
         <v>73</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16325,7 +16301,7 @@
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F133" t="s" s="2">
         <v>82</v>
@@ -16337,16 +16313,16 @@
         <v>73</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>497</v>
+        <v>151</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>498</v>
+        <v>152</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -16397,7 +16373,7 @@
         <v>73</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>499</v>
+        <v>153</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>74</v>
@@ -16409,7 +16385,7 @@
         <v>73</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>73</v>
@@ -16418,23 +16394,23 @@
         <v>73</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>73</v>
@@ -16446,15 +16422,17 @@
         <v>73</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M134" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>73</v>
@@ -16491,31 +16469,31 @@
         <v>73</v>
       </c>
       <c r="AA134" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC134" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD134" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>73</v>
@@ -16529,11 +16507,11 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -16549,21 +16527,23 @@
         <v>73</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>128</v>
+        <v>300</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>129</v>
+        <v>301</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>156</v>
+        <v>302</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N135" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O135" t="s" s="2">
         <v>73</v>
       </c>
@@ -16599,19 +16579,19 @@
         <v>73</v>
       </c>
       <c r="AA135" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB135" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD135" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>159</v>
+        <v>305</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>74</v>
@@ -16623,7 +16603,7 @@
         <v>73</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>73</v>
@@ -16632,12 +16612,12 @@
         <v>73</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>154</v>
+        <v>306</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16648,7 +16628,7 @@
         <v>74</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>73</v>
@@ -16657,23 +16637,19 @@
         <v>73</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>299</v>
+        <v>84</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>73</v>
       </c>
@@ -16721,19 +16697,19 @@
         <v>73</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>304</v>
+        <v>153</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>73</v>
@@ -16742,23 +16718,23 @@
         <v>73</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>305</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>73</v>
@@ -16770,15 +16746,17 @@
         <v>73</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M137" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
         <v>73</v>
@@ -16815,31 +16793,31 @@
         <v>73</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC137" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>73</v>
@@ -16853,18 +16831,18 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>73</v>
@@ -16873,21 +16851,23 @@
         <v>73</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>156</v>
+        <v>311</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N138" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O138" t="s" s="2">
         <v>73</v>
       </c>
@@ -16896,7 +16876,7 @@
         <v>73</v>
       </c>
       <c r="R138" t="s" s="2">
-        <v>73</v>
+        <v>500</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>73</v>
@@ -16923,31 +16903,31 @@
         <v>73</v>
       </c>
       <c r="AA138" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB138" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD138" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>159</v>
+        <v>315</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>73</v>
@@ -16956,12 +16936,12 @@
         <v>73</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>154</v>
+        <v>316</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16984,20 +16964,18 @@
         <v>83</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
         <v>73</v>
       </c>
@@ -17006,7 +16984,7 @@
         <v>73</v>
       </c>
       <c r="R139" t="s" s="2">
-        <v>506</v>
+        <v>73</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>73</v>
@@ -17045,7 +17023,7 @@
         <v>73</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>74</v>
@@ -17066,12 +17044,12 @@
         <v>73</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17094,18 +17072,18 @@
         <v>83</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N140" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M140" s="2"/>
+      <c r="N140" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O140" t="s" s="2">
         <v>73</v>
       </c>
@@ -17153,7 +17131,7 @@
         <v>73</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>74</v>
@@ -17174,12 +17152,12 @@
         <v>73</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17202,17 +17180,17 @@
         <v>83</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>73</v>
@@ -17261,7 +17239,7 @@
         <v>73</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>74</v>
@@ -17282,12 +17260,12 @@
         <v>73</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17310,17 +17288,19 @@
         <v>83</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>188</v>
+        <v>336</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M142" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N142" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>73</v>
@@ -17369,7 +17349,7 @@
         <v>73</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>74</v>
@@ -17390,12 +17370,12 @@
         <v>73</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17418,19 +17398,19 @@
         <v>83</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>335</v>
+        <v>188</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>73</v>
@@ -17479,7 +17459,7 @@
         <v>73</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>74</v>
@@ -17500,12 +17480,12 @@
         <v>73</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17513,7 +17493,7 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F144" t="s" s="2">
         <v>82</v>
@@ -17528,20 +17508,16 @@
         <v>83</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>188</v>
+        <v>507</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>343</v>
+        <v>508</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
         <v>73</v>
       </c>
@@ -17589,7 +17565,7 @@
         <v>73</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>347</v>
+        <v>506</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>74</v>
@@ -17610,12 +17586,12 @@
         <v>73</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>348</v>
+        <v>73</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17623,10 +17599,10 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>73</v>
@@ -17638,13 +17614,13 @@
         <v>83</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>513</v>
+        <v>170</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -17695,13 +17671,13 @@
         <v>73</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>73</v>
@@ -17721,7 +17697,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17744,13 +17720,13 @@
         <v>83</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -17801,7 +17777,7 @@
         <v>73</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>74</v>
@@ -17816,7 +17792,7 @@
         <v>94</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>73</v>
+        <v>516</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>73</v>
@@ -17827,7 +17803,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17850,13 +17826,13 @@
         <v>83</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>202</v>
+        <v>280</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -17907,7 +17883,7 @@
         <v>73</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>74</v>
@@ -17919,10 +17895,10 @@
         <v>73</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>94</v>
+        <v>283</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>73</v>
@@ -17933,7 +17909,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -17944,7 +17920,7 @@
         <v>74</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>73</v>
@@ -17953,16 +17929,16 @@
         <v>73</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>526</v>
+        <v>151</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>527</v>
+        <v>152</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -18013,44 +17989,44 @@
         <v>73</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>525</v>
+        <v>153</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>528</v>
+        <v>73</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>73</v>
@@ -18062,15 +18038,17 @@
         <v>73</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M149" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>73</v>
@@ -18119,19 +18097,19 @@
         <v>73</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>73</v>
@@ -18145,11 +18123,11 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -18162,24 +18140,26 @@
         <v>73</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>129</v>
+        <v>289</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N150" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N150" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O150" t="s" s="2">
         <v>73</v>
       </c>
@@ -18227,7 +18207,7 @@
         <v>73</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>74</v>
@@ -18239,7 +18219,7 @@
         <v>73</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>73</v>
@@ -18248,48 +18228,44 @@
         <v>73</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>288</v>
+        <v>525</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
         <v>73</v>
       </c>
@@ -18313,13 +18289,13 @@
         <v>73</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>73</v>
+        <v>527</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>73</v>
+        <v>528</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>73</v>
@@ -18337,33 +18313,33 @@
         <v>73</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>290</v>
+        <v>524</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>73</v>
+        <v>529</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18371,7 +18347,7 @@
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F152" t="s" s="2">
         <v>82</v>
@@ -18386,13 +18362,13 @@
         <v>83</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>170</v>
+        <v>531</v>
       </c>
       <c r="K152" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L152" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="L152" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -18419,13 +18395,13 @@
         <v>73</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>535</v>
+        <v>73</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>536</v>
+        <v>73</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>73</v>
@@ -18443,10 +18419,10 @@
         <v>73</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>82</v>
@@ -18458,7 +18434,7 @@
         <v>94</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>73</v>
@@ -18469,7 +18445,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18480,7 +18456,7 @@
         <v>74</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>73</v>
@@ -18492,13 +18468,13 @@
         <v>83</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>539</v>
+        <v>280</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -18549,22 +18525,22 @@
         <v>73</v>
       </c>
       <c r="AE153" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AF153" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI153" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AJ153" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AF153" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG153" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI153" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ153" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>73</v>
@@ -18575,7 +18551,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18586,7 +18562,7 @@
         <v>74</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>73</v>
@@ -18595,16 +18571,16 @@
         <v>73</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>544</v>
+        <v>151</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>545</v>
+        <v>152</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -18655,44 +18631,44 @@
         <v>73</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>543</v>
+        <v>153</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>546</v>
+        <v>73</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>73</v>
@@ -18704,15 +18680,17 @@
         <v>73</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M155" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>73</v>
@@ -18761,19 +18739,19 @@
         <v>73</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>73</v>
@@ -18787,11 +18765,11 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -18804,24 +18782,26 @@
         <v>73</v>
       </c>
       <c r="H156" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>129</v>
+        <v>289</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N156" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O156" t="s" s="2">
         <v>73</v>
       </c>
@@ -18869,7 +18849,7 @@
         <v>73</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>74</v>
@@ -18881,7 +18861,7 @@
         <v>73</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>73</v>
@@ -18890,48 +18870,44 @@
         <v>73</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>128</v>
+        <v>543</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>288</v>
+        <v>544</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M157" s="2"/>
+      <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
         <v>73</v>
       </c>
@@ -18979,33 +18955,33 @@
         <v>73</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>290</v>
+        <v>542</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>73</v>
+        <v>546</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19013,7 +18989,7 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F158" t="s" s="2">
         <v>82</v>
@@ -19028,13 +19004,13 @@
         <v>83</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>551</v>
+        <v>232</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -19085,10 +19061,10 @@
         <v>73</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>82</v>
@@ -19100,7 +19076,7 @@
         <v>94</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>73</v>
@@ -19111,7 +19087,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19122,7 +19098,7 @@
         <v>74</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>73</v>
@@ -19134,13 +19110,13 @@
         <v>83</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -19191,13 +19167,13 @@
         <v>73</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>73</v>
@@ -19206,118 +19182,12 @@
         <v>94</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="AK159" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B160" s="2"/>
-      <c r="C160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I160" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M160" s="2"/>
-      <c r="N160" s="2"/>
-      <c r="O160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P160" s="2"/>
-      <c r="Q160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI160" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ160" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AK160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL160" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T19:50:48+00:00</t>
+    <t>2022-11-12T20:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5420" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5453" uniqueCount="563">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLPackagedProductDefinition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T20:00:33+00:00</t>
+    <t>2022-11-14T19:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -277,7 +277,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -367,7 +367,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -390,17 +390,13 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
   </si>
   <si>
     <t>N/A</t>
@@ -443,7 +439,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -472,6 +468,9 @@
     <t>Packaged Medicinal Product.PCID</t>
   </si>
   <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
     <t>pcid</t>
   </si>
   <si>
@@ -530,7 +529,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -573,7 +572,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -607,7 +606,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/2021Mar/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -690,14 +689,14 @@
     <t>PackagedProductDefinition.packageFor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition)
 </t>
   </si>
   <si>
     <t>The product that this is a pack for</t>
   </si>
   <si>
-    <t>The product that this is a pack for.</t>
+    <t>The product this package model relates to, not the contents of the package (for which see package.containedItem).</t>
   </si>
   <si>
     <t>(the link from Packaged Medicinal Product to Medicinal Product)</t>
@@ -778,7 +777,7 @@
     <t>PackagedProductDefinition.containedItemQuantity.comparator</t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+    <t>&lt; | &lt;= | &gt;= | &gt; | ad - how to understand the value</t>
   </si>
   <si>
     <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
@@ -790,7 +789,7 @@
     <t>If there is no comparator, then there is no modification of the value</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0-ballot</t>
   </si>
   <si>
     <t>Quantity.comparator</t>
@@ -892,10 +891,6 @@
     <t>EMA IG 4.5. Legal status of supply on the packaged product level. The same information can be repeated/differentiated on the medicinal product level</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
-  </si>
-  <si>
     <t>Marketing Authorisation.Legal Status of Supply (for a package)</t>
   </si>
   <si>
@@ -983,7 +978,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -1174,6 +1169,9 @@
     <t>PackagedProductDefinition.marketingStatus.modifierExtension</t>
   </si>
   <si>
+    <t>BackboneType.modifierExtension</t>
+  </si>
+  <si>
     <t>PackagedProductDefinition.marketingStatus.country</t>
   </si>
   <si>
@@ -1315,10 +1313,10 @@
     <t>PackagedProductDefinition.copackagedIndicator</t>
   </si>
   <si>
-    <t>If the drug product is supplied with another item such as a diluent or adjuvant</t>
-  </si>
-  <si>
-    <t>States whether a drug product is supplied with another item such as a diluent or adjuvant.</t>
+    <t>Identifies if the drug product is supplied with another item such as a diluent or adjuvant</t>
+  </si>
+  <si>
+    <t>Identifies if the package contains different items, such as when a drug product is supplied with another item e.g. a diluent or adjuvant.</t>
   </si>
   <si>
     <t>If this value is not present, there is no statement being made about whether this is co-packaged or not. No inference can be made</t>
@@ -1336,7 +1334,20 @@
     <t>Packaged Medicinal Product.Manufacturer / Establishment (Organisation)</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package</t>
+    <t>PackagedProductDefinition.attachedDocument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(DocumentReference)
+</t>
+  </si>
+  <si>
+    <t>Additional information or supporting documentation about the packaged product</t>
+  </si>
+  <si>
+    <t>Additional information or supporting documentation about the packaged product.</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging</t>
   </si>
   <si>
     <t>A packaging item, as a container for medically related items, possibly with other packaging items within, or a packaging component, such as bottle cap</t>
@@ -1348,28 +1359,28 @@
     <t>Packaged Medicinal Product.Package Item (Container), Package Item (Container).Package (Component)</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.identifier</t>
+    <t>PackagedProductDefinition.packaging.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.identifier</t>
   </si>
   <si>
     <t>An identifier that is specific to this particular part of the packaging. Including possibly a Data Carrier Identifier</t>
   </si>
   <si>
-    <t>An identifier that is specific to this particular part of the packaging. Including possibly Data Carrier Identifier (a GS1 barcode).</t>
+    <t>A business identifier that is specific to this particular part of the packaging, often assigned by the manufacturer. Including possibly Data Carrier Identifier (a GS1 barcode).</t>
   </si>
   <si>
     <t>Package Item (Container).Data Carrier Identifier</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.type</t>
+    <t>PackagedProductDefinition.packaging.type</t>
   </si>
   <si>
     <t>Container type</t>
@@ -1384,43 +1395,43 @@
     <t>Package Item (Container).Package Item (Container) Type</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.type.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.system</t>
+    <t>PackagedProductDefinition.packaging.type.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.coding</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.coding.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.coding.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.coding.system</t>
   </si>
   <si>
     <t>http://spor.ema.europa.eu/v1/lists/100000073346</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.type.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.text</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.quantity</t>
+    <t>PackagedProductDefinition.packaging.type.coding.version</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.coding.code</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.coding.display</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.text</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.quantity</t>
   </si>
   <si>
     <t xml:space="preserve">integer
@@ -1436,7 +1447,7 @@
     <t>Package Item (Container).Package Item (Container) Quantity</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.material</t>
+    <t>PackagedProductDefinition.packaging.material</t>
   </si>
   <si>
     <t>Material type of the package item</t>
@@ -1454,43 +1465,43 @@
     <t>Package Item (Container).Material</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.material.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.system</t>
+    <t>PackagedProductDefinition.packaging.material.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.coding</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.coding.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.coding.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.coding.system</t>
   </si>
   <si>
     <t>http://spor.ema.europa.eu/v1/lists/200000003199</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.material.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.userSelected</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.text</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.alternateMaterial</t>
+    <t>PackagedProductDefinition.packaging.material.coding.version</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.coding.code</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.coding.display</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.coding.userSelected</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.text</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.alternateMaterial</t>
   </si>
   <si>
     <t>A possible alternate material for this part of the packaging, that is allowed to be used instead of the usual material</t>
@@ -1502,7 +1513,11 @@
     <t>Package Item (Container).Alternate Material</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage</t>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProductShelfLife
+</t>
   </si>
   <si>
     <t>Shelf Life and storage information</t>
@@ -1514,16 +1529,16 @@
     <t>Package Item (Container).Shelf Life / Storage</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type</t>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type</t>
   </si>
   <si>
     <t>This describes the shelf life, taking into account various scenarios such as shelf life of the packaged Medicinal Product itself, shelf life after transformation where necessary and shelf life after the first opening of a bottle, etc. The shelf life type shall be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified</t>
@@ -1532,43 +1547,46 @@
     <t>This describes the shelf life, taking into account various scenarios such as shelf life of the packaged Medicinal Product itself, shelf life after transformation where necessary and shelf life after the first opening of a bottle, etc. The shelf life type shall be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified.</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.system</t>
+    <t>ProductShelfLife.type</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.system</t>
   </si>
   <si>
     <t>http://spor.ema.europa.eu/v1/lists/100000073343</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.text</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.period[x]</t>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.version</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.code</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.display</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.text</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.period[x]</t>
   </si>
   <si>
     <t>Duration
@@ -1581,28 +1599,34 @@
     <t>The shelf life time period can be specified using a numerical value for the period of time and its unit of time measurement The unit of measurement shall be specified in accordance with ISO 11240 and the resulting terminology The symbol and the symbol identifier shall be used.</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.specialPrecautionsForStorage</t>
-  </si>
-  <si>
-    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary. The controlled term and the controlled term identifier shall be specified</t>
-  </si>
-  <si>
-    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary. The controlled term and the controlled term identifier shall be specified.</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.manufacturer</t>
-  </si>
-  <si>
-    <t>Manufacturer of this package Item (multiple means these are all possible manufacturers)</t>
-  </si>
-  <si>
-    <t>Manufacturer of this package Item. When there are multiple it means these are all possible manufacturers.</t>
+    <t>ProductShelfLife.period[x]</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.specialPrecautionsForStorage</t>
+  </si>
+  <si>
+    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified</t>
+  </si>
+  <si>
+    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified.</t>
+  </si>
+  <si>
+    <t>ProductShelfLife.specialPrecautionsForStorage</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.manufacturer</t>
+  </si>
+  <si>
+    <t>Manufacturer of this packaging item (multiple means these are all potential manufacturers)</t>
+  </si>
+  <si>
+    <t>Manufacturer of this packaging item. When there are multiple values each one is a potential manufacturer of this packaging item.</t>
   </si>
   <si>
     <t>Package Item (Container).Manufacturer / Establishment (Organisation)</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.property</t>
+    <t>PackagedProductDefinition.packaging.property</t>
   </si>
   <si>
     <t>General characteristics of this item</t>
@@ -1614,16 +1638,16 @@
     <t>Package Item (Container).Physical Characteristics</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.property.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.property.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.property.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.property.type</t>
+    <t>PackagedProductDefinition.packaging.property.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.property.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.property.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.property.type</t>
   </si>
   <si>
     <t>A code expressing the type of characteristic</t>
@@ -1641,7 +1665,7 @@
     <t>Physical Characteristics, all attributes</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.property.value[x]</t>
+    <t>PackagedProductDefinition.packaging.property.value[x]</t>
   </si>
   <si>
     <t>CodeableConcept
@@ -1657,7 +1681,7 @@
     <t>Physical Characteristics, attribute's value</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.containedItem</t>
+    <t>PackagedProductDefinition.packaging.containedItem</t>
   </si>
   <si>
     <t>An item (inner package or manufactured item) within the packaging</t>
@@ -1669,32 +1693,32 @@
     <t>Package Item (Container).Manufactured Item, Package Item (Container).Device</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.containedItem.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.containedItem.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.containedItem.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.containedItem.item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableReference(http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
+    <t>PackagedProductDefinition.packaging.containedItem.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.containedItem.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.containedItem.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.containedItem.item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableReference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLPackagedProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>
     <t>The actual item(s) of medication, as manufactured, or a device, or other medically related item (food, biologicals, raw materials, medical fluids, gases etc.), as contained in the package</t>
   </si>
   <si>
-    <t>The actual item(s) of medication, as manufactured, or a device (typically, but not necessarily, a co-packaged one), or other medically related item (such as food, biologicals, raw materials, medical fluids, gases etc.), as contained in the package. This also allows another whole packaged product to be included, which is solely for the case where a package of other entire packages is wanted - such as a wholesale or distribution pack (for layers within one package, use PackagedProductDefinition.package.package).</t>
+    <t>The actual item(s) of medication, as manufactured, or a device (typically, but not necessarily, a co-packaged one), or other medically related item (such as food, biologicals, raw materials, medical fluids, gases etc.), as contained in the package. This also allows another whole packaged product to be included, which is solely for the case where a package of other entire packages is wanted - such as a wholesale or distribution pack (for layers within one package, use PackagedProductDefinition.packaging.packaging).</t>
   </si>
   <si>
     <t>(the link to) Package Item (Container).Manufactured Item, Package Item (Container).Device</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.containedItem.amount</t>
+    <t>PackagedProductDefinition.packaging.containedItem.amount</t>
   </si>
   <si>
     <t>Number of the manufactured items (e.g. tablets) in this package layer or the amount of manufactured item (e.g. 20 g) in the unit of presentation defined in manufactured item definition</t>
@@ -1706,13 +1730,13 @@
     <t>Manufactured Item.Manufactured Item Quantity</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.package</t>
+    <t>PackagedProductDefinition.packaging.packaging</t>
   </si>
   <si>
     <t>Allows containers (and parts of containers) within containers, still a single packaged product</t>
   </si>
   <si>
-    <t>Allows containers (and parts of containers) parwithin containers, still a single packaged product.  See also PackagedProductDefinition.package.containedItem.item(PackagedProductDefinition).</t>
+    <t>Allows containers (and parts of containers) parwithin containers, still a single packaged product.  See also PackagedProductDefinition.packaging.containedItem.item(PackagedProductDefinition).</t>
   </si>
   <si>
     <t>(link from Package Item (Container) to itself)</t>
@@ -2012,7 +2036,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL159"/>
+  <dimension ref="A1:AL160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2021,7 +2045,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="77.4765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="79.18359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2045,13 +2069,13 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.09765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.50390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.30078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="77.4765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="57.40234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -2917,25 +2941,25 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2954,16 +2978,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3013,7 +3037,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -3025,7 +3049,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -3034,16 +3058,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3059,22 +3083,22 @@
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -3123,7 +3147,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -3135,7 +3159,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -3144,12 +3168,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3172,13 +3196,13 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3217,17 +3241,17 @@
         <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -3242,10 +3266,10 @@
         <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -3253,7 +3277,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>147</v>
@@ -3278,7 +3302,7 @@
         <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>148</v>
@@ -3335,7 +3359,7 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
@@ -3350,10 +3374,10 @@
         <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>73</v>
@@ -3471,7 +3495,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3490,16 +3514,16 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3546,7 +3570,7 @@
         <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>159</v>
@@ -3561,7 +3585,7 @@
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
@@ -4969,7 +4993,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4988,16 +5012,16 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5044,7 +5068,7 @@
         <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>159</v>
@@ -5059,7 +5083,7 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -5815,10 +5839,10 @@
         <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>73</v>
@@ -5829,7 +5853,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5935,11 +5959,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5958,16 +5982,16 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6029,7 +6053,7 @@
         <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -6043,11 +6067,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6066,19 +6090,19 @@
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="M38" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>73</v>
@@ -6127,7 +6151,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -6139,7 +6163,7 @@
         <v>73</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>73</v>
@@ -6148,12 +6172,12 @@
         <v>73</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6179,10 +6203,10 @@
         <v>170</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6212,11 +6236,11 @@
         <v>214</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>73</v>
       </c>
@@ -6233,7 +6257,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -6248,7 +6272,7 @@
         <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>73</v>
@@ -6259,7 +6283,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6365,11 +6389,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6388,16 +6412,16 @@
         <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6444,7 +6468,7 @@
         <v>73</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>159</v>
@@ -6459,7 +6483,7 @@
         <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>73</v>
@@ -6473,7 +6497,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6496,19 +6520,19 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>73</v>
@@ -6557,7 +6581,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6578,12 +6602,12 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6689,11 +6713,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6712,16 +6736,16 @@
         <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6768,7 +6792,7 @@
         <v>73</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>159</v>
@@ -6783,7 +6807,7 @@
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>73</v>
@@ -6797,7 +6821,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6823,16 +6847,16 @@
         <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>73</v>
@@ -6842,46 +6866,46 @@
         <v>73</v>
       </c>
       <c r="R45" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -6902,12 +6926,12 @@
         <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6933,13 +6957,13 @@
         <v>188</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6989,7 +7013,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -7010,12 +7034,12 @@
         <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7041,14 +7065,14 @@
         <v>102</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>73</v>
@@ -7097,7 +7121,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -7118,12 +7142,12 @@
         <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7149,14 +7173,14 @@
         <v>188</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>73</v>
@@ -7205,7 +7229,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -7226,12 +7250,12 @@
         <v>73</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7254,19 +7278,19 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>73</v>
@@ -7315,7 +7339,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -7336,12 +7360,12 @@
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7367,16 +7391,16 @@
         <v>188</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>73</v>
@@ -7425,7 +7449,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -7446,12 +7470,12 @@
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7477,10 +7501,10 @@
         <v>170</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7510,11 +7534,11 @@
         <v>214</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>73</v>
       </c>
@@ -7531,7 +7555,7 @@
         <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
@@ -7557,7 +7581,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7663,11 +7687,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7686,16 +7710,16 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7742,7 +7766,7 @@
         <v>73</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>159</v>
@@ -7757,7 +7781,7 @@
         <v>73</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>73</v>
@@ -7771,7 +7795,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7794,19 +7818,19 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>73</v>
@@ -7855,7 +7879,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7876,12 +7900,12 @@
         <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7987,11 +8011,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8010,16 +8034,16 @@
         <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8066,7 +8090,7 @@
         <v>73</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>159</v>
@@ -8081,7 +8105,7 @@
         <v>73</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>73</v>
@@ -8095,7 +8119,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8121,16 +8145,16 @@
         <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
@@ -8140,7 +8164,7 @@
         <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>73</v>
@@ -8179,7 +8203,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -8200,12 +8224,12 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8231,13 +8255,13 @@
         <v>188</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8287,7 +8311,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -8308,12 +8332,12 @@
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8339,14 +8363,14 @@
         <v>102</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>73</v>
@@ -8395,7 +8419,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -8416,12 +8440,12 @@
         <v>73</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8447,14 +8471,14 @@
         <v>188</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>73</v>
@@ -8503,7 +8527,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -8524,12 +8548,12 @@
         <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8552,19 +8576,19 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>73</v>
@@ -8613,7 +8637,7 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8634,12 +8658,12 @@
         <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8665,16 +8689,16 @@
         <v>188</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>73</v>
@@ -8723,7 +8747,7 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -8744,12 +8768,12 @@
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8772,13 +8796,13 @@
         <v>83</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8829,7 +8853,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8844,7 +8868,7 @@
         <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>73</v>
@@ -8855,7 +8879,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8961,11 +8985,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8984,16 +9008,16 @@
         <v>73</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9040,7 +9064,7 @@
         <v>73</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE65" t="s" s="2">
         <v>159</v>
@@ -9055,7 +9079,7 @@
         <v>73</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>73</v>
@@ -9069,11 +9093,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9092,19 +9116,19 @@
         <v>83</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="M66" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>73</v>
@@ -9153,7 +9177,7 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>291</v>
+        <v>374</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -9165,7 +9189,7 @@
         <v>73</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>73</v>
@@ -9174,7 +9198,7 @@
         <v>73</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67">
@@ -9395,7 +9419,7 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9414,16 +9438,16 @@
         <v>73</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9470,7 +9494,7 @@
         <v>73</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE69" t="s" s="2">
         <v>159</v>
@@ -9485,7 +9509,7 @@
         <v>73</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>73</v>
@@ -9522,19 +9546,19 @@
         <v>83</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>73</v>
@@ -9583,7 +9607,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9604,7 +9628,7 @@
         <v>73</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71">
@@ -9719,7 +9743,7 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9738,16 +9762,16 @@
         <v>73</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9794,7 +9818,7 @@
         <v>73</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE72" t="s" s="2">
         <v>159</v>
@@ -9809,7 +9833,7 @@
         <v>73</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>73</v>
@@ -9849,16 +9873,16 @@
         <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>73</v>
@@ -9868,7 +9892,7 @@
         <v>73</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>73</v>
@@ -9907,7 +9931,7 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -9928,7 +9952,7 @@
         <v>73</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74">
@@ -9959,13 +9983,13 @@
         <v>188</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10015,7 +10039,7 @@
         <v>73</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
@@ -10036,7 +10060,7 @@
         <v>73</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75">
@@ -10067,14 +10091,14 @@
         <v>102</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>73</v>
@@ -10123,7 +10147,7 @@
         <v>73</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -10144,7 +10168,7 @@
         <v>73</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76">
@@ -10175,14 +10199,14 @@
         <v>188</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>73</v>
@@ -10231,7 +10255,7 @@
         <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -10252,7 +10276,7 @@
         <v>73</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77">
@@ -10280,19 +10304,19 @@
         <v>83</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>73</v>
@@ -10341,7 +10365,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10362,7 +10386,7 @@
         <v>73</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78">
@@ -10393,16 +10417,16 @@
         <v>188</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>73</v>
@@ -10451,7 +10475,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10472,7 +10496,7 @@
         <v>73</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79">
@@ -10799,7 +10823,7 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10818,16 +10842,16 @@
         <v>73</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10874,7 +10898,7 @@
         <v>73</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>159</v>
@@ -10889,7 +10913,7 @@
         <v>73</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>73</v>
@@ -10926,19 +10950,19 @@
         <v>83</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>73</v>
@@ -10987,7 +11011,7 @@
         <v>73</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
@@ -11008,7 +11032,7 @@
         <v>73</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84">
@@ -11123,7 +11147,7 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11142,16 +11166,16 @@
         <v>73</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11198,7 +11222,7 @@
         <v>73</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE85" t="s" s="2">
         <v>159</v>
@@ -11213,7 +11237,7 @@
         <v>73</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>73</v>
@@ -11253,16 +11277,16 @@
         <v>96</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>73</v>
@@ -11311,7 +11335,7 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -11332,7 +11356,7 @@
         <v>73</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87">
@@ -11363,13 +11387,13 @@
         <v>188</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11419,7 +11443,7 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -11440,7 +11464,7 @@
         <v>73</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="88">
@@ -11471,14 +11495,14 @@
         <v>102</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>73</v>
@@ -11527,7 +11551,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -11548,7 +11572,7 @@
         <v>73</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="89">
@@ -11579,14 +11603,14 @@
         <v>188</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>73</v>
@@ -11635,7 +11659,7 @@
         <v>73</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -11656,7 +11680,7 @@
         <v>73</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="90">
@@ -11684,19 +11708,19 @@
         <v>83</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>73</v>
@@ -11745,7 +11769,7 @@
         <v>73</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>74</v>
@@ -11766,7 +11790,7 @@
         <v>73</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91">
@@ -11797,16 +11821,16 @@
         <v>188</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>73</v>
@@ -11855,7 +11879,7 @@
         <v>73</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
@@ -11876,7 +11900,7 @@
         <v>73</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="92">
@@ -12222,7 +12246,7 @@
         <v>83</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>422</v>
@@ -12421,10 +12445,10 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>73</v>
@@ -12436,13 +12460,13 @@
         <v>83</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12499,16 +12523,16 @@
         <v>74</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>432</v>
+        <v>154</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>73</v>
@@ -12527,7 +12551,7 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>82</v>
@@ -12539,16 +12563,16 @@
         <v>73</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>151</v>
+        <v>434</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>152</v>
+        <v>435</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12599,7 +12623,7 @@
         <v>73</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>153</v>
+        <v>433</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -12611,32 +12635,32 @@
         <v>73</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>73</v>
+        <v>436</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>73</v>
@@ -12648,17 +12672,15 @@
         <v>73</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>73</v>
@@ -12707,19 +12729,19 @@
         <v>73</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>73</v>
@@ -12733,11 +12755,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>288</v>
+        <v>127</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12750,26 +12772,24 @@
         <v>73</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J100" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K100" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K100" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="L100" t="s" s="2">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>73</v>
       </c>
@@ -12817,7 +12837,7 @@
         <v>73</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
@@ -12829,7 +12849,7 @@
         <v>73</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>73</v>
@@ -12838,16 +12858,16 @@
         <v>73</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12860,22 +12880,26 @@
         <v>73</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>437</v>
+        <v>288</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>73</v>
       </c>
@@ -12923,7 +12947,7 @@
         <v>73</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>436</v>
+        <v>290</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -12935,16 +12959,16 @@
         <v>73</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>439</v>
+        <v>73</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102">
@@ -12957,10 +12981,10 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>73</v>
@@ -12972,7 +12996,7 @@
         <v>83</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>441</v>
@@ -13005,13 +13029,13 @@
         <v>73</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>443</v>
+        <v>73</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>73</v>
@@ -13035,7 +13059,7 @@
         <v>74</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>73</v>
@@ -13044,7 +13068,7 @@
         <v>94</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>73</v>
@@ -13055,7 +13079,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13063,7 +13087,7 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>82</v>
@@ -13075,16 +13099,16 @@
         <v>73</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>151</v>
+        <v>445</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>152</v>
+        <v>446</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13111,13 +13135,13 @@
         <v>73</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>73</v>
+        <v>447</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>73</v>
@@ -13135,7 +13159,7 @@
         <v>73</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>153</v>
+        <v>444</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
@@ -13147,32 +13171,32 @@
         <v>73</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>73</v>
+        <v>448</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>73</v>
@@ -13184,17 +13208,15 @@
         <v>73</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M104" s="2"/>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>73</v>
@@ -13231,31 +13253,31 @@
         <v>73</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>73</v>
@@ -13269,11 +13291,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13289,23 +13311,21 @@
         <v>73</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>300</v>
+        <v>128</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>73</v>
       </c>
@@ -13341,19 +13361,19 @@
         <v>73</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>305</v>
+        <v>159</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
@@ -13365,7 +13385,7 @@
         <v>73</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>73</v>
@@ -13374,12 +13394,12 @@
         <v>73</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>306</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13390,7 +13410,7 @@
         <v>74</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>73</v>
@@ -13399,19 +13419,23 @@
         <v>73</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O106" t="s" s="2">
         <v>73</v>
       </c>
@@ -13459,19 +13483,19 @@
         <v>73</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>73</v>
@@ -13480,23 +13504,23 @@
         <v>73</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>154</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>73</v>
@@ -13508,17 +13532,15 @@
         <v>73</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>73</v>
@@ -13555,31 +13577,31 @@
         <v>73</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>73</v>
@@ -13593,18 +13615,18 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>73</v>
@@ -13613,23 +13635,21 @@
         <v>73</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>310</v>
+        <v>129</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>311</v>
+        <v>156</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>73</v>
       </c>
@@ -13638,7 +13658,7 @@
         <v>73</v>
       </c>
       <c r="R108" t="s" s="2">
-        <v>451</v>
+        <v>73</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>73</v>
@@ -13665,31 +13685,31 @@
         <v>73</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>315</v>
+        <v>159</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>73</v>
@@ -13698,12 +13718,12 @@
         <v>73</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>316</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13726,18 +13746,20 @@
         <v>83</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O109" t="s" s="2">
         <v>73</v>
       </c>
@@ -13746,7 +13768,7 @@
         <v>73</v>
       </c>
       <c r="R109" t="s" s="2">
-        <v>73</v>
+        <v>455</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>73</v>
@@ -13785,7 +13807,7 @@
         <v>73</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
@@ -13806,12 +13828,12 @@
         <v>73</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13834,18 +13856,18 @@
         <v>83</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>73</v>
       </c>
@@ -13893,7 +13915,7 @@
         <v>73</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -13914,12 +13936,12 @@
         <v>73</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13942,17 +13964,17 @@
         <v>83</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>73</v>
@@ -14001,7 +14023,7 @@
         <v>73</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
@@ -14022,12 +14044,12 @@
         <v>73</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14050,19 +14072,17 @@
         <v>83</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>336</v>
+        <v>188</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M112" s="2"/>
       <c r="N112" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>73</v>
@@ -14111,7 +14131,7 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>74</v>
@@ -14132,12 +14152,12 @@
         <v>73</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14160,19 +14180,19 @@
         <v>83</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>73</v>
@@ -14221,7 +14241,7 @@
         <v>73</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>74</v>
@@ -14242,12 +14262,12 @@
         <v>73</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14255,7 +14275,7 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F114" t="s" s="2">
         <v>82</v>
@@ -14270,16 +14290,20 @@
         <v>83</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>458</v>
+        <v>188</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>459</v>
+        <v>343</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O114" t="s" s="2">
         <v>73</v>
       </c>
@@ -14327,7 +14351,7 @@
         <v>73</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>457</v>
+        <v>347</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>74</v>
@@ -14342,18 +14366,18 @@
         <v>94</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>461</v>
+        <v>73</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>73</v>
+        <v>348</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14361,10 +14385,10 @@
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>73</v>
@@ -14376,7 +14400,7 @@
         <v>83</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>170</v>
+        <v>462</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>463</v>
@@ -14409,13 +14433,13 @@
         <v>73</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>465</v>
+        <v>73</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>466</v>
+        <v>73</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>73</v>
@@ -14433,13 +14457,13 @@
         <v>73</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>73</v>
@@ -14448,7 +14472,7 @@
         <v>94</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>73</v>
@@ -14459,7 +14483,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14470,7 +14494,7 @@
         <v>74</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>73</v>
@@ -14479,16 +14503,16 @@
         <v>73</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>151</v>
+        <v>467</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>152</v>
+        <v>468</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14515,13 +14539,13 @@
         <v>73</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>73</v>
+        <v>469</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>73</v>
+        <v>470</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>73</v>
@@ -14539,44 +14563,44 @@
         <v>73</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>153</v>
+        <v>466</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>73</v>
+        <v>471</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>73</v>
@@ -14588,17 +14612,15 @@
         <v>73</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>73</v>
@@ -14635,31 +14657,31 @@
         <v>73</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>73</v>
@@ -14673,11 +14695,11 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -14693,23 +14715,21 @@
         <v>73</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>300</v>
+        <v>128</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>73</v>
       </c>
@@ -14745,19 +14765,19 @@
         <v>73</v>
       </c>
       <c r="AA118" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC118" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD118" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>305</v>
+        <v>159</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -14769,7 +14789,7 @@
         <v>73</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>73</v>
@@ -14778,12 +14798,12 @@
         <v>73</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>306</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14794,7 +14814,7 @@
         <v>74</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>73</v>
@@ -14803,19 +14823,23 @@
         <v>73</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O119" t="s" s="2">
         <v>73</v>
       </c>
@@ -14863,19 +14887,19 @@
         <v>73</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>73</v>
@@ -14884,23 +14908,23 @@
         <v>73</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>154</v>
+        <v>305</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>73</v>
@@ -14912,17 +14936,15 @@
         <v>73</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>73</v>
@@ -14959,31 +14981,31 @@
         <v>73</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>73</v>
@@ -14997,18 +15019,18 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>73</v>
@@ -15017,23 +15039,21 @@
         <v>73</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>310</v>
+        <v>129</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>311</v>
+        <v>156</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>73</v>
       </c>
@@ -15042,7 +15062,7 @@
         <v>73</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>474</v>
+        <v>73</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>73</v>
@@ -15069,31 +15089,31 @@
         <v>73</v>
       </c>
       <c r="AA121" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD121" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>315</v>
+        <v>159</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>73</v>
@@ -15102,12 +15122,12 @@
         <v>73</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>316</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15130,18 +15150,20 @@
         <v>83</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N122" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O122" t="s" s="2">
         <v>73</v>
       </c>
@@ -15150,7 +15172,7 @@
         <v>73</v>
       </c>
       <c r="R122" t="s" s="2">
-        <v>73</v>
+        <v>478</v>
       </c>
       <c r="S122" t="s" s="2">
         <v>73</v>
@@ -15189,7 +15211,7 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
@@ -15210,12 +15232,12 @@
         <v>73</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15238,18 +15260,18 @@
         <v>83</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M123" s="2"/>
-      <c r="N123" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>73</v>
       </c>
@@ -15297,7 +15319,7 @@
         <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
@@ -15318,12 +15340,12 @@
         <v>73</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15346,17 +15368,17 @@
         <v>83</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>73</v>
@@ -15405,7 +15427,7 @@
         <v>73</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -15426,12 +15448,12 @@
         <v>73</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15454,19 +15476,17 @@
         <v>83</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>336</v>
+        <v>188</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M125" s="2"/>
       <c r="N125" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>73</v>
@@ -15515,7 +15535,7 @@
         <v>73</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
@@ -15536,12 +15556,12 @@
         <v>73</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15564,19 +15584,19 @@
         <v>83</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>73</v>
@@ -15625,7 +15645,7 @@
         <v>73</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>74</v>
@@ -15646,12 +15666,12 @@
         <v>73</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15662,7 +15682,7 @@
         <v>74</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>73</v>
@@ -15674,16 +15694,20 @@
         <v>83</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>481</v>
+        <v>343</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O127" t="s" s="2">
         <v>73</v>
       </c>
@@ -15707,13 +15731,13 @@
         <v>73</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>465</v>
+        <v>73</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>466</v>
+        <v>73</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>73</v>
@@ -15731,13 +15755,13 @@
         <v>73</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>480</v>
+        <v>347</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>73</v>
@@ -15746,13 +15770,13 @@
         <v>94</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>483</v>
+        <v>73</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>73</v>
+        <v>348</v>
       </c>
     </row>
     <row r="128">
@@ -15780,7 +15804,7 @@
         <v>83</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="K128" t="s" s="2">
         <v>485</v>
@@ -15813,13 +15837,13 @@
         <v>73</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>73</v>
+        <v>469</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>73</v>
+        <v>470</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>73</v>
@@ -15849,7 +15873,7 @@
         <v>73</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>487</v>
@@ -15874,7 +15898,7 @@
         <v>74</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>73</v>
@@ -15883,16 +15907,16 @@
         <v>73</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>188</v>
+        <v>489</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>151</v>
+        <v>490</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>152</v>
+        <v>491</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -15943,44 +15967,44 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>153</v>
+        <v>488</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>73</v>
+        <v>492</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>73</v>
@@ -15992,17 +16016,15 @@
         <v>73</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M130" s="2"/>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
         <v>73</v>
@@ -16051,19 +16073,19 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>73</v>
@@ -16077,11 +16099,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>288</v>
+        <v>127</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16094,26 +16116,24 @@
         <v>73</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J131" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K131" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K131" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="L131" t="s" s="2">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
         <v>73</v>
       </c>
@@ -16149,19 +16169,19 @@
         <v>73</v>
       </c>
       <c r="AA131" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB131" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD131" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -16173,7 +16193,7 @@
         <v>73</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>73</v>
@@ -16182,44 +16202,48 @@
         <v>73</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I132" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>492</v>
+        <v>288</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O132" t="s" s="2">
         <v>73</v>
       </c>
@@ -16267,19 +16291,19 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>491</v>
+        <v>374</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>73</v>
@@ -16288,12 +16312,12 @@
         <v>73</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16301,7 +16325,7 @@
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F133" t="s" s="2">
         <v>82</v>
@@ -16313,16 +16337,16 @@
         <v>73</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>151</v>
+        <v>497</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>152</v>
+        <v>498</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -16373,7 +16397,7 @@
         <v>73</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>153</v>
+        <v>499</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>74</v>
@@ -16385,7 +16409,7 @@
         <v>73</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>73</v>
@@ -16394,23 +16418,23 @@
         <v>73</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>73</v>
@@ -16422,17 +16446,15 @@
         <v>73</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M134" s="2"/>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>73</v>
@@ -16469,31 +16491,31 @@
         <v>73</v>
       </c>
       <c r="AA134" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC134" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD134" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>73</v>
@@ -16507,11 +16529,11 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -16527,23 +16549,21 @@
         <v>73</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>300</v>
+        <v>128</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>73</v>
       </c>
@@ -16579,19 +16599,19 @@
         <v>73</v>
       </c>
       <c r="AA135" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB135" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD135" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>305</v>
+        <v>159</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>74</v>
@@ -16603,7 +16623,7 @@
         <v>73</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>73</v>
@@ -16612,12 +16632,12 @@
         <v>73</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>306</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16628,7 +16648,7 @@
         <v>74</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>73</v>
@@ -16637,19 +16657,23 @@
         <v>73</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O136" t="s" s="2">
         <v>73</v>
       </c>
@@ -16697,19 +16721,19 @@
         <v>73</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>73</v>
@@ -16718,23 +16742,23 @@
         <v>73</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>154</v>
+        <v>305</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>73</v>
@@ -16746,17 +16770,15 @@
         <v>73</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M137" s="2"/>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
         <v>73</v>
@@ -16793,31 +16815,31 @@
         <v>73</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC137" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>73</v>
@@ -16831,18 +16853,18 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>73</v>
@@ -16851,23 +16873,21 @@
         <v>73</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>310</v>
+        <v>129</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>311</v>
+        <v>156</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
         <v>73</v>
       </c>
@@ -16876,7 +16896,7 @@
         <v>73</v>
       </c>
       <c r="R138" t="s" s="2">
-        <v>500</v>
+        <v>73</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>73</v>
@@ -16903,31 +16923,31 @@
         <v>73</v>
       </c>
       <c r="AA138" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB138" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD138" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>315</v>
+        <v>159</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>73</v>
@@ -16936,12 +16956,12 @@
         <v>73</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>316</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16964,18 +16984,20 @@
         <v>83</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N139" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O139" t="s" s="2">
         <v>73</v>
       </c>
@@ -16984,7 +17006,7 @@
         <v>73</v>
       </c>
       <c r="R139" t="s" s="2">
-        <v>73</v>
+        <v>506</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>73</v>
@@ -17023,7 +17045,7 @@
         <v>73</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>74</v>
@@ -17044,12 +17066,12 @@
         <v>73</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17072,18 +17094,18 @@
         <v>83</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M140" s="2"/>
-      <c r="N140" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>73</v>
       </c>
@@ -17131,7 +17153,7 @@
         <v>73</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>74</v>
@@ -17152,12 +17174,12 @@
         <v>73</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17180,17 +17202,17 @@
         <v>83</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>73</v>
@@ -17239,7 +17261,7 @@
         <v>73</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>74</v>
@@ -17260,12 +17282,12 @@
         <v>73</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17288,19 +17310,17 @@
         <v>83</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>336</v>
+        <v>188</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>73</v>
@@ -17349,7 +17369,7 @@
         <v>73</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>74</v>
@@ -17370,12 +17390,12 @@
         <v>73</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17398,19 +17418,19 @@
         <v>83</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>73</v>
@@ -17459,7 +17479,7 @@
         <v>73</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>74</v>
@@ -17480,12 +17500,12 @@
         <v>73</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17493,7 +17513,7 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F144" t="s" s="2">
         <v>82</v>
@@ -17508,16 +17528,20 @@
         <v>83</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>507</v>
+        <v>188</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>508</v>
+        <v>343</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O144" t="s" s="2">
         <v>73</v>
       </c>
@@ -17565,7 +17589,7 @@
         <v>73</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>506</v>
+        <v>347</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>74</v>
@@ -17586,12 +17610,12 @@
         <v>73</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>73</v>
+        <v>348</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17599,10 +17623,10 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>73</v>
@@ -17614,13 +17638,13 @@
         <v>83</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>170</v>
+        <v>513</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -17671,13 +17695,13 @@
         <v>73</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>73</v>
@@ -17697,7 +17721,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17720,13 +17744,13 @@
         <v>83</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -17777,7 +17801,7 @@
         <v>73</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>74</v>
@@ -17792,7 +17816,7 @@
         <v>94</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>516</v>
+        <v>73</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>73</v>
@@ -17803,7 +17827,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17826,13 +17850,13 @@
         <v>83</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -17883,7 +17907,7 @@
         <v>73</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>74</v>
@@ -17895,10 +17919,10 @@
         <v>73</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>73</v>
@@ -17909,7 +17933,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -17920,7 +17944,7 @@
         <v>74</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>73</v>
@@ -17929,16 +17953,16 @@
         <v>73</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>151</v>
+        <v>526</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>152</v>
+        <v>527</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -17989,44 +18013,44 @@
         <v>73</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>153</v>
+        <v>525</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>73</v>
+        <v>528</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>73</v>
@@ -18038,17 +18062,15 @@
         <v>73</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M149" s="2"/>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>73</v>
@@ -18097,19 +18119,19 @@
         <v>73</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>73</v>
@@ -18123,11 +18145,11 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>288</v>
+        <v>127</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -18140,26 +18162,24 @@
         <v>73</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J150" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K150" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K150" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="L150" t="s" s="2">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
         <v>73</v>
       </c>
@@ -18207,7 +18227,7 @@
         <v>73</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>74</v>
@@ -18219,7 +18239,7 @@
         <v>73</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>73</v>
@@ -18228,44 +18248,48 @@
         <v>73</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>525</v>
+        <v>288</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O151" t="s" s="2">
         <v>73</v>
       </c>
@@ -18289,13 +18313,13 @@
         <v>73</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>527</v>
+        <v>73</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>528</v>
+        <v>73</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>73</v>
@@ -18313,33 +18337,33 @@
         <v>73</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>524</v>
+        <v>290</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>529</v>
+        <v>73</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18347,7 +18371,7 @@
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F152" t="s" s="2">
         <v>82</v>
@@ -18362,13 +18386,13 @@
         <v>83</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>531</v>
+        <v>170</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -18395,13 +18419,13 @@
         <v>73</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>73</v>
+        <v>535</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>73</v>
+        <v>536</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>73</v>
@@ -18419,10 +18443,10 @@
         <v>73</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>82</v>
@@ -18434,7 +18458,7 @@
         <v>94</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>73</v>
@@ -18445,7 +18469,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18456,7 +18480,7 @@
         <v>74</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>73</v>
@@ -18468,13 +18492,13 @@
         <v>83</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>280</v>
+        <v>539</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -18525,22 +18549,22 @@
         <v>73</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>73</v>
@@ -18551,7 +18575,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18562,7 +18586,7 @@
         <v>74</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>73</v>
@@ -18571,16 +18595,16 @@
         <v>73</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>151</v>
+        <v>544</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>152</v>
+        <v>545</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -18631,44 +18655,44 @@
         <v>73</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>153</v>
+        <v>543</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>73</v>
+        <v>546</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>73</v>
@@ -18680,17 +18704,15 @@
         <v>73</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M155" s="2"/>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>73</v>
@@ -18739,19 +18761,19 @@
         <v>73</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>73</v>
@@ -18765,11 +18787,11 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>288</v>
+        <v>127</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -18782,26 +18804,24 @@
         <v>73</v>
       </c>
       <c r="H156" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J156" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K156" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K156" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="L156" t="s" s="2">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
         <v>73</v>
       </c>
@@ -18849,7 +18869,7 @@
         <v>73</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>74</v>
@@ -18861,7 +18881,7 @@
         <v>73</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>73</v>
@@ -18870,44 +18890,48 @@
         <v>73</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>543</v>
+        <v>128</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>544</v>
+        <v>288</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N157" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O157" t="s" s="2">
         <v>73</v>
       </c>
@@ -18955,33 +18979,33 @@
         <v>73</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>542</v>
+        <v>290</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>546</v>
+        <v>73</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -18989,7 +19013,7 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F158" t="s" s="2">
         <v>82</v>
@@ -19004,13 +19028,13 @@
         <v>83</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>232</v>
+        <v>551</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -19061,10 +19085,10 @@
         <v>73</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>82</v>
@@ -19076,7 +19100,7 @@
         <v>94</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>73</v>
@@ -19087,7 +19111,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19098,7 +19122,7 @@
         <v>74</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>73</v>
@@ -19110,13 +19134,13 @@
         <v>83</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -19167,13 +19191,13 @@
         <v>73</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>73</v>
@@ -19182,12 +19206,118 @@
         <v>94</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="AK159" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL159" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M160" s="2"/>
+      <c r="N160" s="2"/>
+      <c r="O160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P160" s="2"/>
+      <c r="Q160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI160" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ160" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AK160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL160" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5453" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5420" uniqueCount="555">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLPackagedProductDefinition</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:25:53+00:00</t>
+    <t>2022-11-16T21:11:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -277,7 +277,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -367,7 +367,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -390,13 +390,17 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
   </si>
   <si>
     <t>N/A</t>
@@ -439,7 +443,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -468,9 +472,6 @@
     <t>Packaged Medicinal Product.PCID</t>
   </si>
   <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>pcid</t>
   </si>
   <si>
@@ -529,7 +530,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.3.0</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -572,7 +573,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -606,7 +607,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/2021Mar/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -689,14 +690,14 @@
     <t>PackagedProductDefinition.packageFor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition)
 </t>
   </si>
   <si>
     <t>The product that this is a pack for</t>
   </si>
   <si>
-    <t>The product this package model relates to, not the contents of the package (for which see package.containedItem).</t>
+    <t>The product that this is a pack for.</t>
   </si>
   <si>
     <t>(the link from Packaged Medicinal Product to Medicinal Product)</t>
@@ -777,7 +778,7 @@
     <t>PackagedProductDefinition.containedItemQuantity.comparator</t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; | ad - how to understand the value</t>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
   </si>
   <si>
     <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
@@ -789,7 +790,7 @@
     <t>If there is no comparator, then there is no modification of the value</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.3.0</t>
   </si>
   <si>
     <t>Quantity.comparator</t>
@@ -891,6 +892,10 @@
     <t>EMA IG 4.5. Legal status of supply on the packaged product level. The same information can be repeated/differentiated on the medicinal product level</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
+  </si>
+  <si>
     <t>Marketing Authorisation.Legal Status of Supply (for a package)</t>
   </si>
   <si>
@@ -978,7 +983,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -1169,9 +1174,6 @@
     <t>PackagedProductDefinition.marketingStatus.modifierExtension</t>
   </si>
   <si>
-    <t>BackboneType.modifierExtension</t>
-  </si>
-  <si>
     <t>PackagedProductDefinition.marketingStatus.country</t>
   </si>
   <si>
@@ -1313,10 +1315,10 @@
     <t>PackagedProductDefinition.copackagedIndicator</t>
   </si>
   <si>
-    <t>Identifies if the drug product is supplied with another item such as a diluent or adjuvant</t>
-  </si>
-  <si>
-    <t>Identifies if the package contains different items, such as when a drug product is supplied with another item e.g. a diluent or adjuvant.</t>
+    <t>If the drug product is supplied with another item such as a diluent or adjuvant</t>
+  </si>
+  <si>
+    <t>States whether a drug product is supplied with another item such as a diluent or adjuvant.</t>
   </si>
   <si>
     <t>If this value is not present, there is no statement being made about whether this is co-packaged or not. No inference can be made</t>
@@ -1334,20 +1336,7 @@
     <t>Packaged Medicinal Product.Manufacturer / Establishment (Organisation)</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.attachedDocument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(DocumentReference)
-</t>
-  </si>
-  <si>
-    <t>Additional information or supporting documentation about the packaged product</t>
-  </si>
-  <si>
-    <t>Additional information or supporting documentation about the packaged product.</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging</t>
+    <t>PackagedProductDefinition.package</t>
   </si>
   <si>
     <t>A packaging item, as a container for medically related items, possibly with other packaging items within, or a packaging component, such as bottle cap</t>
@@ -1359,28 +1348,28 @@
     <t>Packaged Medicinal Product.Package Item (Container), Package Item (Container).Package (Component)</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.identifier</t>
+    <t>PackagedProductDefinition.package.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.identifier</t>
   </si>
   <si>
     <t>An identifier that is specific to this particular part of the packaging. Including possibly a Data Carrier Identifier</t>
   </si>
   <si>
-    <t>A business identifier that is specific to this particular part of the packaging, often assigned by the manufacturer. Including possibly Data Carrier Identifier (a GS1 barcode).</t>
+    <t>An identifier that is specific to this particular part of the packaging. Including possibly Data Carrier Identifier (a GS1 barcode).</t>
   </si>
   <si>
     <t>Package Item (Container).Data Carrier Identifier</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.type</t>
+    <t>PackagedProductDefinition.package.type</t>
   </si>
   <si>
     <t>Container type</t>
@@ -1395,43 +1384,43 @@
     <t>Package Item (Container).Package Item (Container) Type</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.type.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.coding.system</t>
+    <t>PackagedProductDefinition.package.type.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.coding</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.coding.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.coding.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.coding.system</t>
   </si>
   <si>
     <t>http://spor.ema.europa.eu/v1/lists/100000073346</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.type.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.text</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.quantity</t>
+    <t>PackagedProductDefinition.package.type.coding.version</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.coding.code</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.coding.display</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.text</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.quantity</t>
   </si>
   <si>
     <t xml:space="preserve">integer
@@ -1447,7 +1436,7 @@
     <t>Package Item (Container).Package Item (Container) Quantity</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.material</t>
+    <t>PackagedProductDefinition.package.material</t>
   </si>
   <si>
     <t>Material type of the package item</t>
@@ -1465,43 +1454,43 @@
     <t>Package Item (Container).Material</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.material.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.coding.system</t>
+    <t>PackagedProductDefinition.package.material.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.coding</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.coding.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.coding.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.coding.system</t>
   </si>
   <si>
     <t>http://spor.ema.europa.eu/v1/lists/200000003199</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.material.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.coding.userSelected</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.text</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.alternateMaterial</t>
+    <t>PackagedProductDefinition.package.material.coding.version</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.coding.code</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.coding.display</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.coding.userSelected</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.text</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.alternateMaterial</t>
   </si>
   <si>
     <t>A possible alternate material for this part of the packaging, that is allowed to be used instead of the usual material</t>
@@ -1513,11 +1502,7 @@
     <t>Package Item (Container).Alternate Material</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProductShelfLife
-</t>
+    <t>PackagedProductDefinition.package.shelfLifeStorage</t>
   </si>
   <si>
     <t>Shelf Life and storage information</t>
@@ -1529,16 +1514,16 @@
     <t>Package Item (Container).Shelf Life / Storage</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type</t>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type</t>
   </si>
   <si>
     <t>This describes the shelf life, taking into account various scenarios such as shelf life of the packaged Medicinal Product itself, shelf life after transformation where necessary and shelf life after the first opening of a bottle, etc. The shelf life type shall be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified</t>
@@ -1547,46 +1532,43 @@
     <t>This describes the shelf life, taking into account various scenarios such as shelf life of the packaged Medicinal Product itself, shelf life after transformation where necessary and shelf life after the first opening of a bottle, etc. The shelf life type shall be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified.</t>
   </si>
   <si>
-    <t>ProductShelfLife.type</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.system</t>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.system</t>
   </si>
   <si>
     <t>http://spor.ema.europa.eu/v1/lists/100000073343</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.text</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.period[x]</t>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.version</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.code</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.display</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.text</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.period[x]</t>
   </si>
   <si>
     <t>Duration
@@ -1599,34 +1581,28 @@
     <t>The shelf life time period can be specified using a numerical value for the period of time and its unit of time measurement The unit of measurement shall be specified in accordance with ISO 11240 and the resulting terminology The symbol and the symbol identifier shall be used.</t>
   </si>
   <si>
-    <t>ProductShelfLife.period[x]</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.specialPrecautionsForStorage</t>
-  </si>
-  <si>
-    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified</t>
-  </si>
-  <si>
-    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified.</t>
-  </si>
-  <si>
-    <t>ProductShelfLife.specialPrecautionsForStorage</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.manufacturer</t>
-  </si>
-  <si>
-    <t>Manufacturer of this packaging item (multiple means these are all potential manufacturers)</t>
-  </si>
-  <si>
-    <t>Manufacturer of this packaging item. When there are multiple values each one is a potential manufacturer of this packaging item.</t>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.specialPrecautionsForStorage</t>
+  </si>
+  <si>
+    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary. The controlled term and the controlled term identifier shall be specified</t>
+  </si>
+  <si>
+    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary. The controlled term and the controlled term identifier shall be specified.</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.manufacturer</t>
+  </si>
+  <si>
+    <t>Manufacturer of this package Item (multiple means these are all possible manufacturers)</t>
+  </si>
+  <si>
+    <t>Manufacturer of this package Item. When there are multiple it means these are all possible manufacturers.</t>
   </si>
   <si>
     <t>Package Item (Container).Manufacturer / Establishment (Organisation)</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.property</t>
+    <t>PackagedProductDefinition.package.property</t>
   </si>
   <si>
     <t>General characteristics of this item</t>
@@ -1638,16 +1614,16 @@
     <t>Package Item (Container).Physical Characteristics</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.property.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.property.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.property.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.property.type</t>
+    <t>PackagedProductDefinition.package.property.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.property.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.property.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.property.type</t>
   </si>
   <si>
     <t>A code expressing the type of characteristic</t>
@@ -1665,7 +1641,7 @@
     <t>Physical Characteristics, all attributes</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.property.value[x]</t>
+    <t>PackagedProductDefinition.package.property.value[x]</t>
   </si>
   <si>
     <t>CodeableConcept
@@ -1681,7 +1657,7 @@
     <t>Physical Characteristics, attribute's value</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.containedItem</t>
+    <t>PackagedProductDefinition.package.containedItem</t>
   </si>
   <si>
     <t>An item (inner package or manufactured item) within the packaging</t>
@@ -1693,32 +1669,32 @@
     <t>Package Item (Container).Manufactured Item, Package Item (Container).Device</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.containedItem.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.containedItem.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.containedItem.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.containedItem.item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableReference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLPackagedProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition)
+    <t>PackagedProductDefinition.package.containedItem.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.containedItem.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.containedItem.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.containedItem.item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableReference(http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>
     <t>The actual item(s) of medication, as manufactured, or a device, or other medically related item (food, biologicals, raw materials, medical fluids, gases etc.), as contained in the package</t>
   </si>
   <si>
-    <t>The actual item(s) of medication, as manufactured, or a device (typically, but not necessarily, a co-packaged one), or other medically related item (such as food, biologicals, raw materials, medical fluids, gases etc.), as contained in the package. This also allows another whole packaged product to be included, which is solely for the case where a package of other entire packages is wanted - such as a wholesale or distribution pack (for layers within one package, use PackagedProductDefinition.packaging.packaging).</t>
+    <t>The actual item(s) of medication, as manufactured, or a device (typically, but not necessarily, a co-packaged one), or other medically related item (such as food, biologicals, raw materials, medical fluids, gases etc.), as contained in the package. This also allows another whole packaged product to be included, which is solely for the case where a package of other entire packages is wanted - such as a wholesale or distribution pack (for layers within one package, use PackagedProductDefinition.package.package).</t>
   </si>
   <si>
     <t>(the link to) Package Item (Container).Manufactured Item, Package Item (Container).Device</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.containedItem.amount</t>
+    <t>PackagedProductDefinition.package.containedItem.amount</t>
   </si>
   <si>
     <t>Number of the manufactured items (e.g. tablets) in this package layer or the amount of manufactured item (e.g. 20 g) in the unit of presentation defined in manufactured item definition</t>
@@ -1730,13 +1706,13 @@
     <t>Manufactured Item.Manufactured Item Quantity</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.packaging</t>
+    <t>PackagedProductDefinition.package.package</t>
   </si>
   <si>
     <t>Allows containers (and parts of containers) within containers, still a single packaged product</t>
   </si>
   <si>
-    <t>Allows containers (and parts of containers) parwithin containers, still a single packaged product.  See also PackagedProductDefinition.packaging.containedItem.item(PackagedProductDefinition).</t>
+    <t>Allows containers (and parts of containers) parwithin containers, still a single packaged product.  See also PackagedProductDefinition.package.containedItem.item(PackagedProductDefinition).</t>
   </si>
   <si>
     <t>(link from Package Item (Container) to itself)</t>
@@ -2036,7 +2012,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL160"/>
+  <dimension ref="A1:AL159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2045,7 +2021,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="79.18359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="77.4765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2069,13 +2045,13 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.09765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.30078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.50390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="57.40234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="77.4765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -2941,7 +2917,7 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>73</v>
@@ -2950,16 +2926,16 @@
         <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2978,16 +2954,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3037,7 +3013,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -3049,7 +3025,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -3058,16 +3034,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3083,22 +3059,22 @@
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -3147,7 +3123,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -3159,7 +3135,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -3168,12 +3144,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3196,13 +3172,13 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3241,17 +3217,17 @@
         <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -3266,10 +3242,10 @@
         <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -3277,7 +3253,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>147</v>
@@ -3302,7 +3278,7 @@
         <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>148</v>
@@ -3359,7 +3335,7 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
@@ -3374,10 +3350,10 @@
         <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>73</v>
@@ -3495,7 +3471,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3514,16 +3490,16 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3570,7 +3546,7 @@
         <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>159</v>
@@ -3585,7 +3561,7 @@
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
@@ -4993,7 +4969,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5012,16 +4988,16 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5068,7 +5044,7 @@
         <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>159</v>
@@ -5083,7 +5059,7 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -5839,10 +5815,10 @@
         <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>94</v>
+        <v>283</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>73</v>
@@ -5853,7 +5829,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5959,11 +5935,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5982,16 +5958,16 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6053,7 +6029,7 @@
         <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -6067,11 +6043,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6090,19 +6066,19 @@
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>73</v>
@@ -6151,7 +6127,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -6163,7 +6139,7 @@
         <v>73</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>73</v>
@@ -6172,12 +6148,12 @@
         <v>73</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6203,10 +6179,10 @@
         <v>170</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6236,10 +6212,10 @@
         <v>214</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>73</v>
@@ -6257,7 +6233,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -6272,7 +6248,7 @@
         <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>73</v>
@@ -6283,7 +6259,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6389,11 +6365,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6412,16 +6388,16 @@
         <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6468,7 +6444,7 @@
         <v>73</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>159</v>
@@ -6483,7 +6459,7 @@
         <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>73</v>
@@ -6497,7 +6473,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6520,19 +6496,19 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>73</v>
@@ -6581,7 +6557,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6602,12 +6578,12 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6713,11 +6689,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6736,16 +6712,16 @@
         <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6792,7 +6768,7 @@
         <v>73</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>159</v>
@@ -6807,7 +6783,7 @@
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>73</v>
@@ -6821,7 +6797,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6847,16 +6823,16 @@
         <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>73</v>
@@ -6866,7 +6842,7 @@
         <v>73</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>73</v>
@@ -6905,7 +6881,7 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -6926,12 +6902,12 @@
         <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6957,13 +6933,13 @@
         <v>188</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7013,7 +6989,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -7034,12 +7010,12 @@
         <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7065,14 +7041,14 @@
         <v>102</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>73</v>
@@ -7121,7 +7097,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -7142,12 +7118,12 @@
         <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7173,14 +7149,14 @@
         <v>188</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>73</v>
@@ -7229,7 +7205,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -7250,12 +7226,12 @@
         <v>73</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7278,19 +7254,19 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>73</v>
@@ -7339,7 +7315,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -7360,12 +7336,12 @@
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7391,16 +7367,16 @@
         <v>188</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>73</v>
@@ -7449,7 +7425,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -7470,12 +7446,12 @@
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7501,10 +7477,10 @@
         <v>170</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7534,10 +7510,10 @@
         <v>214</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>73</v>
@@ -7555,7 +7531,7 @@
         <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
@@ -7581,7 +7557,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7687,11 +7663,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7710,16 +7686,16 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7766,7 +7742,7 @@
         <v>73</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>159</v>
@@ -7781,7 +7757,7 @@
         <v>73</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>73</v>
@@ -7795,7 +7771,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7818,19 +7794,19 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>73</v>
@@ -7879,7 +7855,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7900,12 +7876,12 @@
         <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8011,11 +7987,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8034,16 +8010,16 @@
         <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8090,7 +8066,7 @@
         <v>73</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>159</v>
@@ -8105,7 +8081,7 @@
         <v>73</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>73</v>
@@ -8119,7 +8095,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8145,16 +8121,16 @@
         <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
@@ -8164,7 +8140,7 @@
         <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>73</v>
@@ -8203,7 +8179,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -8224,12 +8200,12 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8255,13 +8231,13 @@
         <v>188</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8311,7 +8287,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -8332,12 +8308,12 @@
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8363,14 +8339,14 @@
         <v>102</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>73</v>
@@ -8419,7 +8395,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -8440,12 +8416,12 @@
         <v>73</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8471,14 +8447,14 @@
         <v>188</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>73</v>
@@ -8527,7 +8503,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -8548,12 +8524,12 @@
         <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8576,19 +8552,19 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>73</v>
@@ -8637,7 +8613,7 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8658,12 +8634,12 @@
         <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8689,16 +8665,16 @@
         <v>188</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>73</v>
@@ -8747,7 +8723,7 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -8768,12 +8744,12 @@
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8796,13 +8772,13 @@
         <v>83</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8853,7 +8829,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8868,7 +8844,7 @@
         <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>73</v>
@@ -8879,7 +8855,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8985,11 +8961,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9008,16 +8984,16 @@
         <v>73</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9064,7 +9040,7 @@
         <v>73</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE65" t="s" s="2">
         <v>159</v>
@@ -9079,7 +9055,7 @@
         <v>73</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>73</v>
@@ -9093,11 +9069,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9116,19 +9092,19 @@
         <v>83</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>73</v>
@@ -9177,7 +9153,7 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>374</v>
+        <v>291</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -9189,7 +9165,7 @@
         <v>73</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>73</v>
@@ -9198,7 +9174,7 @@
         <v>73</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67">
@@ -9419,7 +9395,7 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9438,16 +9414,16 @@
         <v>73</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9494,7 +9470,7 @@
         <v>73</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE69" t="s" s="2">
         <v>159</v>
@@ -9509,7 +9485,7 @@
         <v>73</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>73</v>
@@ -9546,19 +9522,19 @@
         <v>83</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>73</v>
@@ -9607,7 +9583,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9628,7 +9604,7 @@
         <v>73</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71">
@@ -9743,7 +9719,7 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9762,16 +9738,16 @@
         <v>73</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9818,7 +9794,7 @@
         <v>73</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE72" t="s" s="2">
         <v>159</v>
@@ -9833,7 +9809,7 @@
         <v>73</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>73</v>
@@ -9873,16 +9849,16 @@
         <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>73</v>
@@ -9892,7 +9868,7 @@
         <v>73</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>73</v>
@@ -9931,7 +9907,7 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -9952,7 +9928,7 @@
         <v>73</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74">
@@ -9983,13 +9959,13 @@
         <v>188</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10039,7 +10015,7 @@
         <v>73</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
@@ -10060,7 +10036,7 @@
         <v>73</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75">
@@ -10091,14 +10067,14 @@
         <v>102</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>73</v>
@@ -10147,7 +10123,7 @@
         <v>73</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -10168,7 +10144,7 @@
         <v>73</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76">
@@ -10199,14 +10175,14 @@
         <v>188</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>73</v>
@@ -10255,7 +10231,7 @@
         <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -10276,7 +10252,7 @@
         <v>73</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="77">
@@ -10304,19 +10280,19 @@
         <v>83</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>73</v>
@@ -10365,7 +10341,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10386,7 +10362,7 @@
         <v>73</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78">
@@ -10417,16 +10393,16 @@
         <v>188</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>73</v>
@@ -10475,7 +10451,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10496,7 +10472,7 @@
         <v>73</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="79">
@@ -10823,7 +10799,7 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10842,16 +10818,16 @@
         <v>73</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10898,7 +10874,7 @@
         <v>73</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>159</v>
@@ -10913,7 +10889,7 @@
         <v>73</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>73</v>
@@ -10950,19 +10926,19 @@
         <v>83</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>73</v>
@@ -11011,7 +10987,7 @@
         <v>73</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
@@ -11032,7 +11008,7 @@
         <v>73</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84">
@@ -11147,7 +11123,7 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11166,16 +11142,16 @@
         <v>73</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11222,7 +11198,7 @@
         <v>73</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE85" t="s" s="2">
         <v>159</v>
@@ -11237,7 +11213,7 @@
         <v>73</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>73</v>
@@ -11277,16 +11253,16 @@
         <v>96</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>73</v>
@@ -11335,7 +11311,7 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -11356,7 +11332,7 @@
         <v>73</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87">
@@ -11387,13 +11363,13 @@
         <v>188</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11443,7 +11419,7 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -11464,7 +11440,7 @@
         <v>73</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88">
@@ -11495,14 +11471,14 @@
         <v>102</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>73</v>
@@ -11551,7 +11527,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -11572,7 +11548,7 @@
         <v>73</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="89">
@@ -11603,14 +11579,14 @@
         <v>188</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>73</v>
@@ -11659,7 +11635,7 @@
         <v>73</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -11680,7 +11656,7 @@
         <v>73</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="90">
@@ -11708,19 +11684,19 @@
         <v>83</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>73</v>
@@ -11769,7 +11745,7 @@
         <v>73</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>74</v>
@@ -11790,7 +11766,7 @@
         <v>73</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="91">
@@ -11821,16 +11797,16 @@
         <v>188</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>73</v>
@@ -11879,7 +11855,7 @@
         <v>73</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
@@ -11900,7 +11876,7 @@
         <v>73</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="92">
@@ -12246,7 +12222,7 @@
         <v>83</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>422</v>
@@ -12445,10 +12421,10 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>73</v>
@@ -12460,13 +12436,13 @@
         <v>83</v>
       </c>
       <c r="J97" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K97" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="K97" t="s" s="2">
+      <c r="L97" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12523,16 +12499,16 @@
         <v>74</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>94</v>
+        <v>283</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>154</v>
+        <v>432</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>73</v>
@@ -12551,7 +12527,7 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>82</v>
@@ -12563,16 +12539,16 @@
         <v>73</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>434</v>
+        <v>151</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>435</v>
+        <v>152</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12623,7 +12599,7 @@
         <v>73</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>433</v>
+        <v>153</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -12635,32 +12611,32 @@
         <v>73</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>436</v>
+        <v>73</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>73</v>
@@ -12672,15 +12648,17 @@
         <v>73</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>73</v>
@@ -12729,19 +12707,19 @@
         <v>73</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>73</v>
@@ -12755,11 +12733,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12772,24 +12750,26 @@
         <v>73</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>129</v>
+        <v>289</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>73</v>
       </c>
@@ -12837,7 +12817,7 @@
         <v>73</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
@@ -12849,7 +12829,7 @@
         <v>73</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>73</v>
@@ -12858,16 +12838,16 @@
         <v>73</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12880,26 +12860,22 @@
         <v>73</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>288</v>
+        <v>437</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>73</v>
       </c>
@@ -12947,7 +12923,7 @@
         <v>73</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>290</v>
+        <v>436</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -12959,16 +12935,16 @@
         <v>73</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>73</v>
+        <v>439</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102">
@@ -12981,10 +12957,10 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>73</v>
@@ -12996,7 +12972,7 @@
         <v>83</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>441</v>
@@ -13029,13 +13005,13 @@
         <v>73</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>73</v>
+        <v>443</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>73</v>
@@ -13059,7 +13035,7 @@
         <v>74</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>73</v>
@@ -13068,7 +13044,7 @@
         <v>94</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>73</v>
@@ -13079,7 +13055,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13087,7 +13063,7 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>82</v>
@@ -13099,16 +13075,16 @@
         <v>73</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>445</v>
+        <v>151</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>446</v>
+        <v>152</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13135,13 +13111,13 @@
         <v>73</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>447</v>
+        <v>73</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>73</v>
@@ -13159,7 +13135,7 @@
         <v>73</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>444</v>
+        <v>153</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
@@ -13171,32 +13147,32 @@
         <v>73</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>448</v>
+        <v>73</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>73</v>
@@ -13208,15 +13184,17 @@
         <v>73</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M104" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>73</v>
@@ -13253,31 +13231,31 @@
         <v>73</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>73</v>
@@ -13291,11 +13269,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13311,21 +13289,23 @@
         <v>73</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>128</v>
+        <v>300</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>129</v>
+        <v>301</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>156</v>
+        <v>302</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>73</v>
       </c>
@@ -13361,19 +13341,19 @@
         <v>73</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>159</v>
+        <v>305</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
@@ -13385,7 +13365,7 @@
         <v>73</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>73</v>
@@ -13394,12 +13374,12 @@
         <v>73</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>154</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13410,7 +13390,7 @@
         <v>74</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>73</v>
@@ -13419,23 +13399,19 @@
         <v>73</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>299</v>
+        <v>84</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>73</v>
       </c>
@@ -13483,19 +13459,19 @@
         <v>73</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>304</v>
+        <v>153</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>73</v>
@@ -13504,23 +13480,23 @@
         <v>73</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>305</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>73</v>
@@ -13532,15 +13508,17 @@
         <v>73</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M107" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>73</v>
@@ -13577,31 +13555,31 @@
         <v>73</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>73</v>
@@ -13615,18 +13593,18 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>73</v>
@@ -13635,21 +13613,23 @@
         <v>73</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>156</v>
+        <v>311</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O108" t="s" s="2">
         <v>73</v>
       </c>
@@ -13658,7 +13638,7 @@
         <v>73</v>
       </c>
       <c r="R108" t="s" s="2">
-        <v>73</v>
+        <v>451</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>73</v>
@@ -13685,31 +13665,31 @@
         <v>73</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>159</v>
+        <v>315</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>73</v>
@@ -13718,12 +13698,12 @@
         <v>73</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>154</v>
+        <v>316</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13746,20 +13726,18 @@
         <v>83</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>73</v>
       </c>
@@ -13768,7 +13746,7 @@
         <v>73</v>
       </c>
       <c r="R109" t="s" s="2">
-        <v>455</v>
+        <v>73</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>73</v>
@@ -13807,7 +13785,7 @@
         <v>73</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
@@ -13828,12 +13806,12 @@
         <v>73</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13856,18 +13834,18 @@
         <v>83</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>73</v>
       </c>
@@ -13915,7 +13893,7 @@
         <v>73</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -13936,12 +13914,12 @@
         <v>73</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13964,17 +13942,17 @@
         <v>83</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>73</v>
@@ -14023,7 +14001,7 @@
         <v>73</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
@@ -14044,12 +14022,12 @@
         <v>73</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14072,17 +14050,19 @@
         <v>83</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>188</v>
+        <v>336</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M112" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N112" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>73</v>
@@ -14131,7 +14111,7 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>74</v>
@@ -14152,12 +14132,12 @@
         <v>73</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14180,19 +14160,19 @@
         <v>83</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>335</v>
+        <v>188</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>73</v>
@@ -14241,7 +14221,7 @@
         <v>73</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>74</v>
@@ -14262,12 +14242,12 @@
         <v>73</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14275,7 +14255,7 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F114" t="s" s="2">
         <v>82</v>
@@ -14290,20 +14270,16 @@
         <v>83</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>188</v>
+        <v>458</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>343</v>
+        <v>459</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>73</v>
       </c>
@@ -14351,7 +14327,7 @@
         <v>73</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>347</v>
+        <v>457</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>74</v>
@@ -14366,18 +14342,18 @@
         <v>94</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>73</v>
+        <v>461</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>348</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14385,10 +14361,10 @@
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>73</v>
@@ -14400,7 +14376,7 @@
         <v>83</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>462</v>
+        <v>170</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>463</v>
@@ -14433,13 +14409,13 @@
         <v>73</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>73</v>
+        <v>465</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>73</v>
+        <v>466</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>73</v>
@@ -14457,13 +14433,13 @@
         <v>73</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>73</v>
@@ -14472,7 +14448,7 @@
         <v>94</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>73</v>
@@ -14483,7 +14459,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14494,7 +14470,7 @@
         <v>74</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>73</v>
@@ -14503,16 +14479,16 @@
         <v>73</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>467</v>
+        <v>151</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>468</v>
+        <v>152</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14539,13 +14515,13 @@
         <v>73</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>469</v>
+        <v>73</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>470</v>
+        <v>73</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>73</v>
@@ -14563,44 +14539,44 @@
         <v>73</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>466</v>
+        <v>153</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>471</v>
+        <v>73</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>73</v>
@@ -14612,15 +14588,17 @@
         <v>73</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M117" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>73</v>
@@ -14657,31 +14635,31 @@
         <v>73</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>73</v>
@@ -14695,11 +14673,11 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -14715,21 +14693,23 @@
         <v>73</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>128</v>
+        <v>300</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>129</v>
+        <v>301</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>156</v>
+        <v>302</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N118" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O118" t="s" s="2">
         <v>73</v>
       </c>
@@ -14765,19 +14745,19 @@
         <v>73</v>
       </c>
       <c r="AA118" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC118" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD118" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>159</v>
+        <v>305</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -14789,7 +14769,7 @@
         <v>73</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>73</v>
@@ -14798,12 +14778,12 @@
         <v>73</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>154</v>
+        <v>306</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14814,7 +14794,7 @@
         <v>74</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>73</v>
@@ -14823,23 +14803,19 @@
         <v>73</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>299</v>
+        <v>84</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>73</v>
       </c>
@@ -14887,19 +14863,19 @@
         <v>73</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>304</v>
+        <v>153</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>73</v>
@@ -14908,23 +14884,23 @@
         <v>73</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>305</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>73</v>
@@ -14936,15 +14912,17 @@
         <v>73</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M120" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>73</v>
@@ -14981,31 +14959,31 @@
         <v>73</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>73</v>
@@ -15019,18 +14997,18 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>73</v>
@@ -15039,21 +15017,23 @@
         <v>73</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>156</v>
+        <v>311</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N121" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O121" t="s" s="2">
         <v>73</v>
       </c>
@@ -15062,7 +15042,7 @@
         <v>73</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>73</v>
+        <v>474</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>73</v>
@@ -15089,31 +15069,31 @@
         <v>73</v>
       </c>
       <c r="AA121" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD121" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>159</v>
+        <v>315</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>73</v>
@@ -15122,12 +15102,12 @@
         <v>73</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>154</v>
+        <v>316</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15150,20 +15130,18 @@
         <v>83</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>73</v>
       </c>
@@ -15172,7 +15150,7 @@
         <v>73</v>
       </c>
       <c r="R122" t="s" s="2">
-        <v>478</v>
+        <v>73</v>
       </c>
       <c r="S122" t="s" s="2">
         <v>73</v>
@@ -15211,7 +15189,7 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
@@ -15232,12 +15210,12 @@
         <v>73</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15260,18 +15238,18 @@
         <v>83</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N123" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M123" s="2"/>
+      <c r="N123" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O123" t="s" s="2">
         <v>73</v>
       </c>
@@ -15319,7 +15297,7 @@
         <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
@@ -15340,12 +15318,12 @@
         <v>73</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15368,17 +15346,17 @@
         <v>83</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>73</v>
@@ -15427,7 +15405,7 @@
         <v>73</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -15448,12 +15426,12 @@
         <v>73</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15476,17 +15454,19 @@
         <v>83</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>188</v>
+        <v>336</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M125" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N125" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>73</v>
@@ -15535,7 +15515,7 @@
         <v>73</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
@@ -15556,12 +15536,12 @@
         <v>73</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15584,19 +15564,19 @@
         <v>83</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>335</v>
+        <v>188</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>73</v>
@@ -15645,7 +15625,7 @@
         <v>73</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>74</v>
@@ -15666,12 +15646,12 @@
         <v>73</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15682,7 +15662,7 @@
         <v>74</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>73</v>
@@ -15694,20 +15674,16 @@
         <v>83</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>343</v>
+        <v>481</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>73</v>
       </c>
@@ -15731,13 +15707,13 @@
         <v>73</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>73</v>
+        <v>465</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>73</v>
+        <v>466</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>73</v>
@@ -15755,13 +15731,13 @@
         <v>73</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>347</v>
+        <v>480</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>73</v>
@@ -15770,13 +15746,13 @@
         <v>94</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>73</v>
+        <v>483</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>348</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128">
@@ -15804,7 +15780,7 @@
         <v>83</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="K128" t="s" s="2">
         <v>485</v>
@@ -15837,13 +15813,13 @@
         <v>73</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>469</v>
+        <v>73</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>470</v>
+        <v>73</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>73</v>
@@ -15873,7 +15849,7 @@
         <v>73</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>94</v>
+        <v>283</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>487</v>
@@ -15898,7 +15874,7 @@
         <v>74</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>73</v>
@@ -15907,16 +15883,16 @@
         <v>73</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>489</v>
+        <v>188</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>490</v>
+        <v>151</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>491</v>
+        <v>152</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -15967,44 +15943,44 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>488</v>
+        <v>153</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>492</v>
+        <v>73</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>73</v>
@@ -16016,15 +15992,17 @@
         <v>73</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M130" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
         <v>73</v>
@@ -16073,19 +16051,19 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>73</v>
@@ -16099,11 +16077,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16116,24 +16094,26 @@
         <v>73</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>129</v>
+        <v>289</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N131" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O131" t="s" s="2">
         <v>73</v>
       </c>
@@ -16169,19 +16149,19 @@
         <v>73</v>
       </c>
       <c r="AA131" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB131" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD131" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -16193,7 +16173,7 @@
         <v>73</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>73</v>
@@ -16202,48 +16182,44 @@
         <v>73</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I132" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>288</v>
+        <v>492</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>73</v>
       </c>
@@ -16291,19 +16267,19 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>374</v>
+        <v>491</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>73</v>
@@ -16312,12 +16288,12 @@
         <v>73</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16325,7 +16301,7 @@
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F133" t="s" s="2">
         <v>82</v>
@@ -16337,16 +16313,16 @@
         <v>73</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>497</v>
+        <v>151</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>498</v>
+        <v>152</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -16397,7 +16373,7 @@
         <v>73</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>499</v>
+        <v>153</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>74</v>
@@ -16409,7 +16385,7 @@
         <v>73</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>73</v>
@@ -16418,23 +16394,23 @@
         <v>73</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>73</v>
@@ -16446,15 +16422,17 @@
         <v>73</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M134" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>73</v>
@@ -16491,31 +16469,31 @@
         <v>73</v>
       </c>
       <c r="AA134" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC134" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD134" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>73</v>
@@ -16529,11 +16507,11 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -16549,21 +16527,23 @@
         <v>73</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>128</v>
+        <v>300</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>129</v>
+        <v>301</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>156</v>
+        <v>302</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N135" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O135" t="s" s="2">
         <v>73</v>
       </c>
@@ -16599,19 +16579,19 @@
         <v>73</v>
       </c>
       <c r="AA135" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB135" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD135" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>159</v>
+        <v>305</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>74</v>
@@ -16623,7 +16603,7 @@
         <v>73</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>73</v>
@@ -16632,12 +16612,12 @@
         <v>73</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>154</v>
+        <v>306</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16648,7 +16628,7 @@
         <v>74</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>73</v>
@@ -16657,23 +16637,19 @@
         <v>73</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>299</v>
+        <v>84</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>73</v>
       </c>
@@ -16721,19 +16697,19 @@
         <v>73</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>304</v>
+        <v>153</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>73</v>
@@ -16742,23 +16718,23 @@
         <v>73</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>305</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>73</v>
@@ -16770,15 +16746,17 @@
         <v>73</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M137" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
         <v>73</v>
@@ -16815,31 +16793,31 @@
         <v>73</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC137" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>73</v>
@@ -16853,18 +16831,18 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>73</v>
@@ -16873,21 +16851,23 @@
         <v>73</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>156</v>
+        <v>311</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N138" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O138" t="s" s="2">
         <v>73</v>
       </c>
@@ -16896,7 +16876,7 @@
         <v>73</v>
       </c>
       <c r="R138" t="s" s="2">
-        <v>73</v>
+        <v>500</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>73</v>
@@ -16923,31 +16903,31 @@
         <v>73</v>
       </c>
       <c r="AA138" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB138" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD138" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>159</v>
+        <v>315</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>73</v>
@@ -16956,12 +16936,12 @@
         <v>73</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>154</v>
+        <v>316</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16984,20 +16964,18 @@
         <v>83</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
         <v>73</v>
       </c>
@@ -17006,7 +16984,7 @@
         <v>73</v>
       </c>
       <c r="R139" t="s" s="2">
-        <v>506</v>
+        <v>73</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>73</v>
@@ -17045,7 +17023,7 @@
         <v>73</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>74</v>
@@ -17066,12 +17044,12 @@
         <v>73</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17094,18 +17072,18 @@
         <v>83</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N140" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M140" s="2"/>
+      <c r="N140" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O140" t="s" s="2">
         <v>73</v>
       </c>
@@ -17153,7 +17131,7 @@
         <v>73</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>74</v>
@@ -17174,12 +17152,12 @@
         <v>73</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17202,17 +17180,17 @@
         <v>83</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>73</v>
@@ -17261,7 +17239,7 @@
         <v>73</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>74</v>
@@ -17282,12 +17260,12 @@
         <v>73</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17310,17 +17288,19 @@
         <v>83</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>188</v>
+        <v>336</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M142" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N142" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>73</v>
@@ -17369,7 +17349,7 @@
         <v>73</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>74</v>
@@ -17390,12 +17370,12 @@
         <v>73</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17418,19 +17398,19 @@
         <v>83</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>335</v>
+        <v>188</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>73</v>
@@ -17479,7 +17459,7 @@
         <v>73</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>74</v>
@@ -17500,12 +17480,12 @@
         <v>73</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17513,7 +17493,7 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F144" t="s" s="2">
         <v>82</v>
@@ -17528,20 +17508,16 @@
         <v>83</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>188</v>
+        <v>507</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>343</v>
+        <v>508</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
         <v>73</v>
       </c>
@@ -17589,7 +17565,7 @@
         <v>73</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>347</v>
+        <v>506</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>74</v>
@@ -17610,12 +17586,12 @@
         <v>73</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>348</v>
+        <v>73</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17623,10 +17599,10 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>73</v>
@@ -17638,13 +17614,13 @@
         <v>83</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>513</v>
+        <v>170</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -17695,13 +17671,13 @@
         <v>73</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>73</v>
@@ -17721,7 +17697,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17744,13 +17720,13 @@
         <v>83</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -17801,7 +17777,7 @@
         <v>73</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>74</v>
@@ -17816,7 +17792,7 @@
         <v>94</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>73</v>
+        <v>516</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>73</v>
@@ -17827,7 +17803,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17850,13 +17826,13 @@
         <v>83</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>202</v>
+        <v>280</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -17907,7 +17883,7 @@
         <v>73</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>74</v>
@@ -17919,10 +17895,10 @@
         <v>73</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>94</v>
+        <v>283</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>73</v>
@@ -17933,7 +17909,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -17944,7 +17920,7 @@
         <v>74</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>73</v>
@@ -17953,16 +17929,16 @@
         <v>73</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>526</v>
+        <v>151</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>527</v>
+        <v>152</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -18013,44 +17989,44 @@
         <v>73</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>525</v>
+        <v>153</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>528</v>
+        <v>73</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>73</v>
@@ -18062,15 +18038,17 @@
         <v>73</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M149" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>73</v>
@@ -18119,19 +18097,19 @@
         <v>73</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>73</v>
@@ -18145,11 +18123,11 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -18162,24 +18140,26 @@
         <v>73</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>129</v>
+        <v>289</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N150" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N150" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O150" t="s" s="2">
         <v>73</v>
       </c>
@@ -18227,7 +18207,7 @@
         <v>73</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>74</v>
@@ -18239,7 +18219,7 @@
         <v>73</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>73</v>
@@ -18248,48 +18228,44 @@
         <v>73</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>288</v>
+        <v>525</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
         <v>73</v>
       </c>
@@ -18313,13 +18289,13 @@
         <v>73</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>73</v>
+        <v>527</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>73</v>
+        <v>528</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>73</v>
@@ -18337,33 +18313,33 @@
         <v>73</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>290</v>
+        <v>524</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>73</v>
+        <v>529</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18371,7 +18347,7 @@
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F152" t="s" s="2">
         <v>82</v>
@@ -18386,13 +18362,13 @@
         <v>83</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>170</v>
+        <v>531</v>
       </c>
       <c r="K152" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L152" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="L152" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -18419,13 +18395,13 @@
         <v>73</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>535</v>
+        <v>73</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>536</v>
+        <v>73</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>73</v>
@@ -18443,10 +18419,10 @@
         <v>73</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>82</v>
@@ -18458,7 +18434,7 @@
         <v>94</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>73</v>
@@ -18469,7 +18445,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18480,7 +18456,7 @@
         <v>74</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>73</v>
@@ -18492,13 +18468,13 @@
         <v>83</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>539</v>
+        <v>280</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -18549,22 +18525,22 @@
         <v>73</v>
       </c>
       <c r="AE153" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AF153" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI153" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AJ153" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AF153" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG153" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI153" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ153" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>73</v>
@@ -18575,7 +18551,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18586,7 +18562,7 @@
         <v>74</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>73</v>
@@ -18595,16 +18571,16 @@
         <v>73</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>544</v>
+        <v>151</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>545</v>
+        <v>152</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -18655,44 +18631,44 @@
         <v>73</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>543</v>
+        <v>153</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>546</v>
+        <v>73</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>73</v>
@@ -18704,15 +18680,17 @@
         <v>73</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M155" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>73</v>
@@ -18761,19 +18739,19 @@
         <v>73</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>73</v>
@@ -18787,11 +18765,11 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -18804,24 +18782,26 @@
         <v>73</v>
       </c>
       <c r="H156" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>129</v>
+        <v>289</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N156" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O156" t="s" s="2">
         <v>73</v>
       </c>
@@ -18869,7 +18849,7 @@
         <v>73</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>74</v>
@@ -18881,7 +18861,7 @@
         <v>73</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>73</v>
@@ -18890,48 +18870,44 @@
         <v>73</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>128</v>
+        <v>543</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>288</v>
+        <v>544</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M157" s="2"/>
+      <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
         <v>73</v>
       </c>
@@ -18979,33 +18955,33 @@
         <v>73</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>290</v>
+        <v>542</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>73</v>
+        <v>546</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19013,7 +18989,7 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F158" t="s" s="2">
         <v>82</v>
@@ -19028,13 +19004,13 @@
         <v>83</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>551</v>
+        <v>232</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -19085,10 +19061,10 @@
         <v>73</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>82</v>
@@ -19100,7 +19076,7 @@
         <v>94</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>73</v>
@@ -19111,7 +19087,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19122,7 +19098,7 @@
         <v>74</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>73</v>
@@ -19134,13 +19110,13 @@
         <v>83</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -19191,13 +19167,13 @@
         <v>73</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>73</v>
@@ -19206,118 +19182,12 @@
         <v>94</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="AK159" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B160" s="2"/>
-      <c r="C160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I160" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M160" s="2"/>
-      <c r="N160" s="2"/>
-      <c r="O160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P160" s="2"/>
-      <c r="Q160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI160" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ160" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AK160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL160" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:11:51+00:00</t>
+    <t>2022-11-16T21:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:23:11+00:00</t>
+    <t>2022-11-17T06:36:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5420" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5453" uniqueCount="563">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLPackagedProductDefinition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T06:36:33+00:00</t>
+    <t>2022-11-17T17:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -277,7 +277,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -367,7 +367,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -390,17 +390,13 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
   </si>
   <si>
     <t>N/A</t>
@@ -443,7 +439,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -472,6 +468,9 @@
     <t>Packaged Medicinal Product.PCID</t>
   </si>
   <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
     <t>pcid</t>
   </si>
   <si>
@@ -530,7 +529,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -573,7 +572,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -607,7 +606,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/2021Mar/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -690,14 +689,14 @@
     <t>PackagedProductDefinition.packageFor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition)
 </t>
   </si>
   <si>
     <t>The product that this is a pack for</t>
   </si>
   <si>
-    <t>The product that this is a pack for.</t>
+    <t>The product this package model relates to, not the contents of the package (for which see package.containedItem).</t>
   </si>
   <si>
     <t>(the link from Packaged Medicinal Product to Medicinal Product)</t>
@@ -778,7 +777,7 @@
     <t>PackagedProductDefinition.containedItemQuantity.comparator</t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+    <t>&lt; | &lt;= | &gt;= | &gt; | ad - how to understand the value</t>
   </si>
   <si>
     <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
@@ -790,7 +789,7 @@
     <t>If there is no comparator, then there is no modification of the value</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0-ballot</t>
   </si>
   <si>
     <t>Quantity.comparator</t>
@@ -892,10 +891,6 @@
     <t>EMA IG 4.5. Legal status of supply on the packaged product level. The same information can be repeated/differentiated on the medicinal product level</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
-  </si>
-  <si>
     <t>Marketing Authorisation.Legal Status of Supply (for a package)</t>
   </si>
   <si>
@@ -983,7 +978,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -1174,6 +1169,9 @@
     <t>PackagedProductDefinition.marketingStatus.modifierExtension</t>
   </si>
   <si>
+    <t>BackboneType.modifierExtension</t>
+  </si>
+  <si>
     <t>PackagedProductDefinition.marketingStatus.country</t>
   </si>
   <si>
@@ -1315,10 +1313,10 @@
     <t>PackagedProductDefinition.copackagedIndicator</t>
   </si>
   <si>
-    <t>If the drug product is supplied with another item such as a diluent or adjuvant</t>
-  </si>
-  <si>
-    <t>States whether a drug product is supplied with another item such as a diluent or adjuvant.</t>
+    <t>Identifies if the drug product is supplied with another item such as a diluent or adjuvant</t>
+  </si>
+  <si>
+    <t>Identifies if the package contains different items, such as when a drug product is supplied with another item e.g. a diluent or adjuvant.</t>
   </si>
   <si>
     <t>If this value is not present, there is no statement being made about whether this is co-packaged or not. No inference can be made</t>
@@ -1336,7 +1334,20 @@
     <t>Packaged Medicinal Product.Manufacturer / Establishment (Organisation)</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package</t>
+    <t>PackagedProductDefinition.attachedDocument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(DocumentReference)
+</t>
+  </si>
+  <si>
+    <t>Additional information or supporting documentation about the packaged product</t>
+  </si>
+  <si>
+    <t>Additional information or supporting documentation about the packaged product.</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging</t>
   </si>
   <si>
     <t>A packaging item, as a container for medically related items, possibly with other packaging items within, or a packaging component, such as bottle cap</t>
@@ -1348,28 +1359,28 @@
     <t>Packaged Medicinal Product.Package Item (Container), Package Item (Container).Package (Component)</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.identifier</t>
+    <t>PackagedProductDefinition.packaging.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.identifier</t>
   </si>
   <si>
     <t>An identifier that is specific to this particular part of the packaging. Including possibly a Data Carrier Identifier</t>
   </si>
   <si>
-    <t>An identifier that is specific to this particular part of the packaging. Including possibly Data Carrier Identifier (a GS1 barcode).</t>
+    <t>A business identifier that is specific to this particular part of the packaging, often assigned by the manufacturer. Including possibly Data Carrier Identifier (a GS1 barcode).</t>
   </si>
   <si>
     <t>Package Item (Container).Data Carrier Identifier</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.type</t>
+    <t>PackagedProductDefinition.packaging.type</t>
   </si>
   <si>
     <t>Container type</t>
@@ -1384,43 +1395,43 @@
     <t>Package Item (Container).Package Item (Container) Type</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.type.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.system</t>
+    <t>PackagedProductDefinition.packaging.type.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.coding</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.coding.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.coding.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.coding.system</t>
   </si>
   <si>
     <t>http://spor.ema.europa.eu/v1/lists/100000073346</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.type.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.text</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.quantity</t>
+    <t>PackagedProductDefinition.packaging.type.coding.version</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.coding.code</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.coding.display</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.type.text</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.quantity</t>
   </si>
   <si>
     <t xml:space="preserve">integer
@@ -1436,7 +1447,7 @@
     <t>Package Item (Container).Package Item (Container) Quantity</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.material</t>
+    <t>PackagedProductDefinition.packaging.material</t>
   </si>
   <si>
     <t>Material type of the package item</t>
@@ -1454,43 +1465,43 @@
     <t>Package Item (Container).Material</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.material.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.system</t>
+    <t>PackagedProductDefinition.packaging.material.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.coding</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.coding.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.coding.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.coding.system</t>
   </si>
   <si>
     <t>http://spor.ema.europa.eu/v1/lists/200000003199</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.material.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.userSelected</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.text</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.alternateMaterial</t>
+    <t>PackagedProductDefinition.packaging.material.coding.version</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.coding.code</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.coding.display</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.coding.userSelected</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.material.text</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.alternateMaterial</t>
   </si>
   <si>
     <t>A possible alternate material for this part of the packaging, that is allowed to be used instead of the usual material</t>
@@ -1502,7 +1513,11 @@
     <t>Package Item (Container).Alternate Material</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage</t>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProductShelfLife
+</t>
   </si>
   <si>
     <t>Shelf Life and storage information</t>
@@ -1514,16 +1529,16 @@
     <t>Package Item (Container).Shelf Life / Storage</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type</t>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type</t>
   </si>
   <si>
     <t>This describes the shelf life, taking into account various scenarios such as shelf life of the packaged Medicinal Product itself, shelf life after transformation where necessary and shelf life after the first opening of a bottle, etc. The shelf life type shall be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified</t>
@@ -1532,43 +1547,46 @@
     <t>This describes the shelf life, taking into account various scenarios such as shelf life of the packaged Medicinal Product itself, shelf life after transformation where necessary and shelf life after the first opening of a bottle, etc. The shelf life type shall be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified.</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.system</t>
+    <t>ProductShelfLife.type</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.system</t>
   </si>
   <si>
     <t>http://spor.ema.europa.eu/v1/lists/100000073343</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.type.text</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.period[x]</t>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.version</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.code</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.display</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.text</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.period[x]</t>
   </si>
   <si>
     <t>Duration
@@ -1581,28 +1599,34 @@
     <t>The shelf life time period can be specified using a numerical value for the period of time and its unit of time measurement The unit of measurement shall be specified in accordance with ISO 11240 and the resulting terminology The symbol and the symbol identifier shall be used.</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.shelfLifeStorage.specialPrecautionsForStorage</t>
-  </si>
-  <si>
-    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary. The controlled term and the controlled term identifier shall be specified</t>
-  </si>
-  <si>
-    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary. The controlled term and the controlled term identifier shall be specified.</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.manufacturer</t>
-  </si>
-  <si>
-    <t>Manufacturer of this package Item (multiple means these are all possible manufacturers)</t>
-  </si>
-  <si>
-    <t>Manufacturer of this package Item. When there are multiple it means these are all possible manufacturers.</t>
+    <t>ProductShelfLife.period[x]</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.specialPrecautionsForStorage</t>
+  </si>
+  <si>
+    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified</t>
+  </si>
+  <si>
+    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified.</t>
+  </si>
+  <si>
+    <t>ProductShelfLife.specialPrecautionsForStorage</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.manufacturer</t>
+  </si>
+  <si>
+    <t>Manufacturer of this packaging item (multiple means these are all potential manufacturers)</t>
+  </si>
+  <si>
+    <t>Manufacturer of this packaging item. When there are multiple values each one is a potential manufacturer of this packaging item.</t>
   </si>
   <si>
     <t>Package Item (Container).Manufacturer / Establishment (Organisation)</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.property</t>
+    <t>PackagedProductDefinition.packaging.property</t>
   </si>
   <si>
     <t>General characteristics of this item</t>
@@ -1614,16 +1638,16 @@
     <t>Package Item (Container).Physical Characteristics</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.property.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.property.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.property.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.property.type</t>
+    <t>PackagedProductDefinition.packaging.property.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.property.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.property.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.property.type</t>
   </si>
   <si>
     <t>A code expressing the type of characteristic</t>
@@ -1641,7 +1665,7 @@
     <t>Physical Characteristics, all attributes</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.property.value[x]</t>
+    <t>PackagedProductDefinition.packaging.property.value[x]</t>
   </si>
   <si>
     <t>CodeableConcept
@@ -1657,7 +1681,7 @@
     <t>Physical Characteristics, attribute's value</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.containedItem</t>
+    <t>PackagedProductDefinition.packaging.containedItem</t>
   </si>
   <si>
     <t>An item (inner package or manufactured item) within the packaging</t>
@@ -1669,32 +1693,32 @@
     <t>Package Item (Container).Manufactured Item, Package Item (Container).Device</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.containedItem.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.containedItem.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.containedItem.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.containedItem.item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableReference(http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
+    <t>PackagedProductDefinition.packaging.containedItem.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.containedItem.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.containedItem.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.containedItem.item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableReference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLPackagedProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>
     <t>The actual item(s) of medication, as manufactured, or a device, or other medically related item (food, biologicals, raw materials, medical fluids, gases etc.), as contained in the package</t>
   </si>
   <si>
-    <t>The actual item(s) of medication, as manufactured, or a device (typically, but not necessarily, a co-packaged one), or other medically related item (such as food, biologicals, raw materials, medical fluids, gases etc.), as contained in the package. This also allows another whole packaged product to be included, which is solely for the case where a package of other entire packages is wanted - such as a wholesale or distribution pack (for layers within one package, use PackagedProductDefinition.package.package).</t>
+    <t>The actual item(s) of medication, as manufactured, or a device (typically, but not necessarily, a co-packaged one), or other medically related item (such as food, biologicals, raw materials, medical fluids, gases etc.), as contained in the package. This also allows another whole packaged product to be included, which is solely for the case where a package of other entire packages is wanted - such as a wholesale or distribution pack (for layers within one package, use PackagedProductDefinition.packaging.packaging).</t>
   </si>
   <si>
     <t>(the link to) Package Item (Container).Manufactured Item, Package Item (Container).Device</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.containedItem.amount</t>
+    <t>PackagedProductDefinition.packaging.containedItem.amount</t>
   </si>
   <si>
     <t>Number of the manufactured items (e.g. tablets) in this package layer or the amount of manufactured item (e.g. 20 g) in the unit of presentation defined in manufactured item definition</t>
@@ -1706,13 +1730,13 @@
     <t>Manufactured Item.Manufactured Item Quantity</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.package.package</t>
+    <t>PackagedProductDefinition.packaging.packaging</t>
   </si>
   <si>
     <t>Allows containers (and parts of containers) within containers, still a single packaged product</t>
   </si>
   <si>
-    <t>Allows containers (and parts of containers) parwithin containers, still a single packaged product.  See also PackagedProductDefinition.package.containedItem.item(PackagedProductDefinition).</t>
+    <t>Allows containers (and parts of containers) parwithin containers, still a single packaged product.  See also PackagedProductDefinition.packaging.containedItem.item(PackagedProductDefinition).</t>
   </si>
   <si>
     <t>(link from Package Item (Container) to itself)</t>
@@ -2012,7 +2036,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL159"/>
+  <dimension ref="A1:AL160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2021,7 +2045,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="77.4765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="79.18359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2045,13 +2069,13 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.09765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.50390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.30078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="77.4765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="57.40234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -2917,25 +2941,25 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2954,16 +2978,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3013,7 +3037,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -3025,7 +3049,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -3034,16 +3058,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3059,22 +3083,22 @@
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -3123,7 +3147,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -3135,7 +3159,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -3144,12 +3168,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3172,13 +3196,13 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3217,17 +3241,17 @@
         <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -3242,10 +3266,10 @@
         <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -3253,7 +3277,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>147</v>
@@ -3278,7 +3302,7 @@
         <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>148</v>
@@ -3335,7 +3359,7 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
@@ -3350,10 +3374,10 @@
         <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>73</v>
@@ -3471,7 +3495,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3490,16 +3514,16 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3546,7 +3570,7 @@
         <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>159</v>
@@ -3561,7 +3585,7 @@
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
@@ -4969,7 +4993,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4988,16 +5012,16 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5044,7 +5068,7 @@
         <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>159</v>
@@ -5059,7 +5083,7 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -5815,10 +5839,10 @@
         <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>73</v>
@@ -5829,7 +5853,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5935,11 +5959,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5958,16 +5982,16 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6029,7 +6053,7 @@
         <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -6043,11 +6067,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6066,19 +6090,19 @@
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="M38" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>73</v>
@@ -6127,7 +6151,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -6139,7 +6163,7 @@
         <v>73</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>73</v>
@@ -6148,12 +6172,12 @@
         <v>73</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6179,10 +6203,10 @@
         <v>170</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6212,11 +6236,11 @@
         <v>214</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>73</v>
       </c>
@@ -6233,7 +6257,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -6248,7 +6272,7 @@
         <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>73</v>
@@ -6259,7 +6283,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6365,11 +6389,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6388,16 +6412,16 @@
         <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6444,7 +6468,7 @@
         <v>73</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>159</v>
@@ -6459,7 +6483,7 @@
         <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>73</v>
@@ -6473,7 +6497,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6496,19 +6520,19 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>73</v>
@@ -6557,7 +6581,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6578,12 +6602,12 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6689,11 +6713,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6712,16 +6736,16 @@
         <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6768,7 +6792,7 @@
         <v>73</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>159</v>
@@ -6783,7 +6807,7 @@
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>73</v>
@@ -6797,7 +6821,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6823,16 +6847,16 @@
         <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>73</v>
@@ -6842,46 +6866,46 @@
         <v>73</v>
       </c>
       <c r="R45" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -6902,12 +6926,12 @@
         <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6933,13 +6957,13 @@
         <v>188</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6989,7 +7013,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -7010,12 +7034,12 @@
         <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7041,14 +7065,14 @@
         <v>102</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>73</v>
@@ -7097,7 +7121,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -7118,12 +7142,12 @@
         <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7149,14 +7173,14 @@
         <v>188</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>73</v>
@@ -7205,7 +7229,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -7226,12 +7250,12 @@
         <v>73</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7254,19 +7278,19 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>73</v>
@@ -7315,7 +7339,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -7336,12 +7360,12 @@
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7367,16 +7391,16 @@
         <v>188</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>73</v>
@@ -7425,7 +7449,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -7446,12 +7470,12 @@
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7477,10 +7501,10 @@
         <v>170</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7510,11 +7534,11 @@
         <v>214</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>73</v>
       </c>
@@ -7531,7 +7555,7 @@
         <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
@@ -7557,7 +7581,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7663,11 +7687,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7686,16 +7710,16 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7742,7 +7766,7 @@
         <v>73</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>159</v>
@@ -7757,7 +7781,7 @@
         <v>73</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>73</v>
@@ -7771,7 +7795,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7794,19 +7818,19 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>73</v>
@@ -7855,7 +7879,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7876,12 +7900,12 @@
         <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7987,11 +8011,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8010,16 +8034,16 @@
         <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8066,7 +8090,7 @@
         <v>73</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>159</v>
@@ -8081,7 +8105,7 @@
         <v>73</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>73</v>
@@ -8095,7 +8119,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8121,16 +8145,16 @@
         <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
@@ -8140,7 +8164,7 @@
         <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>73</v>
@@ -8179,7 +8203,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -8200,12 +8224,12 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8231,13 +8255,13 @@
         <v>188</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8287,7 +8311,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -8308,12 +8332,12 @@
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8339,14 +8363,14 @@
         <v>102</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>73</v>
@@ -8395,7 +8419,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -8416,12 +8440,12 @@
         <v>73</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8447,14 +8471,14 @@
         <v>188</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>73</v>
@@ -8503,7 +8527,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -8524,12 +8548,12 @@
         <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8552,19 +8576,19 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>73</v>
@@ -8613,7 +8637,7 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8634,12 +8658,12 @@
         <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8665,16 +8689,16 @@
         <v>188</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>73</v>
@@ -8723,7 +8747,7 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -8744,12 +8768,12 @@
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8772,13 +8796,13 @@
         <v>83</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8829,7 +8853,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8844,7 +8868,7 @@
         <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>73</v>
@@ -8855,7 +8879,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8961,11 +8985,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8984,16 +9008,16 @@
         <v>73</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9040,7 +9064,7 @@
         <v>73</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE65" t="s" s="2">
         <v>159</v>
@@ -9055,7 +9079,7 @@
         <v>73</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>73</v>
@@ -9069,11 +9093,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9092,19 +9116,19 @@
         <v>83</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="M66" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>73</v>
@@ -9153,7 +9177,7 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>291</v>
+        <v>374</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -9165,7 +9189,7 @@
         <v>73</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>73</v>
@@ -9174,7 +9198,7 @@
         <v>73</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67">
@@ -9395,7 +9419,7 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9414,16 +9438,16 @@
         <v>73</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9470,7 +9494,7 @@
         <v>73</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE69" t="s" s="2">
         <v>159</v>
@@ -9485,7 +9509,7 @@
         <v>73</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>73</v>
@@ -9522,19 +9546,19 @@
         <v>83</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>73</v>
@@ -9583,7 +9607,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9604,7 +9628,7 @@
         <v>73</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71">
@@ -9719,7 +9743,7 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9738,16 +9762,16 @@
         <v>73</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9794,7 +9818,7 @@
         <v>73</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE72" t="s" s="2">
         <v>159</v>
@@ -9809,7 +9833,7 @@
         <v>73</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>73</v>
@@ -9849,16 +9873,16 @@
         <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>73</v>
@@ -9868,7 +9892,7 @@
         <v>73</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>73</v>
@@ -9907,7 +9931,7 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -9928,7 +9952,7 @@
         <v>73</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74">
@@ -9959,13 +9983,13 @@
         <v>188</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10015,7 +10039,7 @@
         <v>73</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
@@ -10036,7 +10060,7 @@
         <v>73</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75">
@@ -10067,14 +10091,14 @@
         <v>102</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>73</v>
@@ -10123,7 +10147,7 @@
         <v>73</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -10144,7 +10168,7 @@
         <v>73</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76">
@@ -10175,14 +10199,14 @@
         <v>188</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>73</v>
@@ -10231,7 +10255,7 @@
         <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -10252,7 +10276,7 @@
         <v>73</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77">
@@ -10280,19 +10304,19 @@
         <v>83</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>73</v>
@@ -10341,7 +10365,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10362,7 +10386,7 @@
         <v>73</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78">
@@ -10393,16 +10417,16 @@
         <v>188</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>73</v>
@@ -10451,7 +10475,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10472,7 +10496,7 @@
         <v>73</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79">
@@ -10799,7 +10823,7 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10818,16 +10842,16 @@
         <v>73</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10874,7 +10898,7 @@
         <v>73</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>159</v>
@@ -10889,7 +10913,7 @@
         <v>73</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>73</v>
@@ -10926,19 +10950,19 @@
         <v>83</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>73</v>
@@ -10987,7 +11011,7 @@
         <v>73</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
@@ -11008,7 +11032,7 @@
         <v>73</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84">
@@ -11123,7 +11147,7 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11142,16 +11166,16 @@
         <v>73</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11198,7 +11222,7 @@
         <v>73</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE85" t="s" s="2">
         <v>159</v>
@@ -11213,7 +11237,7 @@
         <v>73</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>73</v>
@@ -11253,16 +11277,16 @@
         <v>96</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>73</v>
@@ -11311,7 +11335,7 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -11332,7 +11356,7 @@
         <v>73</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87">
@@ -11363,13 +11387,13 @@
         <v>188</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11419,7 +11443,7 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -11440,7 +11464,7 @@
         <v>73</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="88">
@@ -11471,14 +11495,14 @@
         <v>102</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>73</v>
@@ -11527,7 +11551,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -11548,7 +11572,7 @@
         <v>73</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="89">
@@ -11579,14 +11603,14 @@
         <v>188</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>73</v>
@@ -11635,7 +11659,7 @@
         <v>73</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -11656,7 +11680,7 @@
         <v>73</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="90">
@@ -11684,19 +11708,19 @@
         <v>83</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>73</v>
@@ -11745,7 +11769,7 @@
         <v>73</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>74</v>
@@ -11766,7 +11790,7 @@
         <v>73</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91">
@@ -11797,16 +11821,16 @@
         <v>188</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>73</v>
@@ -11855,7 +11879,7 @@
         <v>73</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
@@ -11876,7 +11900,7 @@
         <v>73</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="92">
@@ -12222,7 +12246,7 @@
         <v>83</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>422</v>
@@ -12421,10 +12445,10 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>73</v>
@@ -12436,13 +12460,13 @@
         <v>83</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12499,16 +12523,16 @@
         <v>74</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>432</v>
+        <v>154</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>73</v>
@@ -12527,7 +12551,7 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>82</v>
@@ -12539,16 +12563,16 @@
         <v>73</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>151</v>
+        <v>434</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>152</v>
+        <v>435</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12599,7 +12623,7 @@
         <v>73</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>153</v>
+        <v>433</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -12611,32 +12635,32 @@
         <v>73</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>73</v>
+        <v>436</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>73</v>
@@ -12648,17 +12672,15 @@
         <v>73</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>73</v>
@@ -12707,19 +12729,19 @@
         <v>73</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>73</v>
@@ -12733,11 +12755,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>288</v>
+        <v>127</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12750,26 +12772,24 @@
         <v>73</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J100" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K100" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K100" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="L100" t="s" s="2">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>73</v>
       </c>
@@ -12817,7 +12837,7 @@
         <v>73</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
@@ -12829,7 +12849,7 @@
         <v>73</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>73</v>
@@ -12838,16 +12858,16 @@
         <v>73</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12860,22 +12880,26 @@
         <v>73</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>437</v>
+        <v>288</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>73</v>
       </c>
@@ -12923,7 +12947,7 @@
         <v>73</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>436</v>
+        <v>290</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -12935,16 +12959,16 @@
         <v>73</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>439</v>
+        <v>73</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102">
@@ -12957,10 +12981,10 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>73</v>
@@ -12972,7 +12996,7 @@
         <v>83</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>441</v>
@@ -13005,13 +13029,13 @@
         <v>73</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>443</v>
+        <v>73</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>73</v>
@@ -13035,7 +13059,7 @@
         <v>74</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>73</v>
@@ -13044,7 +13068,7 @@
         <v>94</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>73</v>
@@ -13055,7 +13079,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13063,7 +13087,7 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>82</v>
@@ -13075,16 +13099,16 @@
         <v>73</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>151</v>
+        <v>445</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>152</v>
+        <v>446</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13111,13 +13135,13 @@
         <v>73</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>73</v>
+        <v>447</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>73</v>
@@ -13135,7 +13159,7 @@
         <v>73</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>153</v>
+        <v>444</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
@@ -13147,32 +13171,32 @@
         <v>73</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>73</v>
+        <v>448</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>73</v>
@@ -13184,17 +13208,15 @@
         <v>73</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M104" s="2"/>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>73</v>
@@ -13231,31 +13253,31 @@
         <v>73</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>73</v>
@@ -13269,11 +13291,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13289,23 +13311,21 @@
         <v>73</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>300</v>
+        <v>128</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>73</v>
       </c>
@@ -13341,19 +13361,19 @@
         <v>73</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>305</v>
+        <v>159</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
@@ -13365,7 +13385,7 @@
         <v>73</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>73</v>
@@ -13374,12 +13394,12 @@
         <v>73</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>306</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13390,7 +13410,7 @@
         <v>74</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>73</v>
@@ -13399,19 +13419,23 @@
         <v>73</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O106" t="s" s="2">
         <v>73</v>
       </c>
@@ -13459,19 +13483,19 @@
         <v>73</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>73</v>
@@ -13480,23 +13504,23 @@
         <v>73</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>154</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>73</v>
@@ -13508,17 +13532,15 @@
         <v>73</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>73</v>
@@ -13555,31 +13577,31 @@
         <v>73</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>73</v>
@@ -13593,18 +13615,18 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>73</v>
@@ -13613,23 +13635,21 @@
         <v>73</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>310</v>
+        <v>129</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>311</v>
+        <v>156</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>73</v>
       </c>
@@ -13638,7 +13658,7 @@
         <v>73</v>
       </c>
       <c r="R108" t="s" s="2">
-        <v>451</v>
+        <v>73</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>73</v>
@@ -13665,31 +13685,31 @@
         <v>73</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>315</v>
+        <v>159</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>73</v>
@@ -13698,12 +13718,12 @@
         <v>73</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>316</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13726,18 +13746,20 @@
         <v>83</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O109" t="s" s="2">
         <v>73</v>
       </c>
@@ -13746,7 +13768,7 @@
         <v>73</v>
       </c>
       <c r="R109" t="s" s="2">
-        <v>73</v>
+        <v>455</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>73</v>
@@ -13785,7 +13807,7 @@
         <v>73</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
@@ -13806,12 +13828,12 @@
         <v>73</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13834,18 +13856,18 @@
         <v>83</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>73</v>
       </c>
@@ -13893,7 +13915,7 @@
         <v>73</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -13914,12 +13936,12 @@
         <v>73</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13942,17 +13964,17 @@
         <v>83</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>73</v>
@@ -14001,7 +14023,7 @@
         <v>73</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
@@ -14022,12 +14044,12 @@
         <v>73</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14050,19 +14072,17 @@
         <v>83</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>336</v>
+        <v>188</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M112" s="2"/>
       <c r="N112" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>73</v>
@@ -14111,7 +14131,7 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>74</v>
@@ -14132,12 +14152,12 @@
         <v>73</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14160,19 +14180,19 @@
         <v>83</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>73</v>
@@ -14221,7 +14241,7 @@
         <v>73</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>74</v>
@@ -14242,12 +14262,12 @@
         <v>73</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14255,7 +14275,7 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F114" t="s" s="2">
         <v>82</v>
@@ -14270,16 +14290,20 @@
         <v>83</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>458</v>
+        <v>188</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>459</v>
+        <v>343</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O114" t="s" s="2">
         <v>73</v>
       </c>
@@ -14327,7 +14351,7 @@
         <v>73</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>457</v>
+        <v>347</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>74</v>
@@ -14342,18 +14366,18 @@
         <v>94</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>461</v>
+        <v>73</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>73</v>
+        <v>348</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14361,10 +14385,10 @@
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>73</v>
@@ -14376,7 +14400,7 @@
         <v>83</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>170</v>
+        <v>462</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>463</v>
@@ -14409,13 +14433,13 @@
         <v>73</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>465</v>
+        <v>73</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>466</v>
+        <v>73</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>73</v>
@@ -14433,13 +14457,13 @@
         <v>73</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>73</v>
@@ -14448,7 +14472,7 @@
         <v>94</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>73</v>
@@ -14459,7 +14483,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14470,7 +14494,7 @@
         <v>74</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>73</v>
@@ -14479,16 +14503,16 @@
         <v>73</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>151</v>
+        <v>467</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>152</v>
+        <v>468</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14515,13 +14539,13 @@
         <v>73</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>73</v>
+        <v>469</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>73</v>
+        <v>470</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>73</v>
@@ -14539,44 +14563,44 @@
         <v>73</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>153</v>
+        <v>466</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>73</v>
+        <v>471</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>73</v>
@@ -14588,17 +14612,15 @@
         <v>73</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>73</v>
@@ -14635,31 +14657,31 @@
         <v>73</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>73</v>
@@ -14673,11 +14695,11 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -14693,23 +14715,21 @@
         <v>73</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>300</v>
+        <v>128</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>73</v>
       </c>
@@ -14745,19 +14765,19 @@
         <v>73</v>
       </c>
       <c r="AA118" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC118" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD118" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>305</v>
+        <v>159</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -14769,7 +14789,7 @@
         <v>73</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>73</v>
@@ -14778,12 +14798,12 @@
         <v>73</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>306</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14794,7 +14814,7 @@
         <v>74</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>73</v>
@@ -14803,19 +14823,23 @@
         <v>73</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O119" t="s" s="2">
         <v>73</v>
       </c>
@@ -14863,19 +14887,19 @@
         <v>73</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>73</v>
@@ -14884,23 +14908,23 @@
         <v>73</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>154</v>
+        <v>305</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>73</v>
@@ -14912,17 +14936,15 @@
         <v>73</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>73</v>
@@ -14959,31 +14981,31 @@
         <v>73</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>73</v>
@@ -14997,18 +15019,18 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>73</v>
@@ -15017,23 +15039,21 @@
         <v>73</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>310</v>
+        <v>129</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>311</v>
+        <v>156</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>73</v>
       </c>
@@ -15042,7 +15062,7 @@
         <v>73</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>474</v>
+        <v>73</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>73</v>
@@ -15069,31 +15089,31 @@
         <v>73</v>
       </c>
       <c r="AA121" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD121" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>315</v>
+        <v>159</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>73</v>
@@ -15102,12 +15122,12 @@
         <v>73</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>316</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15130,18 +15150,20 @@
         <v>83</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N122" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O122" t="s" s="2">
         <v>73</v>
       </c>
@@ -15150,7 +15172,7 @@
         <v>73</v>
       </c>
       <c r="R122" t="s" s="2">
-        <v>73</v>
+        <v>478</v>
       </c>
       <c r="S122" t="s" s="2">
         <v>73</v>
@@ -15189,7 +15211,7 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
@@ -15210,12 +15232,12 @@
         <v>73</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15238,18 +15260,18 @@
         <v>83</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M123" s="2"/>
-      <c r="N123" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>73</v>
       </c>
@@ -15297,7 +15319,7 @@
         <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
@@ -15318,12 +15340,12 @@
         <v>73</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15346,17 +15368,17 @@
         <v>83</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>73</v>
@@ -15405,7 +15427,7 @@
         <v>73</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -15426,12 +15448,12 @@
         <v>73</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15454,19 +15476,17 @@
         <v>83</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>336</v>
+        <v>188</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M125" s="2"/>
       <c r="N125" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>73</v>
@@ -15515,7 +15535,7 @@
         <v>73</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
@@ -15536,12 +15556,12 @@
         <v>73</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15564,19 +15584,19 @@
         <v>83</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>73</v>
@@ -15625,7 +15645,7 @@
         <v>73</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>74</v>
@@ -15646,12 +15666,12 @@
         <v>73</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15662,7 +15682,7 @@
         <v>74</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>73</v>
@@ -15674,16 +15694,20 @@
         <v>83</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>481</v>
+        <v>343</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O127" t="s" s="2">
         <v>73</v>
       </c>
@@ -15707,13 +15731,13 @@
         <v>73</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>465</v>
+        <v>73</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>466</v>
+        <v>73</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>73</v>
@@ -15731,13 +15755,13 @@
         <v>73</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>480</v>
+        <v>347</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>73</v>
@@ -15746,13 +15770,13 @@
         <v>94</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>483</v>
+        <v>73</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>73</v>
+        <v>348</v>
       </c>
     </row>
     <row r="128">
@@ -15780,7 +15804,7 @@
         <v>83</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="K128" t="s" s="2">
         <v>485</v>
@@ -15813,13 +15837,13 @@
         <v>73</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>73</v>
+        <v>469</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>73</v>
+        <v>470</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>73</v>
@@ -15849,7 +15873,7 @@
         <v>73</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>487</v>
@@ -15874,7 +15898,7 @@
         <v>74</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>73</v>
@@ -15883,16 +15907,16 @@
         <v>73</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>188</v>
+        <v>489</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>151</v>
+        <v>490</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>152</v>
+        <v>491</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -15943,44 +15967,44 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>153</v>
+        <v>488</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>73</v>
+        <v>492</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>73</v>
@@ -15992,17 +16016,15 @@
         <v>73</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M130" s="2"/>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
         <v>73</v>
@@ -16051,19 +16073,19 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>73</v>
@@ -16077,11 +16099,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>288</v>
+        <v>127</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16094,26 +16116,24 @@
         <v>73</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J131" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K131" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K131" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="L131" t="s" s="2">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
         <v>73</v>
       </c>
@@ -16149,19 +16169,19 @@
         <v>73</v>
       </c>
       <c r="AA131" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB131" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD131" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -16173,7 +16193,7 @@
         <v>73</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>73</v>
@@ -16182,44 +16202,48 @@
         <v>73</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I132" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>492</v>
+        <v>288</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O132" t="s" s="2">
         <v>73</v>
       </c>
@@ -16267,19 +16291,19 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>491</v>
+        <v>374</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>73</v>
@@ -16288,12 +16312,12 @@
         <v>73</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16301,7 +16325,7 @@
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F133" t="s" s="2">
         <v>82</v>
@@ -16313,16 +16337,16 @@
         <v>73</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>151</v>
+        <v>497</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>152</v>
+        <v>498</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -16373,7 +16397,7 @@
         <v>73</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>153</v>
+        <v>499</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>74</v>
@@ -16385,7 +16409,7 @@
         <v>73</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>73</v>
@@ -16394,23 +16418,23 @@
         <v>73</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>73</v>
@@ -16422,17 +16446,15 @@
         <v>73</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M134" s="2"/>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>73</v>
@@ -16469,31 +16491,31 @@
         <v>73</v>
       </c>
       <c r="AA134" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC134" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD134" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>73</v>
@@ -16507,11 +16529,11 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -16527,23 +16549,21 @@
         <v>73</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>300</v>
+        <v>128</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>73</v>
       </c>
@@ -16579,19 +16599,19 @@
         <v>73</v>
       </c>
       <c r="AA135" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB135" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD135" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>305</v>
+        <v>159</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>74</v>
@@ -16603,7 +16623,7 @@
         <v>73</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>73</v>
@@ -16612,12 +16632,12 @@
         <v>73</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>306</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16628,7 +16648,7 @@
         <v>74</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>73</v>
@@ -16637,19 +16657,23 @@
         <v>73</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O136" t="s" s="2">
         <v>73</v>
       </c>
@@ -16697,19 +16721,19 @@
         <v>73</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>73</v>
@@ -16718,23 +16742,23 @@
         <v>73</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>154</v>
+        <v>305</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>73</v>
@@ -16746,17 +16770,15 @@
         <v>73</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M137" s="2"/>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
         <v>73</v>
@@ -16793,31 +16815,31 @@
         <v>73</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC137" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>73</v>
@@ -16831,18 +16853,18 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>73</v>
@@ -16851,23 +16873,21 @@
         <v>73</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>310</v>
+        <v>129</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>311</v>
+        <v>156</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
         <v>73</v>
       </c>
@@ -16876,7 +16896,7 @@
         <v>73</v>
       </c>
       <c r="R138" t="s" s="2">
-        <v>500</v>
+        <v>73</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>73</v>
@@ -16903,31 +16923,31 @@
         <v>73</v>
       </c>
       <c r="AA138" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB138" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD138" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>315</v>
+        <v>159</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>73</v>
@@ -16936,12 +16956,12 @@
         <v>73</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>316</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16964,18 +16984,20 @@
         <v>83</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N139" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O139" t="s" s="2">
         <v>73</v>
       </c>
@@ -16984,7 +17006,7 @@
         <v>73</v>
       </c>
       <c r="R139" t="s" s="2">
-        <v>73</v>
+        <v>506</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>73</v>
@@ -17023,7 +17045,7 @@
         <v>73</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>74</v>
@@ -17044,12 +17066,12 @@
         <v>73</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17072,18 +17094,18 @@
         <v>83</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M140" s="2"/>
-      <c r="N140" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>73</v>
       </c>
@@ -17131,7 +17153,7 @@
         <v>73</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>74</v>
@@ -17152,12 +17174,12 @@
         <v>73</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17180,17 +17202,17 @@
         <v>83</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>73</v>
@@ -17239,7 +17261,7 @@
         <v>73</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>74</v>
@@ -17260,12 +17282,12 @@
         <v>73</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17288,19 +17310,17 @@
         <v>83</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>336</v>
+        <v>188</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>73</v>
@@ -17349,7 +17369,7 @@
         <v>73</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>74</v>
@@ -17370,12 +17390,12 @@
         <v>73</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17398,19 +17418,19 @@
         <v>83</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>73</v>
@@ -17459,7 +17479,7 @@
         <v>73</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>74</v>
@@ -17480,12 +17500,12 @@
         <v>73</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17493,7 +17513,7 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F144" t="s" s="2">
         <v>82</v>
@@ -17508,16 +17528,20 @@
         <v>83</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>507</v>
+        <v>188</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>508</v>
+        <v>343</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O144" t="s" s="2">
         <v>73</v>
       </c>
@@ -17565,7 +17589,7 @@
         <v>73</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>506</v>
+        <v>347</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>74</v>
@@ -17586,12 +17610,12 @@
         <v>73</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>73</v>
+        <v>348</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17599,10 +17623,10 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>73</v>
@@ -17614,13 +17638,13 @@
         <v>83</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>170</v>
+        <v>513</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -17671,13 +17695,13 @@
         <v>73</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>73</v>
@@ -17697,7 +17721,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17720,13 +17744,13 @@
         <v>83</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -17777,7 +17801,7 @@
         <v>73</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>74</v>
@@ -17792,7 +17816,7 @@
         <v>94</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>516</v>
+        <v>73</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>73</v>
@@ -17803,7 +17827,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17826,13 +17850,13 @@
         <v>83</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -17883,7 +17907,7 @@
         <v>73</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>74</v>
@@ -17895,10 +17919,10 @@
         <v>73</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>73</v>
@@ -17909,7 +17933,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -17920,7 +17944,7 @@
         <v>74</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>73</v>
@@ -17929,16 +17953,16 @@
         <v>73</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>151</v>
+        <v>526</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>152</v>
+        <v>527</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -17989,44 +18013,44 @@
         <v>73</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>153</v>
+        <v>525</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>73</v>
+        <v>528</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>73</v>
@@ -18038,17 +18062,15 @@
         <v>73</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M149" s="2"/>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>73</v>
@@ -18097,19 +18119,19 @@
         <v>73</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>73</v>
@@ -18123,11 +18145,11 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>288</v>
+        <v>127</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -18140,26 +18162,24 @@
         <v>73</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J150" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K150" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K150" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="L150" t="s" s="2">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
         <v>73</v>
       </c>
@@ -18207,7 +18227,7 @@
         <v>73</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>74</v>
@@ -18219,7 +18239,7 @@
         <v>73</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>73</v>
@@ -18228,44 +18248,48 @@
         <v>73</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>525</v>
+        <v>288</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O151" t="s" s="2">
         <v>73</v>
       </c>
@@ -18289,13 +18313,13 @@
         <v>73</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>527</v>
+        <v>73</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>528</v>
+        <v>73</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>73</v>
@@ -18313,33 +18337,33 @@
         <v>73</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>524</v>
+        <v>290</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>529</v>
+        <v>73</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18347,7 +18371,7 @@
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F152" t="s" s="2">
         <v>82</v>
@@ -18362,13 +18386,13 @@
         <v>83</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>531</v>
+        <v>170</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -18395,13 +18419,13 @@
         <v>73</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>73</v>
+        <v>535</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>73</v>
+        <v>536</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>73</v>
@@ -18419,10 +18443,10 @@
         <v>73</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>82</v>
@@ -18434,7 +18458,7 @@
         <v>94</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>73</v>
@@ -18445,7 +18469,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18456,7 +18480,7 @@
         <v>74</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>73</v>
@@ -18468,13 +18492,13 @@
         <v>83</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>280</v>
+        <v>539</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -18525,22 +18549,22 @@
         <v>73</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>73</v>
@@ -18551,7 +18575,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18562,7 +18586,7 @@
         <v>74</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>73</v>
@@ -18571,16 +18595,16 @@
         <v>73</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>151</v>
+        <v>544</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>152</v>
+        <v>545</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -18631,44 +18655,44 @@
         <v>73</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>153</v>
+        <v>543</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>73</v>
+        <v>546</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>73</v>
@@ -18680,17 +18704,15 @@
         <v>73</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M155" s="2"/>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>73</v>
@@ -18739,19 +18761,19 @@
         <v>73</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>73</v>
@@ -18765,11 +18787,11 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>288</v>
+        <v>127</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -18782,26 +18804,24 @@
         <v>73</v>
       </c>
       <c r="H156" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J156" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K156" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K156" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="L156" t="s" s="2">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
         <v>73</v>
       </c>
@@ -18849,7 +18869,7 @@
         <v>73</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>74</v>
@@ -18861,7 +18881,7 @@
         <v>73</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>73</v>
@@ -18870,44 +18890,48 @@
         <v>73</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>543</v>
+        <v>128</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>544</v>
+        <v>288</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N157" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O157" t="s" s="2">
         <v>73</v>
       </c>
@@ -18955,33 +18979,33 @@
         <v>73</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>542</v>
+        <v>290</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>546</v>
+        <v>73</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -18989,7 +19013,7 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F158" t="s" s="2">
         <v>82</v>
@@ -19004,13 +19028,13 @@
         <v>83</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>232</v>
+        <v>551</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -19061,10 +19085,10 @@
         <v>73</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>82</v>
@@ -19076,7 +19100,7 @@
         <v>94</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>73</v>
@@ -19087,7 +19111,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19098,7 +19122,7 @@
         <v>74</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>73</v>
@@ -19110,13 +19134,13 @@
         <v>83</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -19167,13 +19191,13 @@
         <v>73</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>73</v>
@@ -19182,12 +19206,118 @@
         <v>94</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="AK159" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL159" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M160" s="2"/>
+      <c r="N160" s="2"/>
+      <c r="O160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P160" s="2"/>
+      <c r="Q160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI160" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ160" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AK160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL160" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5453" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5420" uniqueCount="555">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLPackagedProductDefinition</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T17:44:56+00:00</t>
+    <t>2022-11-18T19:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -277,7 +277,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -367,7 +367,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -390,13 +390,17 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
   </si>
   <si>
     <t>N/A</t>
@@ -439,7 +443,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -468,9 +472,6 @@
     <t>Packaged Medicinal Product.PCID</t>
   </si>
   <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>pcid</t>
   </si>
   <si>
@@ -529,7 +530,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.3.0</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -572,7 +573,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -606,7 +607,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/2021Mar/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -689,14 +690,14 @@
     <t>PackagedProductDefinition.packageFor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition)
 </t>
   </si>
   <si>
     <t>The product that this is a pack for</t>
   </si>
   <si>
-    <t>The product this package model relates to, not the contents of the package (for which see package.containedItem).</t>
+    <t>The product that this is a pack for.</t>
   </si>
   <si>
     <t>(the link from Packaged Medicinal Product to Medicinal Product)</t>
@@ -777,7 +778,7 @@
     <t>PackagedProductDefinition.containedItemQuantity.comparator</t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; | ad - how to understand the value</t>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
   </si>
   <si>
     <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
@@ -789,7 +790,7 @@
     <t>If there is no comparator, then there is no modification of the value</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.3.0</t>
   </si>
   <si>
     <t>Quantity.comparator</t>
@@ -891,6 +892,10 @@
     <t>EMA IG 4.5. Legal status of supply on the packaged product level. The same information can be repeated/differentiated on the medicinal product level</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
+  </si>
+  <si>
     <t>Marketing Authorisation.Legal Status of Supply (for a package)</t>
   </si>
   <si>
@@ -978,7 +983,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -1169,9 +1174,6 @@
     <t>PackagedProductDefinition.marketingStatus.modifierExtension</t>
   </si>
   <si>
-    <t>BackboneType.modifierExtension</t>
-  </si>
-  <si>
     <t>PackagedProductDefinition.marketingStatus.country</t>
   </si>
   <si>
@@ -1313,10 +1315,10 @@
     <t>PackagedProductDefinition.copackagedIndicator</t>
   </si>
   <si>
-    <t>Identifies if the drug product is supplied with another item such as a diluent or adjuvant</t>
-  </si>
-  <si>
-    <t>Identifies if the package contains different items, such as when a drug product is supplied with another item e.g. a diluent or adjuvant.</t>
+    <t>If the drug product is supplied with another item such as a diluent or adjuvant</t>
+  </si>
+  <si>
+    <t>States whether a drug product is supplied with another item such as a diluent or adjuvant.</t>
   </si>
   <si>
     <t>If this value is not present, there is no statement being made about whether this is co-packaged or not. No inference can be made</t>
@@ -1334,20 +1336,7 @@
     <t>Packaged Medicinal Product.Manufacturer / Establishment (Organisation)</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.attachedDocument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(DocumentReference)
-</t>
-  </si>
-  <si>
-    <t>Additional information or supporting documentation about the packaged product</t>
-  </si>
-  <si>
-    <t>Additional information or supporting documentation about the packaged product.</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging</t>
+    <t>PackagedProductDefinition.package</t>
   </si>
   <si>
     <t>A packaging item, as a container for medically related items, possibly with other packaging items within, or a packaging component, such as bottle cap</t>
@@ -1359,28 +1348,28 @@
     <t>Packaged Medicinal Product.Package Item (Container), Package Item (Container).Package (Component)</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.identifier</t>
+    <t>PackagedProductDefinition.package.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.identifier</t>
   </si>
   <si>
     <t>An identifier that is specific to this particular part of the packaging. Including possibly a Data Carrier Identifier</t>
   </si>
   <si>
-    <t>A business identifier that is specific to this particular part of the packaging, often assigned by the manufacturer. Including possibly Data Carrier Identifier (a GS1 barcode).</t>
+    <t>An identifier that is specific to this particular part of the packaging. Including possibly Data Carrier Identifier (a GS1 barcode).</t>
   </si>
   <si>
     <t>Package Item (Container).Data Carrier Identifier</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.type</t>
+    <t>PackagedProductDefinition.package.type</t>
   </si>
   <si>
     <t>Container type</t>
@@ -1395,43 +1384,43 @@
     <t>Package Item (Container).Package Item (Container) Type</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.type.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.coding.system</t>
+    <t>PackagedProductDefinition.package.type.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.coding</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.coding.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.coding.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.coding.system</t>
   </si>
   <si>
     <t>http://spor.ema.europa.eu/v1/lists/100000073346</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.type.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.type.text</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.quantity</t>
+    <t>PackagedProductDefinition.package.type.coding.version</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.coding.code</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.coding.display</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.type.text</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.quantity</t>
   </si>
   <si>
     <t xml:space="preserve">integer
@@ -1447,7 +1436,7 @@
     <t>Package Item (Container).Package Item (Container) Quantity</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.material</t>
+    <t>PackagedProductDefinition.package.material</t>
   </si>
   <si>
     <t>Material type of the package item</t>
@@ -1465,43 +1454,43 @@
     <t>Package Item (Container).Material</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.material.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.coding.system</t>
+    <t>PackagedProductDefinition.package.material.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.coding</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.coding.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.coding.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.coding.system</t>
   </si>
   <si>
     <t>http://spor.ema.europa.eu/v1/lists/200000003199</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.material.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.coding.userSelected</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.material.text</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.alternateMaterial</t>
+    <t>PackagedProductDefinition.package.material.coding.version</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.coding.code</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.coding.display</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.coding.userSelected</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.material.text</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.alternateMaterial</t>
   </si>
   <si>
     <t>A possible alternate material for this part of the packaging, that is allowed to be used instead of the usual material</t>
@@ -1513,11 +1502,7 @@
     <t>Package Item (Container).Alternate Material</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProductShelfLife
-</t>
+    <t>PackagedProductDefinition.package.shelfLifeStorage</t>
   </si>
   <si>
     <t>Shelf Life and storage information</t>
@@ -1529,16 +1514,16 @@
     <t>Package Item (Container).Shelf Life / Storage</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type</t>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type</t>
   </si>
   <si>
     <t>This describes the shelf life, taking into account various scenarios such as shelf life of the packaged Medicinal Product itself, shelf life after transformation where necessary and shelf life after the first opening of a bottle, etc. The shelf life type shall be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified</t>
@@ -1547,46 +1532,43 @@
     <t>This describes the shelf life, taking into account various scenarios such as shelf life of the packaged Medicinal Product itself, shelf life after transformation where necessary and shelf life after the first opening of a bottle, etc. The shelf life type shall be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified.</t>
   </si>
   <si>
-    <t>ProductShelfLife.type</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.system</t>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.system</t>
   </si>
   <si>
     <t>http://spor.ema.europa.eu/v1/lists/100000073343</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.text</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.period[x]</t>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.version</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.code</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.display</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.type.text</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.period[x]</t>
   </si>
   <si>
     <t>Duration
@@ -1599,34 +1581,28 @@
     <t>The shelf life time period can be specified using a numerical value for the period of time and its unit of time measurement The unit of measurement shall be specified in accordance with ISO 11240 and the resulting terminology The symbol and the symbol identifier shall be used.</t>
   </si>
   <si>
-    <t>ProductShelfLife.period[x]</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.shelfLifeStorage.specialPrecautionsForStorage</t>
-  </si>
-  <si>
-    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified</t>
-  </si>
-  <si>
-    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified.</t>
-  </si>
-  <si>
-    <t>ProductShelfLife.specialPrecautionsForStorage</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.manufacturer</t>
-  </si>
-  <si>
-    <t>Manufacturer of this packaging item (multiple means these are all potential manufacturers)</t>
-  </si>
-  <si>
-    <t>Manufacturer of this packaging item. When there are multiple values each one is a potential manufacturer of this packaging item.</t>
+    <t>PackagedProductDefinition.package.shelfLifeStorage.specialPrecautionsForStorage</t>
+  </si>
+  <si>
+    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary. The controlled term and the controlled term identifier shall be specified</t>
+  </si>
+  <si>
+    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary. The controlled term and the controlled term identifier shall be specified.</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.manufacturer</t>
+  </si>
+  <si>
+    <t>Manufacturer of this package Item (multiple means these are all possible manufacturers)</t>
+  </si>
+  <si>
+    <t>Manufacturer of this package Item. When there are multiple it means these are all possible manufacturers.</t>
   </si>
   <si>
     <t>Package Item (Container).Manufacturer / Establishment (Organisation)</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.property</t>
+    <t>PackagedProductDefinition.package.property</t>
   </si>
   <si>
     <t>General characteristics of this item</t>
@@ -1638,16 +1614,16 @@
     <t>Package Item (Container).Physical Characteristics</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.property.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.property.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.property.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.property.type</t>
+    <t>PackagedProductDefinition.package.property.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.property.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.property.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.property.type</t>
   </si>
   <si>
     <t>A code expressing the type of characteristic</t>
@@ -1665,7 +1641,7 @@
     <t>Physical Characteristics, all attributes</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.property.value[x]</t>
+    <t>PackagedProductDefinition.package.property.value[x]</t>
   </si>
   <si>
     <t>CodeableConcept
@@ -1681,7 +1657,7 @@
     <t>Physical Characteristics, attribute's value</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.containedItem</t>
+    <t>PackagedProductDefinition.package.containedItem</t>
   </si>
   <si>
     <t>An item (inner package or manufactured item) within the packaging</t>
@@ -1693,32 +1669,32 @@
     <t>Package Item (Container).Manufactured Item, Package Item (Container).Device</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.containedItem.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.containedItem.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.containedItem.modifierExtension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.packaging.containedItem.item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableReference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLPackagedProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition)
+    <t>PackagedProductDefinition.package.containedItem.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.containedItem.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.containedItem.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.containedItem.item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableReference(http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>
     <t>The actual item(s) of medication, as manufactured, or a device, or other medically related item (food, biologicals, raw materials, medical fluids, gases etc.), as contained in the package</t>
   </si>
   <si>
-    <t>The actual item(s) of medication, as manufactured, or a device (typically, but not necessarily, a co-packaged one), or other medically related item (such as food, biologicals, raw materials, medical fluids, gases etc.), as contained in the package. This also allows another whole packaged product to be included, which is solely for the case where a package of other entire packages is wanted - such as a wholesale or distribution pack (for layers within one package, use PackagedProductDefinition.packaging.packaging).</t>
+    <t>The actual item(s) of medication, as manufactured, or a device (typically, but not necessarily, a co-packaged one), or other medically related item (such as food, biologicals, raw materials, medical fluids, gases etc.), as contained in the package. This also allows another whole packaged product to be included, which is solely for the case where a package of other entire packages is wanted - such as a wholesale or distribution pack (for layers within one package, use PackagedProductDefinition.package.package).</t>
   </si>
   <si>
     <t>(the link to) Package Item (Container).Manufactured Item, Package Item (Container).Device</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.containedItem.amount</t>
+    <t>PackagedProductDefinition.package.containedItem.amount</t>
   </si>
   <si>
     <t>Number of the manufactured items (e.g. tablets) in this package layer or the amount of manufactured item (e.g. 20 g) in the unit of presentation defined in manufactured item definition</t>
@@ -1730,13 +1706,13 @@
     <t>Manufactured Item.Manufactured Item Quantity</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.packaging.packaging</t>
+    <t>PackagedProductDefinition.package.package</t>
   </si>
   <si>
     <t>Allows containers (and parts of containers) within containers, still a single packaged product</t>
   </si>
   <si>
-    <t>Allows containers (and parts of containers) parwithin containers, still a single packaged product.  See also PackagedProductDefinition.packaging.containedItem.item(PackagedProductDefinition).</t>
+    <t>Allows containers (and parts of containers) parwithin containers, still a single packaged product.  See also PackagedProductDefinition.package.containedItem.item(PackagedProductDefinition).</t>
   </si>
   <si>
     <t>(link from Package Item (Container) to itself)</t>
@@ -2036,7 +2012,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL160"/>
+  <dimension ref="A1:AL159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2045,7 +2021,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="79.18359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="77.4765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2069,13 +2045,13 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.09765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.30078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.50390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="57.40234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="77.4765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -2941,7 +2917,7 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>73</v>
@@ -2950,16 +2926,16 @@
         <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2978,16 +2954,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3037,7 +3013,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -3049,7 +3025,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -3058,16 +3034,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3083,22 +3059,22 @@
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -3147,7 +3123,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -3159,7 +3135,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -3168,12 +3144,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3196,13 +3172,13 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3241,17 +3217,17 @@
         <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -3266,10 +3242,10 @@
         <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -3277,7 +3253,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>147</v>
@@ -3302,7 +3278,7 @@
         <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>148</v>
@@ -3359,7 +3335,7 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
@@ -3374,10 +3350,10 @@
         <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>73</v>
@@ -3495,7 +3471,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3514,16 +3490,16 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3570,7 +3546,7 @@
         <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>159</v>
@@ -3585,7 +3561,7 @@
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
@@ -4993,7 +4969,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5012,16 +4988,16 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5068,7 +5044,7 @@
         <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>159</v>
@@ -5083,7 +5059,7 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -5839,10 +5815,10 @@
         <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>94</v>
+        <v>283</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>73</v>
@@ -5853,7 +5829,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5959,11 +5935,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5982,16 +5958,16 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6053,7 +6029,7 @@
         <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -6067,11 +6043,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6090,19 +6066,19 @@
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>73</v>
@@ -6151,7 +6127,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -6163,7 +6139,7 @@
         <v>73</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>73</v>
@@ -6172,12 +6148,12 @@
         <v>73</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6203,10 +6179,10 @@
         <v>170</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6236,10 +6212,10 @@
         <v>214</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>73</v>
@@ -6257,7 +6233,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -6272,7 +6248,7 @@
         <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>73</v>
@@ -6283,7 +6259,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6389,11 +6365,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6412,16 +6388,16 @@
         <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6468,7 +6444,7 @@
         <v>73</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>159</v>
@@ -6483,7 +6459,7 @@
         <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>73</v>
@@ -6497,7 +6473,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6520,19 +6496,19 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>73</v>
@@ -6581,7 +6557,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6602,12 +6578,12 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6713,11 +6689,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6736,16 +6712,16 @@
         <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6792,7 +6768,7 @@
         <v>73</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>159</v>
@@ -6807,7 +6783,7 @@
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>73</v>
@@ -6821,7 +6797,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6847,16 +6823,16 @@
         <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>73</v>
@@ -6866,7 +6842,7 @@
         <v>73</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>73</v>
@@ -6905,7 +6881,7 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -6926,12 +6902,12 @@
         <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6957,13 +6933,13 @@
         <v>188</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7013,7 +6989,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -7034,12 +7010,12 @@
         <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7065,14 +7041,14 @@
         <v>102</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>73</v>
@@ -7121,7 +7097,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -7142,12 +7118,12 @@
         <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7173,14 +7149,14 @@
         <v>188</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>73</v>
@@ -7229,7 +7205,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -7250,12 +7226,12 @@
         <v>73</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7278,19 +7254,19 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>73</v>
@@ -7339,7 +7315,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -7360,12 +7336,12 @@
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7391,16 +7367,16 @@
         <v>188</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>73</v>
@@ -7449,7 +7425,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -7470,12 +7446,12 @@
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7501,10 +7477,10 @@
         <v>170</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7534,10 +7510,10 @@
         <v>214</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>73</v>
@@ -7555,7 +7531,7 @@
         <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
@@ -7581,7 +7557,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7687,11 +7663,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7710,16 +7686,16 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7766,7 +7742,7 @@
         <v>73</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>159</v>
@@ -7781,7 +7757,7 @@
         <v>73</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>73</v>
@@ -7795,7 +7771,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7818,19 +7794,19 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>73</v>
@@ -7879,7 +7855,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7900,12 +7876,12 @@
         <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8011,11 +7987,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8034,16 +8010,16 @@
         <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8090,7 +8066,7 @@
         <v>73</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>159</v>
@@ -8105,7 +8081,7 @@
         <v>73</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>73</v>
@@ -8119,7 +8095,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8145,16 +8121,16 @@
         <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
@@ -8164,7 +8140,7 @@
         <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>73</v>
@@ -8203,7 +8179,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -8224,12 +8200,12 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8255,13 +8231,13 @@
         <v>188</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8311,7 +8287,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -8332,12 +8308,12 @@
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8363,14 +8339,14 @@
         <v>102</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>73</v>
@@ -8419,7 +8395,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -8440,12 +8416,12 @@
         <v>73</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8471,14 +8447,14 @@
         <v>188</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>73</v>
@@ -8527,7 +8503,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -8548,12 +8524,12 @@
         <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8576,19 +8552,19 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>73</v>
@@ -8637,7 +8613,7 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8658,12 +8634,12 @@
         <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8689,16 +8665,16 @@
         <v>188</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>73</v>
@@ -8747,7 +8723,7 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -8768,12 +8744,12 @@
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8796,13 +8772,13 @@
         <v>83</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8853,7 +8829,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8868,7 +8844,7 @@
         <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>73</v>
@@ -8879,7 +8855,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8985,11 +8961,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9008,16 +8984,16 @@
         <v>73</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9064,7 +9040,7 @@
         <v>73</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE65" t="s" s="2">
         <v>159</v>
@@ -9079,7 +9055,7 @@
         <v>73</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>73</v>
@@ -9093,11 +9069,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9116,19 +9092,19 @@
         <v>83</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>73</v>
@@ -9177,7 +9153,7 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>374</v>
+        <v>291</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -9189,7 +9165,7 @@
         <v>73</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>73</v>
@@ -9198,7 +9174,7 @@
         <v>73</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67">
@@ -9419,7 +9395,7 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9438,16 +9414,16 @@
         <v>73</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9494,7 +9470,7 @@
         <v>73</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE69" t="s" s="2">
         <v>159</v>
@@ -9509,7 +9485,7 @@
         <v>73</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>73</v>
@@ -9546,19 +9522,19 @@
         <v>83</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>73</v>
@@ -9607,7 +9583,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9628,7 +9604,7 @@
         <v>73</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71">
@@ -9743,7 +9719,7 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9762,16 +9738,16 @@
         <v>73</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9818,7 +9794,7 @@
         <v>73</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE72" t="s" s="2">
         <v>159</v>
@@ -9833,7 +9809,7 @@
         <v>73</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>73</v>
@@ -9873,16 +9849,16 @@
         <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>73</v>
@@ -9892,7 +9868,7 @@
         <v>73</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>73</v>
@@ -9931,7 +9907,7 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -9952,7 +9928,7 @@
         <v>73</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74">
@@ -9983,13 +9959,13 @@
         <v>188</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10039,7 +10015,7 @@
         <v>73</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
@@ -10060,7 +10036,7 @@
         <v>73</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75">
@@ -10091,14 +10067,14 @@
         <v>102</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>73</v>
@@ -10147,7 +10123,7 @@
         <v>73</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -10168,7 +10144,7 @@
         <v>73</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76">
@@ -10199,14 +10175,14 @@
         <v>188</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>73</v>
@@ -10255,7 +10231,7 @@
         <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -10276,7 +10252,7 @@
         <v>73</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="77">
@@ -10304,19 +10280,19 @@
         <v>83</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>73</v>
@@ -10365,7 +10341,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10386,7 +10362,7 @@
         <v>73</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78">
@@ -10417,16 +10393,16 @@
         <v>188</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>73</v>
@@ -10475,7 +10451,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10496,7 +10472,7 @@
         <v>73</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="79">
@@ -10823,7 +10799,7 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10842,16 +10818,16 @@
         <v>73</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10898,7 +10874,7 @@
         <v>73</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>159</v>
@@ -10913,7 +10889,7 @@
         <v>73</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>73</v>
@@ -10950,19 +10926,19 @@
         <v>83</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>73</v>
@@ -11011,7 +10987,7 @@
         <v>73</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
@@ -11032,7 +11008,7 @@
         <v>73</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84">
@@ -11147,7 +11123,7 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11166,16 +11142,16 @@
         <v>73</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11222,7 +11198,7 @@
         <v>73</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE85" t="s" s="2">
         <v>159</v>
@@ -11237,7 +11213,7 @@
         <v>73</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>73</v>
@@ -11277,16 +11253,16 @@
         <v>96</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>73</v>
@@ -11335,7 +11311,7 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -11356,7 +11332,7 @@
         <v>73</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87">
@@ -11387,13 +11363,13 @@
         <v>188</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11443,7 +11419,7 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -11464,7 +11440,7 @@
         <v>73</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88">
@@ -11495,14 +11471,14 @@
         <v>102</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>73</v>
@@ -11551,7 +11527,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -11572,7 +11548,7 @@
         <v>73</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="89">
@@ -11603,14 +11579,14 @@
         <v>188</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>73</v>
@@ -11659,7 +11635,7 @@
         <v>73</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -11680,7 +11656,7 @@
         <v>73</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="90">
@@ -11708,19 +11684,19 @@
         <v>83</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>73</v>
@@ -11769,7 +11745,7 @@
         <v>73</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>74</v>
@@ -11790,7 +11766,7 @@
         <v>73</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="91">
@@ -11821,16 +11797,16 @@
         <v>188</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>73</v>
@@ -11879,7 +11855,7 @@
         <v>73</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
@@ -11900,7 +11876,7 @@
         <v>73</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="92">
@@ -12246,7 +12222,7 @@
         <v>83</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>422</v>
@@ -12445,10 +12421,10 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>73</v>
@@ -12460,13 +12436,13 @@
         <v>83</v>
       </c>
       <c r="J97" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K97" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="K97" t="s" s="2">
+      <c r="L97" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12523,16 +12499,16 @@
         <v>74</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>94</v>
+        <v>283</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>154</v>
+        <v>432</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>73</v>
@@ -12551,7 +12527,7 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>82</v>
@@ -12563,16 +12539,16 @@
         <v>73</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>434</v>
+        <v>151</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>435</v>
+        <v>152</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12623,7 +12599,7 @@
         <v>73</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>433</v>
+        <v>153</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -12635,32 +12611,32 @@
         <v>73</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>436</v>
+        <v>73</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>73</v>
@@ -12672,15 +12648,17 @@
         <v>73</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>73</v>
@@ -12729,19 +12707,19 @@
         <v>73</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>73</v>
@@ -12755,11 +12733,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12772,24 +12750,26 @@
         <v>73</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>129</v>
+        <v>289</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>73</v>
       </c>
@@ -12837,7 +12817,7 @@
         <v>73</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
@@ -12849,7 +12829,7 @@
         <v>73</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>73</v>
@@ -12858,16 +12838,16 @@
         <v>73</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12880,26 +12860,22 @@
         <v>73</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>288</v>
+        <v>437</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>73</v>
       </c>
@@ -12947,7 +12923,7 @@
         <v>73</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>290</v>
+        <v>436</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -12959,16 +12935,16 @@
         <v>73</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>73</v>
+        <v>439</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102">
@@ -12981,10 +12957,10 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>73</v>
@@ -12996,7 +12972,7 @@
         <v>83</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>441</v>
@@ -13029,13 +13005,13 @@
         <v>73</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>73</v>
+        <v>443</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>73</v>
@@ -13059,7 +13035,7 @@
         <v>74</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>73</v>
@@ -13068,7 +13044,7 @@
         <v>94</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>73</v>
@@ -13079,7 +13055,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13087,7 +13063,7 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>82</v>
@@ -13099,16 +13075,16 @@
         <v>73</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>445</v>
+        <v>151</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>446</v>
+        <v>152</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13135,13 +13111,13 @@
         <v>73</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>447</v>
+        <v>73</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>73</v>
@@ -13159,7 +13135,7 @@
         <v>73</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>444</v>
+        <v>153</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
@@ -13171,32 +13147,32 @@
         <v>73</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>448</v>
+        <v>73</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>73</v>
@@ -13208,15 +13184,17 @@
         <v>73</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M104" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>73</v>
@@ -13253,31 +13231,31 @@
         <v>73</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>73</v>
@@ -13291,11 +13269,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13311,21 +13289,23 @@
         <v>73</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>128</v>
+        <v>300</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>129</v>
+        <v>301</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>156</v>
+        <v>302</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>73</v>
       </c>
@@ -13361,19 +13341,19 @@
         <v>73</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>159</v>
+        <v>305</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
@@ -13385,7 +13365,7 @@
         <v>73</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>73</v>
@@ -13394,12 +13374,12 @@
         <v>73</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>154</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13410,7 +13390,7 @@
         <v>74</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>73</v>
@@ -13419,23 +13399,19 @@
         <v>73</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>299</v>
+        <v>84</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>73</v>
       </c>
@@ -13483,19 +13459,19 @@
         <v>73</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>304</v>
+        <v>153</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>73</v>
@@ -13504,23 +13480,23 @@
         <v>73</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>305</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>73</v>
@@ -13532,15 +13508,17 @@
         <v>73</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M107" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>73</v>
@@ -13577,31 +13555,31 @@
         <v>73</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>73</v>
@@ -13615,18 +13593,18 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>73</v>
@@ -13635,21 +13613,23 @@
         <v>73</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>156</v>
+        <v>311</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O108" t="s" s="2">
         <v>73</v>
       </c>
@@ -13658,7 +13638,7 @@
         <v>73</v>
       </c>
       <c r="R108" t="s" s="2">
-        <v>73</v>
+        <v>451</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>73</v>
@@ -13685,31 +13665,31 @@
         <v>73</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>159</v>
+        <v>315</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>73</v>
@@ -13718,12 +13698,12 @@
         <v>73</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>154</v>
+        <v>316</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13746,20 +13726,18 @@
         <v>83</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>73</v>
       </c>
@@ -13768,7 +13746,7 @@
         <v>73</v>
       </c>
       <c r="R109" t="s" s="2">
-        <v>455</v>
+        <v>73</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>73</v>
@@ -13807,7 +13785,7 @@
         <v>73</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
@@ -13828,12 +13806,12 @@
         <v>73</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13856,18 +13834,18 @@
         <v>83</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>73</v>
       </c>
@@ -13915,7 +13893,7 @@
         <v>73</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -13936,12 +13914,12 @@
         <v>73</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13964,17 +13942,17 @@
         <v>83</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>73</v>
@@ -14023,7 +14001,7 @@
         <v>73</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
@@ -14044,12 +14022,12 @@
         <v>73</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14072,17 +14050,19 @@
         <v>83</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>188</v>
+        <v>336</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M112" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N112" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>73</v>
@@ -14131,7 +14111,7 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>74</v>
@@ -14152,12 +14132,12 @@
         <v>73</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14180,19 +14160,19 @@
         <v>83</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>335</v>
+        <v>188</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>73</v>
@@ -14241,7 +14221,7 @@
         <v>73</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>74</v>
@@ -14262,12 +14242,12 @@
         <v>73</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14275,7 +14255,7 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F114" t="s" s="2">
         <v>82</v>
@@ -14290,20 +14270,16 @@
         <v>83</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>188</v>
+        <v>458</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>343</v>
+        <v>459</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>73</v>
       </c>
@@ -14351,7 +14327,7 @@
         <v>73</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>347</v>
+        <v>457</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>74</v>
@@ -14366,18 +14342,18 @@
         <v>94</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>73</v>
+        <v>461</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>348</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14385,10 +14361,10 @@
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>73</v>
@@ -14400,7 +14376,7 @@
         <v>83</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>462</v>
+        <v>170</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>463</v>
@@ -14433,13 +14409,13 @@
         <v>73</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>73</v>
+        <v>465</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>73</v>
+        <v>466</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>73</v>
@@ -14457,13 +14433,13 @@
         <v>73</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>73</v>
@@ -14472,7 +14448,7 @@
         <v>94</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>73</v>
@@ -14483,7 +14459,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14494,7 +14470,7 @@
         <v>74</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>73</v>
@@ -14503,16 +14479,16 @@
         <v>73</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>467</v>
+        <v>151</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>468</v>
+        <v>152</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14539,13 +14515,13 @@
         <v>73</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>469</v>
+        <v>73</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>470</v>
+        <v>73</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>73</v>
@@ -14563,44 +14539,44 @@
         <v>73</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>466</v>
+        <v>153</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>471</v>
+        <v>73</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>73</v>
@@ -14612,15 +14588,17 @@
         <v>73</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M117" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>73</v>
@@ -14657,31 +14635,31 @@
         <v>73</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>73</v>
@@ -14695,11 +14673,11 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -14715,21 +14693,23 @@
         <v>73</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>128</v>
+        <v>300</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>129</v>
+        <v>301</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>156</v>
+        <v>302</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N118" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O118" t="s" s="2">
         <v>73</v>
       </c>
@@ -14765,19 +14745,19 @@
         <v>73</v>
       </c>
       <c r="AA118" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC118" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD118" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>159</v>
+        <v>305</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -14789,7 +14769,7 @@
         <v>73</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>73</v>
@@ -14798,12 +14778,12 @@
         <v>73</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>154</v>
+        <v>306</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14814,7 +14794,7 @@
         <v>74</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>73</v>
@@ -14823,23 +14803,19 @@
         <v>73</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>299</v>
+        <v>84</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>73</v>
       </c>
@@ -14887,19 +14863,19 @@
         <v>73</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>304</v>
+        <v>153</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>73</v>
@@ -14908,23 +14884,23 @@
         <v>73</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>305</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>73</v>
@@ -14936,15 +14912,17 @@
         <v>73</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M120" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>73</v>
@@ -14981,31 +14959,31 @@
         <v>73</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>73</v>
@@ -15019,18 +14997,18 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>73</v>
@@ -15039,21 +15017,23 @@
         <v>73</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>156</v>
+        <v>311</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N121" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O121" t="s" s="2">
         <v>73</v>
       </c>
@@ -15062,7 +15042,7 @@
         <v>73</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>73</v>
+        <v>474</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>73</v>
@@ -15089,31 +15069,31 @@
         <v>73</v>
       </c>
       <c r="AA121" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD121" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>159</v>
+        <v>315</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>73</v>
@@ -15122,12 +15102,12 @@
         <v>73</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>154</v>
+        <v>316</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15150,20 +15130,18 @@
         <v>83</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>73</v>
       </c>
@@ -15172,7 +15150,7 @@
         <v>73</v>
       </c>
       <c r="R122" t="s" s="2">
-        <v>478</v>
+        <v>73</v>
       </c>
       <c r="S122" t="s" s="2">
         <v>73</v>
@@ -15211,7 +15189,7 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
@@ -15232,12 +15210,12 @@
         <v>73</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15260,18 +15238,18 @@
         <v>83</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N123" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M123" s="2"/>
+      <c r="N123" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O123" t="s" s="2">
         <v>73</v>
       </c>
@@ -15319,7 +15297,7 @@
         <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
@@ -15340,12 +15318,12 @@
         <v>73</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15368,17 +15346,17 @@
         <v>83</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>73</v>
@@ -15427,7 +15405,7 @@
         <v>73</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -15448,12 +15426,12 @@
         <v>73</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15476,17 +15454,19 @@
         <v>83</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>188</v>
+        <v>336</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M125" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N125" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>73</v>
@@ -15535,7 +15515,7 @@
         <v>73</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
@@ -15556,12 +15536,12 @@
         <v>73</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15584,19 +15564,19 @@
         <v>83</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>335</v>
+        <v>188</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>73</v>
@@ -15645,7 +15625,7 @@
         <v>73</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>74</v>
@@ -15666,12 +15646,12 @@
         <v>73</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15682,7 +15662,7 @@
         <v>74</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>73</v>
@@ -15694,20 +15674,16 @@
         <v>83</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>343</v>
+        <v>481</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>73</v>
       </c>
@@ -15731,13 +15707,13 @@
         <v>73</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>73</v>
+        <v>465</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>73</v>
+        <v>466</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>73</v>
@@ -15755,13 +15731,13 @@
         <v>73</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>347</v>
+        <v>480</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>73</v>
@@ -15770,13 +15746,13 @@
         <v>94</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>73</v>
+        <v>483</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>348</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128">
@@ -15804,7 +15780,7 @@
         <v>83</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="K128" t="s" s="2">
         <v>485</v>
@@ -15837,13 +15813,13 @@
         <v>73</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>469</v>
+        <v>73</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>470</v>
+        <v>73</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>73</v>
@@ -15873,7 +15849,7 @@
         <v>73</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>94</v>
+        <v>283</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>487</v>
@@ -15898,7 +15874,7 @@
         <v>74</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>73</v>
@@ -15907,16 +15883,16 @@
         <v>73</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>489</v>
+        <v>188</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>490</v>
+        <v>151</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>491</v>
+        <v>152</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -15967,44 +15943,44 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>488</v>
+        <v>153</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>492</v>
+        <v>73</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>73</v>
@@ -16016,15 +15992,17 @@
         <v>73</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M130" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
         <v>73</v>
@@ -16073,19 +16051,19 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>73</v>
@@ -16099,11 +16077,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16116,24 +16094,26 @@
         <v>73</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>129</v>
+        <v>289</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N131" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O131" t="s" s="2">
         <v>73</v>
       </c>
@@ -16169,19 +16149,19 @@
         <v>73</v>
       </c>
       <c r="AA131" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB131" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD131" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -16193,7 +16173,7 @@
         <v>73</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>73</v>
@@ -16202,48 +16182,44 @@
         <v>73</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I132" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>288</v>
+        <v>492</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>73</v>
       </c>
@@ -16291,19 +16267,19 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>374</v>
+        <v>491</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>73</v>
@@ -16312,12 +16288,12 @@
         <v>73</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16325,7 +16301,7 @@
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F133" t="s" s="2">
         <v>82</v>
@@ -16337,16 +16313,16 @@
         <v>73</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>497</v>
+        <v>151</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>498</v>
+        <v>152</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -16397,7 +16373,7 @@
         <v>73</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>499</v>
+        <v>153</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>74</v>
@@ -16409,7 +16385,7 @@
         <v>73</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>73</v>
@@ -16418,23 +16394,23 @@
         <v>73</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>73</v>
@@ -16446,15 +16422,17 @@
         <v>73</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M134" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>73</v>
@@ -16491,31 +16469,31 @@
         <v>73</v>
       </c>
       <c r="AA134" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC134" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD134" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>73</v>
@@ -16529,11 +16507,11 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -16549,21 +16527,23 @@
         <v>73</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>128</v>
+        <v>300</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>129</v>
+        <v>301</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>156</v>
+        <v>302</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N135" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O135" t="s" s="2">
         <v>73</v>
       </c>
@@ -16599,19 +16579,19 @@
         <v>73</v>
       </c>
       <c r="AA135" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB135" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD135" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>159</v>
+        <v>305</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>74</v>
@@ -16623,7 +16603,7 @@
         <v>73</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>73</v>
@@ -16632,12 +16612,12 @@
         <v>73</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>154</v>
+        <v>306</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16648,7 +16628,7 @@
         <v>74</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>73</v>
@@ -16657,23 +16637,19 @@
         <v>73</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>299</v>
+        <v>84</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>73</v>
       </c>
@@ -16721,19 +16697,19 @@
         <v>73</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>304</v>
+        <v>153</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>73</v>
@@ -16742,23 +16718,23 @@
         <v>73</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>305</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>73</v>
@@ -16770,15 +16746,17 @@
         <v>73</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M137" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
         <v>73</v>
@@ -16815,31 +16793,31 @@
         <v>73</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC137" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>73</v>
@@ -16853,18 +16831,18 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>73</v>
@@ -16873,21 +16851,23 @@
         <v>73</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>156</v>
+        <v>311</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N138" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O138" t="s" s="2">
         <v>73</v>
       </c>
@@ -16896,7 +16876,7 @@
         <v>73</v>
       </c>
       <c r="R138" t="s" s="2">
-        <v>73</v>
+        <v>500</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>73</v>
@@ -16923,31 +16903,31 @@
         <v>73</v>
       </c>
       <c r="AA138" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB138" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD138" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>159</v>
+        <v>315</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>73</v>
@@ -16956,12 +16936,12 @@
         <v>73</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>154</v>
+        <v>316</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16984,20 +16964,18 @@
         <v>83</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
         <v>73</v>
       </c>
@@ -17006,7 +16984,7 @@
         <v>73</v>
       </c>
       <c r="R139" t="s" s="2">
-        <v>506</v>
+        <v>73</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>73</v>
@@ -17045,7 +17023,7 @@
         <v>73</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>74</v>
@@ -17066,12 +17044,12 @@
         <v>73</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17094,18 +17072,18 @@
         <v>83</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N140" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M140" s="2"/>
+      <c r="N140" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O140" t="s" s="2">
         <v>73</v>
       </c>
@@ -17153,7 +17131,7 @@
         <v>73</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>74</v>
@@ -17174,12 +17152,12 @@
         <v>73</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17202,17 +17180,17 @@
         <v>83</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>73</v>
@@ -17261,7 +17239,7 @@
         <v>73</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>74</v>
@@ -17282,12 +17260,12 @@
         <v>73</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17310,17 +17288,19 @@
         <v>83</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>188</v>
+        <v>336</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M142" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N142" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>73</v>
@@ -17369,7 +17349,7 @@
         <v>73</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>74</v>
@@ -17390,12 +17370,12 @@
         <v>73</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17418,19 +17398,19 @@
         <v>83</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>335</v>
+        <v>188</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>73</v>
@@ -17479,7 +17459,7 @@
         <v>73</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>74</v>
@@ -17500,12 +17480,12 @@
         <v>73</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17513,7 +17493,7 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F144" t="s" s="2">
         <v>82</v>
@@ -17528,20 +17508,16 @@
         <v>83</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>188</v>
+        <v>507</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>343</v>
+        <v>508</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
         <v>73</v>
       </c>
@@ -17589,7 +17565,7 @@
         <v>73</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>347</v>
+        <v>506</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>74</v>
@@ -17610,12 +17586,12 @@
         <v>73</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>348</v>
+        <v>73</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17623,10 +17599,10 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>73</v>
@@ -17638,13 +17614,13 @@
         <v>83</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>513</v>
+        <v>170</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -17695,13 +17671,13 @@
         <v>73</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>73</v>
@@ -17721,7 +17697,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17744,13 +17720,13 @@
         <v>83</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -17801,7 +17777,7 @@
         <v>73</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>74</v>
@@ -17816,7 +17792,7 @@
         <v>94</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>73</v>
+        <v>516</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>73</v>
@@ -17827,7 +17803,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17850,13 +17826,13 @@
         <v>83</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>202</v>
+        <v>280</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -17907,7 +17883,7 @@
         <v>73</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>74</v>
@@ -17919,10 +17895,10 @@
         <v>73</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>94</v>
+        <v>283</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>73</v>
@@ -17933,7 +17909,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -17944,7 +17920,7 @@
         <v>74</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>73</v>
@@ -17953,16 +17929,16 @@
         <v>73</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>526</v>
+        <v>151</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>527</v>
+        <v>152</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -18013,44 +17989,44 @@
         <v>73</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>525</v>
+        <v>153</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>528</v>
+        <v>73</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>73</v>
@@ -18062,15 +18038,17 @@
         <v>73</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M149" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>73</v>
@@ -18119,19 +18097,19 @@
         <v>73</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>73</v>
@@ -18145,11 +18123,11 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -18162,24 +18140,26 @@
         <v>73</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>129</v>
+        <v>289</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N150" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N150" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O150" t="s" s="2">
         <v>73</v>
       </c>
@@ -18227,7 +18207,7 @@
         <v>73</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>74</v>
@@ -18239,7 +18219,7 @@
         <v>73</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>73</v>
@@ -18248,48 +18228,44 @@
         <v>73</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>288</v>
+        <v>525</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
         <v>73</v>
       </c>
@@ -18313,13 +18289,13 @@
         <v>73</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>73</v>
+        <v>527</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>73</v>
+        <v>528</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>73</v>
@@ -18337,33 +18313,33 @@
         <v>73</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>290</v>
+        <v>524</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>73</v>
+        <v>529</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18371,7 +18347,7 @@
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F152" t="s" s="2">
         <v>82</v>
@@ -18386,13 +18362,13 @@
         <v>83</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>170</v>
+        <v>531</v>
       </c>
       <c r="K152" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L152" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="L152" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -18419,13 +18395,13 @@
         <v>73</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>535</v>
+        <v>73</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>536</v>
+        <v>73</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>73</v>
@@ -18443,10 +18419,10 @@
         <v>73</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>82</v>
@@ -18458,7 +18434,7 @@
         <v>94</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>73</v>
@@ -18469,7 +18445,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18480,7 +18456,7 @@
         <v>74</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>73</v>
@@ -18492,13 +18468,13 @@
         <v>83</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>539</v>
+        <v>280</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -18549,22 +18525,22 @@
         <v>73</v>
       </c>
       <c r="AE153" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AF153" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI153" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AJ153" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AF153" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG153" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI153" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ153" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>73</v>
@@ -18575,7 +18551,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18586,7 +18562,7 @@
         <v>74</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>73</v>
@@ -18595,16 +18571,16 @@
         <v>73</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>544</v>
+        <v>151</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>545</v>
+        <v>152</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -18655,44 +18631,44 @@
         <v>73</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>543</v>
+        <v>153</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>546</v>
+        <v>73</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>73</v>
@@ -18704,15 +18680,17 @@
         <v>73</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M155" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>73</v>
@@ -18761,19 +18739,19 @@
         <v>73</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>73</v>
@@ -18787,11 +18765,11 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -18804,24 +18782,26 @@
         <v>73</v>
       </c>
       <c r="H156" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>129</v>
+        <v>289</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N156" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O156" t="s" s="2">
         <v>73</v>
       </c>
@@ -18869,7 +18849,7 @@
         <v>73</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>74</v>
@@ -18881,7 +18861,7 @@
         <v>73</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>73</v>
@@ -18890,48 +18870,44 @@
         <v>73</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>128</v>
+        <v>543</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>288</v>
+        <v>544</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M157" s="2"/>
+      <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
         <v>73</v>
       </c>
@@ -18979,33 +18955,33 @@
         <v>73</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>290</v>
+        <v>542</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>73</v>
+        <v>546</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19013,7 +18989,7 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F158" t="s" s="2">
         <v>82</v>
@@ -19028,13 +19004,13 @@
         <v>83</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>551</v>
+        <v>232</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -19085,10 +19061,10 @@
         <v>73</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>82</v>
@@ -19100,7 +19076,7 @@
         <v>94</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>73</v>
@@ -19111,7 +19087,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19122,7 +19098,7 @@
         <v>74</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>73</v>
@@ -19134,13 +19110,13 @@
         <v>83</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -19191,13 +19167,13 @@
         <v>73</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>73</v>
@@ -19206,118 +19182,12 @@
         <v>94</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="AK159" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B160" s="2"/>
-      <c r="C160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I160" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M160" s="2"/>
-      <c r="N160" s="2"/>
-      <c r="O160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P160" s="2"/>
-      <c r="Q160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI160" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ160" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AK160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL160" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:44:59+00:00</t>
+    <t>2022-11-18T19:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:50:12+00:00</t>
+    <t>2022-11-18T19:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:51:53+00:00</t>
+    <t>2022-11-18T19:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:52:09+00:00</t>
+    <t>2022-11-18T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:57:45+00:00</t>
+    <t>2022-11-19T06:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5655" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5279" uniqueCount="553">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:26:15+00:00</t>
+    <t>2022-11-19T22:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -811,9 +811,6 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/ValueSet/unit-of-presentation-vs</t>
-  </si>
-  <si>
     <t>Quantity.unit</t>
   </si>
   <si>
@@ -860,6 +857,9 @@
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/unit-of-presentation-vs</t>
+  </si>
+  <si>
     <t>Quantity.code</t>
   </si>
   <si>
@@ -1448,58 +1448,25 @@
     <t>EMA IG 4.8.7</t>
   </si>
   <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/material-vs</t>
+  </si>
+  <si>
+    <t>Package Item (Container).Material</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.alternateMaterial</t>
+  </si>
+  <si>
+    <t>A possible alternate material for this part of the packaging, that is allowed to be used instead of the usual material</t>
+  </si>
+  <si>
+    <t>A possible alternate material for this part of the packaging, that is allowed to be used instead of the usual material (e.g. different types of plastic for a blister sleeve).</t>
+  </si>
+  <si>
     <t>A material used in the construction of packages and their components.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/package-material</t>
-  </si>
-  <si>
-    <t>Package Item (Container).Material</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.system</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.code</t>
-  </si>
-  <si>
-    <t>http://unicom-project.eu/fhir/ValueSet/material-vs</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.userSelected</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.text</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.alternateMaterial</t>
-  </si>
-  <si>
-    <t>A possible alternate material for this part of the packaging, that is allowed to be used instead of the usual material</t>
-  </si>
-  <si>
-    <t>A possible alternate material for this part of the packaging, that is allowed to be used instead of the usual material (e.g. different types of plastic for a blister sleeve).</t>
   </si>
   <si>
     <t>Package Item (Container).Alternate Material</t>
@@ -2039,7 +2006,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL166"/>
+  <dimension ref="A1:AL155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5376,29 +5343,31 @@
         <v>73</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -5419,12 +5388,12 @@
         <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5450,14 +5419,14 @@
         <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>73</v>
@@ -5467,55 +5436,55 @@
         <v>73</v>
       </c>
       <c r="R32" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="S32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE32" t="s" s="2">
+      <c r="AF32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH32" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>94</v>
@@ -5527,12 +5496,12 @@
         <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5558,16 +5527,16 @@
         <v>102</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>73</v>
@@ -5592,13 +5561,11 @@
         <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>73</v>
+        <v>272</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>73</v>
@@ -14432,13 +14399,11 @@
         <v>73</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X115" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X115" s="2"/>
+      <c r="Y115" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>73</v>
@@ -14471,7 +14436,7 @@
         <v>94</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>73</v>
@@ -14482,7 +14447,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14493,7 +14458,7 @@
         <v>74</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>73</v>
@@ -14502,16 +14467,16 @@
         <v>73</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>151</v>
+        <v>469</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>152</v>
+        <v>470</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14538,13 +14503,13 @@
         <v>73</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>73</v>
+        <v>471</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>73</v>
+        <v>472</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>73</v>
@@ -14562,37 +14527,37 @@
         <v>73</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>153</v>
+        <v>468</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>73</v>
+        <v>473</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14608,20 +14573,18 @@
         <v>73</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>129</v>
+        <v>281</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>130</v>
+        <v>475</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>73</v>
@@ -14658,19 +14621,19 @@
         <v>73</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>159</v>
+        <v>474</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
@@ -14682,21 +14645,21 @@
         <v>73</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>134</v>
+        <v>284</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>73</v>
+        <v>477</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14707,7 +14670,7 @@
         <v>74</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>73</v>
@@ -14716,23 +14679,19 @@
         <v>73</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>301</v>
+        <v>188</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>302</v>
+        <v>151</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>73</v>
       </c>
@@ -14780,19 +14739,19 @@
         <v>73</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>73</v>
@@ -14801,23 +14760,23 @@
         <v>73</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>307</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>73</v>
@@ -14829,15 +14788,17 @@
         <v>73</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M119" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>73</v>
@@ -14886,19 +14847,19 @@
         <v>73</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>73</v>
@@ -14912,11 +14873,11 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>128</v>
+        <v>289</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -14929,24 +14890,26 @@
         <v>73</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J120" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>156</v>
+        <v>291</v>
       </c>
       <c r="M120" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="N120" s="2"/>
+      <c r="N120" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O120" t="s" s="2">
         <v>73</v>
       </c>
@@ -14982,19 +14945,19 @@
         <v>73</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>159</v>
+        <v>292</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
@@ -15015,12 +14978,12 @@
         <v>73</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15028,7 +14991,7 @@
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F121" t="s" s="2">
         <v>82</v>
@@ -15043,20 +15006,16 @@
         <v>83</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>311</v>
+        <v>482</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>73</v>
       </c>
@@ -15104,7 +15063,7 @@
         <v>73</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>315</v>
+        <v>481</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
@@ -15125,12 +15084,12 @@
         <v>73</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>316</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15150,20 +15109,18 @@
         <v>73</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>318</v>
+        <v>151</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>73</v>
@@ -15212,7 +15169,7 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>321</v>
+        <v>153</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
@@ -15224,7 +15181,7 @@
         <v>73</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>73</v>
@@ -15233,23 +15190,23 @@
         <v>73</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>322</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>73</v>
@@ -15258,21 +15215,21 @@
         <v>73</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>324</v>
+        <v>130</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M123" s="2"/>
-      <c r="N123" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>73</v>
       </c>
@@ -15296,41 +15253,43 @@
         <v>73</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X123" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y123" t="s" s="2">
-        <v>477</v>
+        <v>73</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA123" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB123" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC123" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD123" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>328</v>
+        <v>159</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>73</v>
@@ -15339,12 +15298,12 @@
         <v>73</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>329</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15355,7 +15314,7 @@
         <v>74</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>73</v>
@@ -15367,17 +15326,19 @@
         <v>83</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>188</v>
+        <v>301</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M124" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="N124" t="s" s="2">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>73</v>
@@ -15426,13 +15387,13 @@
         <v>73</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>73</v>
@@ -15447,12 +15408,12 @@
         <v>73</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>335</v>
+        <v>307</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15472,23 +15433,19 @@
         <v>73</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>337</v>
+        <v>84</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>338</v>
+        <v>151</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>73</v>
       </c>
@@ -15536,7 +15493,7 @@
         <v>73</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>342</v>
+        <v>153</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
@@ -15548,7 +15505,7 @@
         <v>73</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>73</v>
@@ -15557,23 +15514,23 @@
         <v>73</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>343</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>73</v>
@@ -15582,23 +15539,21 @@
         <v>73</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>345</v>
+        <v>130</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>346</v>
+        <v>156</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>73</v>
       </c>
@@ -15634,31 +15589,31 @@
         <v>73</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB126" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC126" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD126" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>349</v>
+        <v>159</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>73</v>
@@ -15667,12 +15622,12 @@
         <v>73</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>350</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15683,7 +15638,7 @@
         <v>74</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>73</v>
@@ -15695,16 +15650,20 @@
         <v>83</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>482</v>
+        <v>311</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O127" t="s" s="2">
         <v>73</v>
       </c>
@@ -15713,7 +15672,7 @@
         <v>73</v>
       </c>
       <c r="R127" t="s" s="2">
-        <v>73</v>
+        <v>490</v>
       </c>
       <c r="S127" t="s" s="2">
         <v>73</v>
@@ -15728,13 +15687,13 @@
         <v>73</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>466</v>
+        <v>73</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>467</v>
+        <v>73</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>73</v>
@@ -15752,13 +15711,13 @@
         <v>73</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>481</v>
+        <v>315</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>73</v>
@@ -15767,18 +15726,18 @@
         <v>94</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>484</v>
+        <v>73</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>73</v>
+        <v>316</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15789,7 +15748,7 @@
         <v>74</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>73</v>
@@ -15801,15 +15760,17 @@
         <v>83</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>281</v>
+        <v>188</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>486</v>
+        <v>318</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M128" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>73</v>
@@ -15858,33 +15819,33 @@
         <v>73</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>485</v>
+        <v>321</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>284</v>
+        <v>94</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>488</v>
+        <v>73</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>73</v>
+        <v>322</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15904,19 +15865,21 @@
         <v>73</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>151</v>
+        <v>324</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>152</v>
+        <v>325</v>
       </c>
       <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
+      <c r="N129" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O129" t="s" s="2">
         <v>73</v>
       </c>
@@ -15964,7 +15927,7 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>153</v>
+        <v>328</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
@@ -15976,7 +15939,7 @@
         <v>73</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>73</v>
@@ -15985,23 +15948,23 @@
         <v>73</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>154</v>
+        <v>329</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>73</v>
@@ -16010,21 +15973,21 @@
         <v>73</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>130</v>
+        <v>331</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N130" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="M130" s="2"/>
+      <c r="N130" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O130" t="s" s="2">
         <v>73</v>
       </c>
@@ -16072,19 +16035,19 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>159</v>
+        <v>334</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>73</v>
@@ -16093,47 +16056,47 @@
         <v>73</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>154</v>
+        <v>335</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>289</v>
+        <v>73</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I131" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>129</v>
+        <v>337</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>132</v>
+        <v>340</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>138</v>
+        <v>341</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>73</v>
@@ -16182,19 +16145,19 @@
         <v>73</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>73</v>
@@ -16203,12 +16166,12 @@
         <v>73</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>126</v>
+        <v>343</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16216,7 +16179,7 @@
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F132" t="s" s="2">
         <v>82</v>
@@ -16231,16 +16194,20 @@
         <v>83</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>493</v>
+        <v>345</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O132" t="s" s="2">
         <v>73</v>
       </c>
@@ -16288,7 +16255,7 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>492</v>
+        <v>349</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
@@ -16309,12 +16276,12 @@
         <v>73</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>73</v>
+        <v>350</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16322,7 +16289,7 @@
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F133" t="s" s="2">
         <v>82</v>
@@ -16334,16 +16301,16 @@
         <v>73</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>84</v>
+        <v>497</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>151</v>
+        <v>498</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>152</v>
+        <v>499</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -16394,7 +16361,7 @@
         <v>73</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>153</v>
+        <v>496</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>74</v>
@@ -16406,7 +16373,7 @@
         <v>73</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>73</v>
@@ -16415,16 +16382,16 @@
         <v>73</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -16440,20 +16407,18 @@
         <v>73</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>130</v>
+        <v>501</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="M134" s="2"/>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>73</v>
@@ -16490,19 +16455,19 @@
         <v>73</v>
       </c>
       <c r="AA134" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC134" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD134" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>159</v>
+        <v>500</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>74</v>
@@ -16514,7 +16479,7 @@
         <v>73</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>73</v>
@@ -16523,12 +16488,12 @@
         <v>73</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16551,20 +16516,16 @@
         <v>83</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>302</v>
+        <v>504</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>73</v>
       </c>
@@ -16612,7 +16573,7 @@
         <v>73</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>306</v>
+        <v>503</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>74</v>
@@ -16627,18 +16588,18 @@
         <v>94</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>73</v>
+        <v>506</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>307</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16649,7 +16610,7 @@
         <v>74</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>73</v>
@@ -16658,16 +16619,16 @@
         <v>73</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>84</v>
+        <v>281</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>151</v>
+        <v>508</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>152</v>
+        <v>509</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -16718,44 +16679,44 @@
         <v>73</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>153</v>
+        <v>507</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>73</v>
+        <v>284</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>73</v>
+        <v>510</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>73</v>
@@ -16767,17 +16728,15 @@
         <v>73</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M137" s="2"/>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
         <v>73</v>
@@ -16814,31 +16773,31 @@
         <v>73</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC137" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>73</v>
@@ -16852,18 +16811,18 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>73</v>
@@ -16872,23 +16831,21 @@
         <v>73</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>311</v>
+        <v>130</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>312</v>
+        <v>156</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
         <v>73</v>
       </c>
@@ -16897,7 +16854,7 @@
         <v>73</v>
       </c>
       <c r="R138" t="s" s="2">
-        <v>501</v>
+        <v>73</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>73</v>
@@ -16936,19 +16893,19 @@
         <v>73</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>315</v>
+        <v>159</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>73</v>
@@ -16957,46 +16914,48 @@
         <v>73</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>316</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I139" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N139" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O139" t="s" s="2">
         <v>73</v>
       </c>
@@ -17044,19 +17003,19 @@
         <v>73</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>73</v>
@@ -17065,12 +17024,12 @@
         <v>73</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>322</v>
+        <v>126</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17078,7 +17037,7 @@
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F140" t="s" s="2">
         <v>82</v>
@@ -17093,18 +17052,16 @@
         <v>83</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>324</v>
+        <v>515</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>325</v>
+        <v>516</v>
       </c>
       <c r="M140" s="2"/>
-      <c r="N140" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>73</v>
       </c>
@@ -17128,13 +17085,13 @@
         <v>73</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>73</v>
+        <v>517</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>73</v>
+        <v>518</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>73</v>
@@ -17152,10 +17109,10 @@
         <v>73</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>328</v>
+        <v>514</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>82</v>
@@ -17167,18 +17124,18 @@
         <v>94</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>73</v>
+        <v>519</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>329</v>
+        <v>73</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17201,18 +17158,16 @@
         <v>83</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>188</v>
+        <v>521</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>331</v>
+        <v>522</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>332</v>
+        <v>523</v>
       </c>
       <c r="M141" s="2"/>
-      <c r="N141" t="s" s="2">
-        <v>333</v>
-      </c>
+      <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
         <v>73</v>
       </c>
@@ -17260,7 +17215,7 @@
         <v>73</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>334</v>
+        <v>520</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>74</v>
@@ -17275,18 +17230,18 @@
         <v>94</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>73</v>
+        <v>524</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>335</v>
+        <v>73</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17297,7 +17252,7 @@
         <v>74</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>73</v>
@@ -17309,20 +17264,16 @@
         <v>83</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>337</v>
+        <v>281</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>338</v>
+        <v>526</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
         <v>73</v>
       </c>
@@ -17370,33 +17321,33 @@
         <v>73</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>342</v>
+        <v>525</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>94</v>
+        <v>284</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>73</v>
+        <v>528</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>343</v>
+        <v>73</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17416,23 +17367,19 @@
         <v>73</v>
       </c>
       <c r="I143" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J143" t="s" s="2">
         <v>188</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>345</v>
+        <v>151</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
         <v>73</v>
       </c>
@@ -17480,7 +17427,7 @@
         <v>73</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>349</v>
+        <v>153</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>74</v>
@@ -17492,7 +17439,7 @@
         <v>73</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>73</v>
@@ -17501,23 +17448,23 @@
         <v>73</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>350</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>73</v>
@@ -17526,18 +17473,20 @@
         <v>73</v>
       </c>
       <c r="I144" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>508</v>
+        <v>129</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>509</v>
+        <v>130</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M144" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
         <v>73</v>
@@ -17586,19 +17535,19 @@
         <v>73</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>507</v>
+        <v>159</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>73</v>
@@ -17607,16 +17556,16 @@
         <v>73</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -17629,22 +17578,26 @@
         <v>73</v>
       </c>
       <c r="H145" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I145" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>512</v>
+        <v>290</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O145" t="s" s="2">
         <v>73</v>
       </c>
@@ -17692,7 +17645,7 @@
         <v>73</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>511</v>
+        <v>292</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>74</v>
@@ -17704,7 +17657,7 @@
         <v>73</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>73</v>
@@ -17713,12 +17666,12 @@
         <v>73</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17726,10 +17679,10 @@
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>73</v>
@@ -17741,13 +17694,13 @@
         <v>83</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>202</v>
+        <v>533</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -17798,13 +17751,13 @@
         <v>73</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>73</v>
@@ -17813,7 +17766,7 @@
         <v>94</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>73</v>
@@ -17824,7 +17777,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17835,7 +17788,7 @@
         <v>74</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>73</v>
@@ -17847,13 +17800,13 @@
         <v>83</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -17904,22 +17857,22 @@
         <v>73</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>284</v>
+        <v>94</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>73</v>
@@ -17930,7 +17883,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -17953,7 +17906,7 @@
         <v>73</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>151</v>
@@ -18036,7 +17989,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18106,16 +18059,16 @@
         <v>73</v>
       </c>
       <c r="AA149" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB149" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC149" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD149" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE149" t="s" s="2">
         <v>159</v>
@@ -18144,42 +18097,42 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>289</v>
+        <v>73</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>138</v>
+        <v>242</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>73</v>
@@ -18228,19 +18181,19 @@
         <v>73</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>73</v>
@@ -18249,12 +18202,12 @@
         <v>73</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>126</v>
+        <v>244</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18262,7 +18215,7 @@
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F151" t="s" s="2">
         <v>82</v>
@@ -18271,26 +18224,30 @@
         <v>73</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>526</v>
+        <v>246</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>527</v>
+        <v>247</v>
       </c>
       <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
+      <c r="N151" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O151" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P151" s="2"/>
+      <c r="P151" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="Q151" t="s" s="2">
         <v>73</v>
       </c>
@@ -18310,13 +18267,11 @@
         <v>73</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X151" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X151" s="2"/>
       <c r="Y151" t="s" s="2">
-        <v>529</v>
+        <v>250</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>73</v>
@@ -18334,10 +18289,10 @@
         <v>73</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>525</v>
+        <v>251</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>82</v>
@@ -18349,18 +18304,18 @@
         <v>94</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>530</v>
+        <v>73</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>73</v>
+        <v>252</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18383,16 +18338,18 @@
         <v>83</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>532</v>
+        <v>188</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>533</v>
+        <v>254</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>534</v>
+        <v>255</v>
       </c>
       <c r="M152" s="2"/>
-      <c r="N152" s="2"/>
+      <c r="N152" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O152" t="s" s="2">
         <v>73</v>
       </c>
@@ -18440,7 +18397,7 @@
         <v>73</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>531</v>
+        <v>257</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>74</v>
@@ -18455,18 +18412,18 @@
         <v>94</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>535</v>
+        <v>73</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>73</v>
+        <v>258</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18477,7 +18434,7 @@
         <v>74</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>73</v>
@@ -18489,16 +18446,18 @@
         <v>83</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>281</v>
+        <v>96</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>537</v>
+        <v>260</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>538</v>
+        <v>261</v>
       </c>
       <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
+      <c r="N153" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O153" t="s" s="2">
         <v>73</v>
       </c>
@@ -18546,33 +18505,33 @@
         <v>73</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>536</v>
+        <v>264</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>73</v>
+        <v>265</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>284</v>
+        <v>94</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>539</v>
+        <v>73</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>73</v>
+        <v>266</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18592,19 +18551,23 @@
         <v>73</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>151</v>
+        <v>268</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N154" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O154" t="s" s="2">
         <v>73</v>
       </c>
@@ -18628,13 +18591,11 @@
         <v>73</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X154" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X154" s="2"/>
       <c r="Y154" t="s" s="2">
-        <v>73</v>
+        <v>548</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>73</v>
@@ -18652,7 +18613,7 @@
         <v>73</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>153</v>
+        <v>273</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>74</v>
@@ -18664,7 +18625,7 @@
         <v>73</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>73</v>
@@ -18673,16 +18634,16 @@
         <v>73</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>154</v>
+        <v>274</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -18698,20 +18659,18 @@
         <v>73</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>130</v>
+        <v>550</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="M155" s="2"/>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>73</v>
@@ -18760,7 +18719,7 @@
         <v>73</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>159</v>
+        <v>549</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>74</v>
@@ -18772,1199 +18731,15 @@
         <v>73</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>73</v>
+        <v>552</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B156" s="2"/>
-      <c r="C156" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="D156" s="2"/>
-      <c r="E156" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H156" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I156" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J156" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K156" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P156" s="2"/>
-      <c r="Q156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AF156" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI156" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL156" t="s" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="B157" s="2"/>
-      <c r="C157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D157" s="2"/>
-      <c r="E157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I157" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J157" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="K157" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="L157" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
-      <c r="O157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P157" s="2"/>
-      <c r="Q157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE157" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AF157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI157" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ157" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AK157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL157" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="B158" s="2"/>
-      <c r="C158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D158" s="2"/>
-      <c r="E158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F158" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I158" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J158" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="K158" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
-      <c r="O158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P158" s="2"/>
-      <c r="Q158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE158" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AF158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG158" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI158" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ158" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AK158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL158" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="B159" s="2"/>
-      <c r="C159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D159" s="2"/>
-      <c r="E159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F159" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K159" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
-      <c r="O159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P159" s="2"/>
-      <c r="Q159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="B160" s="2"/>
-      <c r="C160" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J160" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N160" s="2"/>
-      <c r="O160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P160" s="2"/>
-      <c r="Q160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI160" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL160" t="s" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="B161" s="2"/>
-      <c r="C161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D161" s="2"/>
-      <c r="E161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F161" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I161" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J161" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="K161" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P161" s="2"/>
-      <c r="Q161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE161" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AF161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG161" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI161" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL161" t="s" s="2">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="B162" s="2"/>
-      <c r="C162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D162" s="2"/>
-      <c r="E162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F162" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H162" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I162" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J162" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K162" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M162" s="2"/>
-      <c r="N162" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P162" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="Q162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W162" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X162" s="2"/>
-      <c r="Y162" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Z162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE162" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AF162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG162" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI162" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL162" t="s" s="2">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="B163" s="2"/>
-      <c r="C163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D163" s="2"/>
-      <c r="E163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F163" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I163" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J163" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K163" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M163" s="2"/>
-      <c r="N163" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P163" s="2"/>
-      <c r="Q163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE163" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AF163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG163" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI163" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL163" t="s" s="2">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="B164" s="2"/>
-      <c r="C164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D164" s="2"/>
-      <c r="E164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F164" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I164" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J164" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K164" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="L164" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M164" s="2"/>
-      <c r="N164" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P164" s="2"/>
-      <c r="Q164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE164" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AF164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG164" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH164" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AI164" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL164" t="s" s="2">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="B165" s="2"/>
-      <c r="C165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D165" s="2"/>
-      <c r="E165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F165" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I165" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J165" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K165" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P165" s="2"/>
-      <c r="Q165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W165" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X165" s="2"/>
-      <c r="Y165" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="Z165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE165" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AF165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG165" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI165" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL165" t="s" s="2">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="B166" s="2"/>
-      <c r="C166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D166" s="2"/>
-      <c r="E166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I166" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K166" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
-      <c r="O166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P166" s="2"/>
-      <c r="Q166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE166" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AF166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI166" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ166" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AK166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL166" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:53:07+00:00</t>
+    <t>2022-11-20T07:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:00:59+00:00</t>
+    <t>2022-11-20T07:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:03:41+00:00</t>
+    <t>2022-11-20T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5279" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4799" uniqueCount="539">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:12:02+00:00</t>
+    <t>2022-11-20T17:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1125,28 +1125,7 @@
     <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.coding</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.coding.system</t>
-  </si>
-  <si>
-    <t>https://spor.ema.europa.eu/v1/lists/100000000002</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.coding.userSelected</t>
+    <t>http://unicom-project.eu/fhir/ValueSet/country-ema-vs</t>
   </si>
   <si>
     <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.text</t>
@@ -1196,27 +1175,6 @@
   </si>
   <si>
     <t>PackagedProductDefinition.marketingStatus.country.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.marketingStatus.country.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.marketingStatus.country.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.marketingStatus.country.coding.system</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.marketingStatus.country.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.marketingStatus.country.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.marketingStatus.country.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.marketingStatus.country.coding.userSelected</t>
   </si>
   <si>
     <t>PackagedProductDefinition.marketingStatus.country.text</t>
@@ -2006,7 +1964,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL155"/>
+  <dimension ref="A1:AL141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7821,13 +7779,11 @@
         <v>73</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>73</v>
@@ -7871,7 +7827,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7891,19 +7847,23 @@
         <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>151</v>
+        <v>345</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>73</v>
       </c>
@@ -7951,7 +7911,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>153</v>
+        <v>349</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7963,7 +7923,7 @@
         <v>73</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>73</v>
@@ -7972,16 +7932,16 @@
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>154</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7997,20 +7957,18 @@
         <v>73</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>129</v>
+        <v>362</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>130</v>
+        <v>363</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>73</v>
@@ -8047,19 +8005,19 @@
         <v>73</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>159</v>
+        <v>361</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -8071,21 +8029,21 @@
         <v>73</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>73</v>
+        <v>365</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8105,23 +8063,19 @@
         <v>73</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>311</v>
+        <v>151</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>73</v>
       </c>
@@ -8130,7 +8084,7 @@
         <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>362</v>
+        <v>73</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>73</v>
@@ -8169,7 +8123,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>315</v>
+        <v>153</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -8181,7 +8135,7 @@
         <v>73</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>73</v>
@@ -8190,23 +8144,23 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>316</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>73</v>
@@ -8215,19 +8169,19 @@
         <v>73</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>318</v>
+        <v>130</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>319</v>
+        <v>156</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>320</v>
+        <v>132</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8265,31 +8219,31 @@
         <v>73</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>321</v>
+        <v>159</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>73</v>
@@ -8298,45 +8252,47 @@
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>322</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N59" t="s" s="2">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>73</v>
@@ -8385,19 +8341,19 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>73</v>
@@ -8406,12 +8362,12 @@
         <v>73</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>329</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8419,7 +8375,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>82</v>
@@ -8434,18 +8390,16 @@
         <v>83</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>333</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>73</v>
       </c>
@@ -8493,7 +8447,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -8514,12 +8468,12 @@
         <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>335</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8539,23 +8493,19 @@
         <v>73</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>337</v>
+        <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>338</v>
+        <v>151</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>73</v>
       </c>
@@ -8603,7 +8553,7 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>342</v>
+        <v>153</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8615,7 +8565,7 @@
         <v>73</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>73</v>
@@ -8624,23 +8574,23 @@
         <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>343</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -8649,23 +8599,21 @@
         <v>73</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>345</v>
+        <v>130</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>346</v>
+        <v>156</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>73</v>
       </c>
@@ -8701,31 +8649,31 @@
         <v>73</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>349</v>
+        <v>159</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>73</v>
@@ -8734,12 +8682,12 @@
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>350</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8762,16 +8710,20 @@
         <v>83</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>369</v>
+        <v>301</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>370</v>
+        <v>302</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>73</v>
       </c>
@@ -8795,13 +8747,11 @@
         <v>73</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X63" s="2"/>
       <c r="Y63" t="s" s="2">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>73</v>
@@ -8819,7 +8769,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8834,18 +8784,18 @@
         <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>372</v>
+        <v>73</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>73</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8865,19 +8815,23 @@
         <v>73</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>151</v>
+        <v>345</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>73</v>
       </c>
@@ -8925,7 +8879,7 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>153</v>
+        <v>349</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -8937,7 +8891,7 @@
         <v>73</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>73</v>
@@ -8946,23 +8900,23 @@
         <v>73</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>154</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>73</v>
@@ -8971,20 +8925,18 @@
         <v>73</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>130</v>
+        <v>378</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>73</v>
@@ -9021,31 +8973,31 @@
         <v>73</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>159</v>
+        <v>380</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>73</v>
@@ -9054,48 +9006,44 @@
         <v>73</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>289</v>
+        <v>73</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>290</v>
+        <v>382</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>73</v>
       </c>
@@ -9143,19 +9091,19 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>292</v>
+        <v>384</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>73</v>
@@ -9164,12 +9112,12 @@
         <v>73</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9177,7 +9125,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>82</v>
@@ -9189,16 +9137,16 @@
         <v>73</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>377</v>
+        <v>151</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>378</v>
+        <v>152</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9249,7 +9197,7 @@
         <v>73</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>379</v>
+        <v>153</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -9261,7 +9209,7 @@
         <v>73</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>73</v>
@@ -9270,23 +9218,23 @@
         <v>73</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>73</v>
@@ -9298,15 +9246,17 @@
         <v>73</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>73</v>
@@ -9343,31 +9293,31 @@
         <v>73</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>73</v>
@@ -9381,11 +9331,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9401,21 +9351,23 @@
         <v>73</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>129</v>
+        <v>301</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>130</v>
+        <v>302</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>156</v>
+        <v>303</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>73</v>
       </c>
@@ -9451,19 +9403,19 @@
         <v>73</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>159</v>
+        <v>306</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -9475,7 +9427,7 @@
         <v>73</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>73</v>
@@ -9484,12 +9436,12 @@
         <v>73</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>154</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9500,7 +9452,7 @@
         <v>74</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>73</v>
@@ -9509,23 +9461,19 @@
         <v>73</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>301</v>
+        <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>302</v>
+        <v>151</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>73</v>
       </c>
@@ -9573,19 +9521,19 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>73</v>
@@ -9594,23 +9542,23 @@
         <v>73</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>307</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>73</v>
@@ -9622,15 +9570,17 @@
         <v>73</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>73</v>
@@ -9667,31 +9617,31 @@
         <v>73</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>73</v>
@@ -9705,18 +9655,18 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>73</v>
@@ -9725,21 +9675,23 @@
         <v>73</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>130</v>
+        <v>311</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>156</v>
+        <v>312</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>73</v>
       </c>
@@ -9748,7 +9700,7 @@
         <v>73</v>
       </c>
       <c r="R72" t="s" s="2">
-        <v>73</v>
+        <v>391</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>73</v>
@@ -9775,31 +9727,31 @@
         <v>73</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>159</v>
+        <v>315</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>73</v>
@@ -9808,12 +9760,12 @@
         <v>73</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>154</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9836,20 +9788,18 @@
         <v>83</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>73</v>
       </c>
@@ -9858,7 +9808,7 @@
         <v>73</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>362</v>
+        <v>73</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>73</v>
@@ -9897,7 +9847,7 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -9918,12 +9868,12 @@
         <v>73</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9946,18 +9896,18 @@
         <v>83</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>73</v>
       </c>
@@ -10005,7 +9955,7 @@
         <v>73</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
@@ -10026,12 +9976,12 @@
         <v>73</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10054,17 +10004,17 @@
         <v>83</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>73</v>
@@ -10113,7 +10063,7 @@
         <v>73</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -10134,12 +10084,12 @@
         <v>73</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10162,17 +10112,19 @@
         <v>83</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>188</v>
+        <v>337</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="N76" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>73</v>
@@ -10221,7 +10173,7 @@
         <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -10242,12 +10194,12 @@
         <v>73</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10270,19 +10222,19 @@
         <v>83</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>337</v>
+        <v>188</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>73</v>
@@ -10331,7 +10283,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10352,12 +10304,12 @@
         <v>73</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10380,20 +10332,16 @@
         <v>83</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>73</v>
       </c>
@@ -10441,7 +10389,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10462,12 +10410,12 @@
         <v>73</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>350</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10490,13 +10438,13 @@
         <v>83</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10547,7 +10495,7 @@
         <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -10573,7 +10521,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10581,10 +10529,10 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>73</v>
@@ -10599,10 +10547,10 @@
         <v>170</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10629,13 +10577,13 @@
         <v>73</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>73</v>
+        <v>406</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>73</v>
+        <v>407</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>73</v>
@@ -10653,13 +10601,13 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>73</v>
@@ -10668,7 +10616,7 @@
         <v>94</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>73</v>
@@ -10679,7 +10627,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10699,23 +10647,25 @@
         <v>73</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>84</v>
+        <v>337</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>151</v>
+        <v>409</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>152</v>
+        <v>410</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="Q81" t="s" s="2">
         <v>73</v>
       </c>
@@ -10759,7 +10709,7 @@
         <v>73</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>153</v>
+        <v>408</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
@@ -10771,25 +10721,25 @@
         <v>73</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10805,20 +10755,18 @@
         <v>73</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>130</v>
+        <v>413</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>73</v>
@@ -10855,19 +10803,19 @@
         <v>73</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>159</v>
+        <v>412</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>74</v>
@@ -10879,21 +10827,21 @@
         <v>73</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>73</v>
+        <v>415</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10901,10 +10849,10 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>73</v>
@@ -10916,20 +10864,16 @@
         <v>83</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>302</v>
+        <v>417</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>73</v>
       </c>
@@ -10977,33 +10921,33 @@
         <v>73</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>94</v>
+        <v>284</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>73</v>
+        <v>419</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>307</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11026,7 +10970,7 @@
         <v>73</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>151</v>
@@ -11109,7 +11053,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11179,16 +11123,16 @@
         <v>73</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE85" t="s" s="2">
         <v>159</v>
@@ -11217,42 +11161,42 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>314</v>
+        <v>138</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>73</v>
@@ -11262,7 +11206,7 @@
         <v>73</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>405</v>
+        <v>73</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>73</v>
@@ -11301,19 +11245,19 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>73</v>
@@ -11322,12 +11266,12 @@
         <v>73</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>316</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11338,7 +11282,7 @@
         <v>74</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>73</v>
@@ -11350,17 +11294,15 @@
         <v>83</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>318</v>
+        <v>424</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>73</v>
@@ -11409,13 +11351,13 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>321</v>
+        <v>423</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>73</v>
@@ -11424,18 +11366,18 @@
         <v>94</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>73</v>
+        <v>426</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>322</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11443,7 +11385,7 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>82</v>
@@ -11458,18 +11400,16 @@
         <v>83</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>324</v>
+        <v>428</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>325</v>
+        <v>429</v>
       </c>
       <c r="M88" s="2"/>
-      <c r="N88" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>73</v>
       </c>
@@ -11493,13 +11433,13 @@
         <v>73</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>73</v>
+        <v>430</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>73</v>
@@ -11517,7 +11457,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>328</v>
+        <v>427</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -11532,18 +11472,18 @@
         <v>94</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>73</v>
+        <v>431</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>329</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11563,21 +11503,19 @@
         <v>73</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>331</v>
+        <v>151</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>332</v>
+        <v>152</v>
       </c>
       <c r="M89" s="2"/>
-      <c r="N89" t="s" s="2">
-        <v>333</v>
-      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>73</v>
       </c>
@@ -11625,7 +11563,7 @@
         <v>73</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>334</v>
+        <v>153</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -11637,7 +11575,7 @@
         <v>73</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>73</v>
@@ -11646,23 +11584,23 @@
         <v>73</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>335</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>73</v>
@@ -11671,23 +11609,21 @@
         <v>73</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>339</v>
+        <v>156</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>73</v>
       </c>
@@ -11723,31 +11659,31 @@
         <v>73</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC90" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD90" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>342</v>
+        <v>159</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>73</v>
@@ -11756,12 +11692,12 @@
         <v>73</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>343</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11772,7 +11708,7 @@
         <v>74</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>73</v>
@@ -11784,19 +11720,19 @@
         <v>83</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>188</v>
+        <v>301</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>73</v>
@@ -11845,13 +11781,13 @@
         <v>73</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>73</v>
@@ -11866,12 +11802,12 @@
         <v>73</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>350</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11891,16 +11827,16 @@
         <v>73</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>412</v>
+        <v>151</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>413</v>
+        <v>152</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11951,7 +11887,7 @@
         <v>73</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>414</v>
+        <v>153</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>74</v>
@@ -11963,7 +11899,7 @@
         <v>73</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>73</v>
@@ -11972,23 +11908,23 @@
         <v>73</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>73</v>
@@ -11997,18 +11933,20 @@
         <v>73</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>412</v>
+        <v>130</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M93" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>73</v>
@@ -12045,31 +11983,31 @@
         <v>73</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC93" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD93" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>416</v>
+        <v>159</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>73</v>
@@ -12078,12 +12016,12 @@
         <v>73</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12094,7 +12032,7 @@
         <v>74</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>73</v>
@@ -12106,16 +12044,20 @@
         <v>83</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>418</v>
+        <v>311</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>73</v>
       </c>
@@ -12124,7 +12066,7 @@
         <v>73</v>
       </c>
       <c r="R94" t="s" s="2">
-        <v>73</v>
+        <v>438</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>73</v>
@@ -12139,13 +12081,13 @@
         <v>73</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>420</v>
+        <v>73</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>421</v>
+        <v>73</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>73</v>
@@ -12163,13 +12105,13 @@
         <v>73</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>417</v>
+        <v>315</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>73</v>
@@ -12178,18 +12120,18 @@
         <v>94</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>73</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12212,22 +12154,22 @@
         <v>83</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>337</v>
+        <v>188</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>423</v>
+        <v>318</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M95" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P95" t="s" s="2">
-        <v>425</v>
-      </c>
+      <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
         <v>73</v>
       </c>
@@ -12271,7 +12213,7 @@
         <v>73</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>422</v>
+        <v>321</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>74</v>
@@ -12286,18 +12228,18 @@
         <v>94</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>73</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12308,7 +12250,7 @@
         <v>74</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>73</v>
@@ -12320,16 +12262,18 @@
         <v>83</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>427</v>
+        <v>324</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>428</v>
+        <v>325</v>
       </c>
       <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+      <c r="N96" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>73</v>
       </c>
@@ -12377,13 +12321,13 @@
         <v>73</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>426</v>
+        <v>328</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>73</v>
@@ -12392,18 +12336,18 @@
         <v>94</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>429</v>
+        <v>73</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>73</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12411,7 +12355,7 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>82</v>
@@ -12426,16 +12370,18 @@
         <v>83</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>281</v>
+        <v>188</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>431</v>
+        <v>331</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>432</v>
+        <v>332</v>
       </c>
       <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+      <c r="N97" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>73</v>
       </c>
@@ -12483,7 +12429,7 @@
         <v>73</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>430</v>
+        <v>334</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>74</v>
@@ -12495,21 +12441,21 @@
         <v>73</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>284</v>
+        <v>94</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>433</v>
+        <v>73</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>73</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12529,19 +12475,23 @@
         <v>73</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>188</v>
+        <v>337</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>151</v>
+        <v>338</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>73</v>
       </c>
@@ -12589,7 +12539,7 @@
         <v>73</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>153</v>
+        <v>342</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -12601,7 +12551,7 @@
         <v>73</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>73</v>
@@ -12610,23 +12560,23 @@
         <v>73</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>154</v>
+        <v>343</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>73</v>
@@ -12635,21 +12585,23 @@
         <v>73</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>130</v>
+        <v>345</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>156</v>
+        <v>346</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>73</v>
       </c>
@@ -12697,19 +12649,19 @@
         <v>73</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>159</v>
+        <v>349</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>73</v>
@@ -12718,48 +12670,44 @@
         <v>73</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>154</v>
+        <v>350</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>289</v>
+        <v>73</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>129</v>
+        <v>445</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>290</v>
+        <v>446</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>73</v>
       </c>
@@ -12807,33 +12755,33 @@
         <v>73</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>292</v>
+        <v>444</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>73</v>
+        <v>448</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12856,13 +12804,13 @@
         <v>83</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12889,13 +12837,11 @@
         <v>73</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X101" s="2"/>
       <c r="Y101" t="s" s="2">
-        <v>73</v>
+        <v>452</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>73</v>
@@ -12913,7 +12859,7 @@
         <v>73</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -12928,7 +12874,7 @@
         <v>94</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>73</v>
@@ -12939,7 +12885,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12947,10 +12893,10 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>73</v>
@@ -12965,10 +12911,10 @@
         <v>170</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12998,10 +12944,10 @@
         <v>214</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>215</v>
+        <v>457</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>73</v>
@@ -13019,13 +12965,13 @@
         <v>73</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>73</v>
@@ -13034,7 +12980,7 @@
         <v>94</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>73</v>
@@ -13045,7 +12991,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13056,7 +13002,7 @@
         <v>74</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>73</v>
@@ -13065,16 +13011,16 @@
         <v>73</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>84</v>
+        <v>281</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>151</v>
+        <v>461</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>152</v>
+        <v>462</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13125,44 +13071,44 @@
         <v>73</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>153</v>
+        <v>460</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>73</v>
+        <v>284</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>73</v>
+        <v>463</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>73</v>
@@ -13174,17 +13120,15 @@
         <v>73</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M104" s="2"/>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>73</v>
@@ -13221,31 +13165,31 @@
         <v>73</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>73</v>
@@ -13259,11 +13203,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13279,23 +13223,21 @@
         <v>73</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>302</v>
+        <v>130</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>303</v>
+        <v>156</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>73</v>
       </c>
@@ -13343,7 +13285,7 @@
         <v>73</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>306</v>
+        <v>159</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
@@ -13355,7 +13297,7 @@
         <v>73</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>73</v>
@@ -13364,44 +13306,48 @@
         <v>73</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>307</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>151</v>
+        <v>290</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O106" t="s" s="2">
         <v>73</v>
       </c>
@@ -13449,19 +13395,19 @@
         <v>73</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>73</v>
@@ -13470,23 +13416,23 @@
         <v>73</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>73</v>
@@ -13495,20 +13441,18 @@
         <v>73</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>130</v>
+        <v>468</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>73</v>
@@ -13545,31 +13489,31 @@
         <v>73</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>159</v>
+        <v>467</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>73</v>
@@ -13578,12 +13522,12 @@
         <v>73</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13603,23 +13547,19 @@
         <v>73</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>311</v>
+        <v>151</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>73</v>
       </c>
@@ -13628,7 +13568,7 @@
         <v>73</v>
       </c>
       <c r="R108" t="s" s="2">
-        <v>452</v>
+        <v>73</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>73</v>
@@ -13667,7 +13607,7 @@
         <v>73</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>315</v>
+        <v>153</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
@@ -13679,7 +13619,7 @@
         <v>73</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>73</v>
@@ -13688,23 +13628,23 @@
         <v>73</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>316</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>73</v>
@@ -13713,19 +13653,19 @@
         <v>73</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>318</v>
+        <v>130</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>319</v>
+        <v>156</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>320</v>
+        <v>132</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -13763,31 +13703,31 @@
         <v>73</v>
       </c>
       <c r="AA109" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC109" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD109" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>321</v>
+        <v>159</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>73</v>
@@ -13796,12 +13736,12 @@
         <v>73</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>322</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13812,7 +13752,7 @@
         <v>74</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>73</v>
@@ -13824,17 +13764,19 @@
         <v>83</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>102</v>
+        <v>301</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M110" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="N110" t="s" s="2">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>73</v>
@@ -13883,13 +13825,13 @@
         <v>73</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>73</v>
@@ -13904,12 +13846,12 @@
         <v>73</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>329</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13929,21 +13871,19 @@
         <v>73</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>331</v>
+        <v>151</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>332</v>
+        <v>152</v>
       </c>
       <c r="M111" s="2"/>
-      <c r="N111" t="s" s="2">
-        <v>333</v>
-      </c>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>73</v>
       </c>
@@ -13991,7 +13931,7 @@
         <v>73</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>334</v>
+        <v>153</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
@@ -14003,7 +13943,7 @@
         <v>73</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>73</v>
@@ -14012,23 +13952,23 @@
         <v>73</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>335</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>73</v>
@@ -14037,23 +13977,21 @@
         <v>73</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>339</v>
+        <v>156</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>73</v>
       </c>
@@ -14089,31 +14027,31 @@
         <v>73</v>
       </c>
       <c r="AA112" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>342</v>
+        <v>159</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>73</v>
@@ -14122,12 +14060,12 @@
         <v>73</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>343</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14150,19 +14088,19 @@
         <v>83</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>73</v>
@@ -14172,7 +14110,7 @@
         <v>73</v>
       </c>
       <c r="R113" t="s" s="2">
-        <v>73</v>
+        <v>476</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>73</v>
@@ -14211,7 +14149,7 @@
         <v>73</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>74</v>
@@ -14232,12 +14170,12 @@
         <v>73</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>350</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14245,7 +14183,7 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F114" t="s" s="2">
         <v>82</v>
@@ -14260,15 +14198,17 @@
         <v>83</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>459</v>
+        <v>188</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>460</v>
+        <v>318</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M114" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>73</v>
@@ -14317,7 +14257,7 @@
         <v>73</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>458</v>
+        <v>321</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>74</v>
@@ -14332,18 +14272,18 @@
         <v>94</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>462</v>
+        <v>73</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>73</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14354,7 +14294,7 @@
         <v>74</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>73</v>
@@ -14366,16 +14306,18 @@
         <v>83</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>464</v>
+        <v>324</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>465</v>
+        <v>325</v>
       </c>
       <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
+      <c r="N115" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O115" t="s" s="2">
         <v>73</v>
       </c>
@@ -14399,11 +14341,13 @@
         <v>73</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X115" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y115" t="s" s="2">
-        <v>466</v>
+        <v>73</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>73</v>
@@ -14421,13 +14365,13 @@
         <v>73</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>463</v>
+        <v>328</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>73</v>
@@ -14436,18 +14380,18 @@
         <v>94</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>467</v>
+        <v>73</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>73</v>
+        <v>329</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14458,7 +14402,7 @@
         <v>74</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>73</v>
@@ -14470,16 +14414,18 @@
         <v>83</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>469</v>
+        <v>331</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>470</v>
+        <v>332</v>
       </c>
       <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
+      <c r="N116" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O116" t="s" s="2">
         <v>73</v>
       </c>
@@ -14503,13 +14449,13 @@
         <v>73</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>471</v>
+        <v>73</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>472</v>
+        <v>73</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>73</v>
@@ -14527,13 +14473,13 @@
         <v>73</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>468</v>
+        <v>334</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>73</v>
@@ -14542,18 +14488,18 @@
         <v>94</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>473</v>
+        <v>73</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>73</v>
+        <v>335</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14564,7 +14510,7 @@
         <v>74</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>73</v>
@@ -14576,16 +14522,20 @@
         <v>83</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>281</v>
+        <v>337</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>475</v>
+        <v>338</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O117" t="s" s="2">
         <v>73</v>
       </c>
@@ -14633,33 +14583,33 @@
         <v>73</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>474</v>
+        <v>342</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>284</v>
+        <v>94</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>477</v>
+        <v>73</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>73</v>
+        <v>343</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14679,19 +14629,23 @@
         <v>73</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J118" t="s" s="2">
         <v>188</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>151</v>
+        <v>345</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O118" t="s" s="2">
         <v>73</v>
       </c>
@@ -14739,7 +14693,7 @@
         <v>73</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>153</v>
+        <v>349</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -14751,7 +14705,7 @@
         <v>73</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>73</v>
@@ -14760,23 +14714,23 @@
         <v>73</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>154</v>
+        <v>350</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>73</v>
@@ -14785,20 +14739,18 @@
         <v>73</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>129</v>
+        <v>483</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>130</v>
+        <v>484</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="M119" s="2"/>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>73</v>
@@ -14847,19 +14799,19 @@
         <v>73</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>159</v>
+        <v>482</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>73</v>
@@ -14868,16 +14820,16 @@
         <v>73</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>289</v>
+        <v>73</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -14890,26 +14842,22 @@
         <v>73</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I120" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>290</v>
+        <v>487</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>73</v>
       </c>
@@ -14957,7 +14905,7 @@
         <v>73</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>292</v>
+        <v>486</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
@@ -14969,7 +14917,7 @@
         <v>73</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>73</v>
@@ -14978,12 +14926,12 @@
         <v>73</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14991,10 +14939,10 @@
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>73</v>
@@ -15006,13 +14954,13 @@
         <v>83</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -15063,13 +15011,13 @@
         <v>73</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>73</v>
@@ -15078,7 +15026,7 @@
         <v>94</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>73</v>
+        <v>492</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>73</v>
@@ -15089,7 +15037,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15100,7 +15048,7 @@
         <v>74</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>73</v>
@@ -15109,16 +15057,16 @@
         <v>73</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>84</v>
+        <v>281</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>151</v>
+        <v>494</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>152</v>
+        <v>495</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -15169,44 +15117,44 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>153</v>
+        <v>493</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>73</v>
+        <v>284</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>73</v>
+        <v>496</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>73</v>
@@ -15218,17 +15166,15 @@
         <v>73</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>73</v>
@@ -15265,31 +15211,31 @@
         <v>73</v>
       </c>
       <c r="AA123" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB123" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC123" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD123" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>73</v>
@@ -15303,11 +15249,11 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -15323,23 +15269,21 @@
         <v>73</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>302</v>
+        <v>130</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>303</v>
+        <v>156</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>73</v>
       </c>
@@ -15387,7 +15331,7 @@
         <v>73</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>306</v>
+        <v>159</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -15399,7 +15343,7 @@
         <v>73</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>73</v>
@@ -15408,44 +15352,48 @@
         <v>73</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>307</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>151</v>
+        <v>290</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O125" t="s" s="2">
         <v>73</v>
       </c>
@@ -15493,19 +15441,19 @@
         <v>73</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>73</v>
@@ -15514,23 +15462,23 @@
         <v>73</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>73</v>
@@ -15539,20 +15487,18 @@
         <v>73</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>130</v>
+        <v>501</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="M126" s="2"/>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>73</v>
@@ -15577,57 +15523,57 @@
         <v>73</v>
       </c>
       <c r="W126" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>73</v>
+        <v>503</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>73</v>
+        <v>504</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB126" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC126" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD126" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>159</v>
+        <v>500</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>73</v>
+        <v>505</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15650,20 +15596,16 @@
         <v>83</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>96</v>
+        <v>507</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>311</v>
+        <v>508</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>73</v>
       </c>
@@ -15672,7 +15614,7 @@
         <v>73</v>
       </c>
       <c r="R127" t="s" s="2">
-        <v>490</v>
+        <v>73</v>
       </c>
       <c r="S127" t="s" s="2">
         <v>73</v>
@@ -15711,7 +15653,7 @@
         <v>73</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>315</v>
+        <v>506</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>74</v>
@@ -15726,18 +15668,18 @@
         <v>94</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>73</v>
+        <v>510</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>316</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15748,7 +15690,7 @@
         <v>74</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>73</v>
@@ -15760,17 +15702,15 @@
         <v>83</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>188</v>
+        <v>281</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>318</v>
+        <v>512</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="M128" s="2"/>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>73</v>
@@ -15819,33 +15759,33 @@
         <v>73</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>321</v>
+        <v>511</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>94</v>
+        <v>284</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>73</v>
+        <v>514</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>322</v>
+        <v>73</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15865,21 +15805,19 @@
         <v>73</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>324</v>
+        <v>151</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>325</v>
+        <v>152</v>
       </c>
       <c r="M129" s="2"/>
-      <c r="N129" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>73</v>
       </c>
@@ -15927,7 +15865,7 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>328</v>
+        <v>153</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
@@ -15939,7 +15877,7 @@
         <v>73</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>73</v>
@@ -15948,23 +15886,23 @@
         <v>73</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>329</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>73</v>
@@ -15973,21 +15911,21 @@
         <v>73</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>331</v>
+        <v>130</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M130" s="2"/>
-      <c r="N130" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
         <v>73</v>
       </c>
@@ -16035,19 +15973,19 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>334</v>
+        <v>159</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>73</v>
@@ -16056,47 +15994,47 @@
         <v>73</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>335</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I131" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>340</v>
+        <v>132</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>341</v>
+        <v>138</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>73</v>
@@ -16145,19 +16083,19 @@
         <v>73</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>73</v>
@@ -16166,12 +16104,12 @@
         <v>73</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>343</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16179,7 +16117,7 @@
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F132" t="s" s="2">
         <v>82</v>
@@ -16194,20 +16132,16 @@
         <v>83</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>188</v>
+        <v>519</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>345</v>
+        <v>520</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>73</v>
       </c>
@@ -16255,10 +16189,10 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>349</v>
+        <v>518</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>82</v>
@@ -16270,18 +16204,18 @@
         <v>94</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>73</v>
+        <v>522</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>350</v>
+        <v>73</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16289,7 +16223,7 @@
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F133" t="s" s="2">
         <v>82</v>
@@ -16304,13 +16238,13 @@
         <v>83</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>497</v>
+        <v>232</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -16361,7 +16295,7 @@
         <v>73</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>74</v>
@@ -16376,7 +16310,7 @@
         <v>94</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>73</v>
+        <v>526</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>73</v>
@@ -16387,7 +16321,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16398,7 +16332,7 @@
         <v>74</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>73</v>
@@ -16407,16 +16341,16 @@
         <v>73</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>502</v>
+        <v>152</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -16467,19 +16401,19 @@
         <v>73</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>500</v>
+        <v>153</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>73</v>
@@ -16488,16 +16422,16 @@
         <v>73</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -16513,18 +16447,20 @@
         <v>73</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>504</v>
+        <v>130</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M135" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>73</v>
@@ -16561,19 +16497,19 @@
         <v>73</v>
       </c>
       <c r="AA135" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB135" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD135" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>503</v>
+        <v>159</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>74</v>
@@ -16585,21 +16521,21 @@
         <v>73</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>506</v>
+        <v>73</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16610,7 +16546,7 @@
         <v>74</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>73</v>
@@ -16622,16 +16558,20 @@
         <v>83</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>508</v>
+        <v>239</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O136" t="s" s="2">
         <v>73</v>
       </c>
@@ -16679,33 +16619,33 @@
         <v>73</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>507</v>
+        <v>243</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>284</v>
+        <v>94</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>510</v>
+        <v>73</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>73</v>
+        <v>244</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16722,26 +16662,30 @@
         <v>73</v>
       </c>
       <c r="H137" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>152</v>
+        <v>247</v>
       </c>
       <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
+      <c r="N137" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O137" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P137" s="2"/>
+      <c r="P137" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="Q137" t="s" s="2">
         <v>73</v>
       </c>
@@ -16761,13 +16705,11 @@
         <v>73</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X137" s="2"/>
       <c r="Y137" t="s" s="2">
-        <v>73</v>
+        <v>250</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>73</v>
@@ -16785,7 +16727,7 @@
         <v>73</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>153</v>
+        <v>251</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>74</v>
@@ -16797,7 +16739,7 @@
         <v>73</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>73</v>
@@ -16806,23 +16748,23 @@
         <v>73</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>154</v>
+        <v>252</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>73</v>
@@ -16831,21 +16773,21 @@
         <v>73</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>130</v>
+        <v>254</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N138" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M138" s="2"/>
+      <c r="N138" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O138" t="s" s="2">
         <v>73</v>
       </c>
@@ -16893,19 +16835,19 @@
         <v>73</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>159</v>
+        <v>257</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>73</v>
@@ -16914,47 +16856,45 @@
         <v>73</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>154</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>289</v>
+        <v>73</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I139" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>73</v>
@@ -17003,19 +16943,19 @@
         <v>73</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>73</v>
+        <v>265</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>73</v>
@@ -17024,12 +16964,12 @@
         <v>73</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>126</v>
+        <v>266</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17037,7 +16977,7 @@
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F140" t="s" s="2">
         <v>82</v>
@@ -17052,16 +16992,20 @@
         <v>83</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>515</v>
+        <v>268</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O140" t="s" s="2">
         <v>73</v>
       </c>
@@ -17085,13 +17029,11 @@
         <v>73</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X140" s="2"/>
       <c r="Y140" t="s" s="2">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>73</v>
@@ -17109,10 +17051,10 @@
         <v>73</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>514</v>
+        <v>273</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>82</v>
@@ -17124,18 +17066,18 @@
         <v>94</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>519</v>
+        <v>73</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>73</v>
+        <v>274</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17146,7 +17088,7 @@
         <v>74</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>73</v>
@@ -17158,13 +17100,13 @@
         <v>83</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>521</v>
+        <v>73</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -17215,13 +17157,13 @@
         <v>73</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>73</v>
@@ -17230,1516 +17172,12 @@
         <v>94</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="B142" s="2"/>
-      <c r="C142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D142" s="2"/>
-      <c r="E142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J142" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="K142" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
-      <c r="O142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P142" s="2"/>
-      <c r="Q142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="B143" s="2"/>
-      <c r="C143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D143" s="2"/>
-      <c r="E143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J143" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K143" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
-      <c r="O143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P143" s="2"/>
-      <c r="Q143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE143" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AF143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL143" t="s" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B144" s="2"/>
-      <c r="C144" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D144" s="2"/>
-      <c r="E144" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J144" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K144" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N144" s="2"/>
-      <c r="O144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P144" s="2"/>
-      <c r="Q144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE144" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI144" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL144" t="s" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="B145" s="2"/>
-      <c r="C145" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="D145" s="2"/>
-      <c r="E145" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H145" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I145" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J145" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K145" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P145" s="2"/>
-      <c r="Q145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE145" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AF145" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI145" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL145" t="s" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="B146" s="2"/>
-      <c r="C146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D146" s="2"/>
-      <c r="E146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I146" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J146" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="K146" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P146" s="2"/>
-      <c r="Q146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI146" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ146" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AK146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL146" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="B147" s="2"/>
-      <c r="C147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D147" s="2"/>
-      <c r="E147" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F147" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I147" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J147" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="K147" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
-      <c r="O147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P147" s="2"/>
-      <c r="Q147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG147" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI147" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ147" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AK147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL147" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="B148" s="2"/>
-      <c r="C148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D148" s="2"/>
-      <c r="E148" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F148" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K148" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
-      <c r="O148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P148" s="2"/>
-      <c r="Q148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE148" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AF148" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG148" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL148" t="s" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B149" s="2"/>
-      <c r="C149" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D149" s="2"/>
-      <c r="E149" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J149" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N149" s="2"/>
-      <c r="O149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P149" s="2"/>
-      <c r="Q149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="B150" s="2"/>
-      <c r="C150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F150" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J150" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P150" s="2"/>
-      <c r="Q150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG150" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI150" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="B151" s="2"/>
-      <c r="C151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D151" s="2"/>
-      <c r="E151" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F151" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J151" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K151" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M151" s="2"/>
-      <c r="N151" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P151" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="Q151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W151" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X151" s="2"/>
-      <c r="Y151" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Z151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE151" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AF151" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG151" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI151" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL151" t="s" s="2">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="B152" s="2"/>
-      <c r="C152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D152" s="2"/>
-      <c r="E152" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F152" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I152" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J152" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K152" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="L152" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M152" s="2"/>
-      <c r="N152" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P152" s="2"/>
-      <c r="Q152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE152" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AF152" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG152" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI152" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL152" t="s" s="2">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="B153" s="2"/>
-      <c r="C153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D153" s="2"/>
-      <c r="E153" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F153" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I153" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J153" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K153" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M153" s="2"/>
-      <c r="N153" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P153" s="2"/>
-      <c r="Q153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE153" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AF153" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG153" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH153" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AI153" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL153" t="s" s="2">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B154" s="2"/>
-      <c r="C154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D154" s="2"/>
-      <c r="E154" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F154" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I154" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J154" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P154" s="2"/>
-      <c r="Q154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W154" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X154" s="2"/>
-      <c r="Y154" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="Z154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AF154" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG154" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI154" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL154" t="s" s="2">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="B155" s="2"/>
-      <c r="C155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D155" s="2"/>
-      <c r="E155" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I155" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K155" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M155" s="2"/>
-      <c r="N155" s="2"/>
-      <c r="O155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P155" s="2"/>
-      <c r="Q155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AF155" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI155" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ155" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AK155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL155" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:48:06+00:00</t>
+    <t>2022-11-20T20:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:12:04+00:00</t>
+    <t>2022-11-20T20:23:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:23:35+00:00</t>
+    <t>2022-11-21T10:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T10:47:26+00:00</t>
+    <t>2022-11-22T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T20:42:27+00:00</t>
+    <t>2022-11-24T22:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
